--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C88DD-45AA-4F53-B8BB-3FA1AA64D3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
     <sheet name="RF" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,17 +108,126 @@
   </si>
   <si>
     <t>Calcul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain이 안올라감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tune2/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 NC 상태에서도 동일함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR tune후 연결하여 Test할때 R24 NC 처리 여부 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR LT1210CT7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8/C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9/C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOUTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +251,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +286,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -310,7 +461,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -322,6 +473,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -331,16 +508,27 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -354,21 +542,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -378,6 +630,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,9 +714,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,6 +766,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,21 +958,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="18" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="B3" s="4"/>
       <c r="C3" s="5">
         <v>1</v>
@@ -704,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +1016,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -750,7 +1039,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -779,7 +1068,7 @@
         <v>0.83860000000000012</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -802,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -825,7 +1114,7 @@
         <v>3.3050000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -848,7 +1137,7 @@
         <v>3.3029999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18" thickBot="1">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -878,118 +1167,894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" s="18" customFormat="1">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="48"/>
+    </row>
+    <row r="5" spans="2:17" s="18" customFormat="1" ht="18" thickBot="1">
+      <c r="C5" s="49"/>
+      <c r="D5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="20" t="s">
+      <c r="L5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="36"/>
+      <c r="E6" s="37">
         <v>0.6</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="17">
         <v>470</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="17">
         <v>47</v>
       </c>
-      <c r="G6" s="13">
-        <f>1+E6/F6</f>
+      <c r="H6" s="37">
+        <f>1+F6/G6</f>
         <v>11</v>
       </c>
-      <c r="H6" s="18">
-        <f>D6*G6</f>
+      <c r="I6" s="17">
+        <v>51</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="17">
+        <v>51</v>
+      </c>
+      <c r="L6" s="16">
+        <f>E6*H6</f>
         <v>6.6</v>
       </c>
-      <c r="I6" s="13">
+      <c r="M6" s="13"/>
+      <c r="N6" s="16">
+        <f>L6*K6/(I6+K6)</f>
+        <v>3.3</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="30">
+        <f>N6*N6/K6</f>
+        <v>0.21352941176470586</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="C7" s="31"/>
+      <c r="D7" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="21">
+        <v>470</v>
+      </c>
+      <c r="G7" s="21">
+        <v>47</v>
+      </c>
+      <c r="H7" s="39">
+        <f>1+F7/G7</f>
+        <v>11</v>
+      </c>
+      <c r="I7" s="21">
         <v>51</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J7" s="21">
+        <v>51</v>
+      </c>
+      <c r="K7" s="21">
+        <v>51</v>
+      </c>
+      <c r="L7" s="22">
+        <f>E7*H7</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9">
+        <f>N7*N7/K7</f>
+        <v>9.6078431372549015E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="C8" s="7"/>
+      <c r="D8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="21">
+        <v>470</v>
+      </c>
+      <c r="G8" s="21">
+        <v>47</v>
+      </c>
+      <c r="H8" s="39">
+        <f>1+F8/G8</f>
+        <v>11</v>
+      </c>
+      <c r="I8" s="21">
+        <v>51</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K8" s="21">
         <v>51</v>
       </c>
-      <c r="L6" s="19">
-        <f>H6*K6/(I6+K6)</f>
+      <c r="L8" s="22">
+        <f>E8*H8</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="N8" s="22">
+        <f>M8*K8/(I8+K8)</f>
+        <v>1.05</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="P8" s="9">
+        <f>N8*N8/K8</f>
+        <v>2.161764705882353E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="C9" s="31"/>
+      <c r="D9" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F9" s="21">
+        <v>470</v>
+      </c>
+      <c r="G9" s="21">
+        <v>47</v>
+      </c>
+      <c r="H9" s="39">
+        <f>1+F9/G9</f>
+        <v>11</v>
+      </c>
+      <c r="I9" s="21">
+        <v>51</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="21">
+        <v>51</v>
+      </c>
+      <c r="L9" s="24">
+        <f>E9*H9</f>
+        <v>6.38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N9" s="22">
+        <f>M9*K9/(I9+K9)</f>
+        <v>1.45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P9" s="9">
+        <f>O9*O9/K9</f>
+        <v>2.8235294117647056E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="C10" s="31"/>
+      <c r="D10" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="21">
+        <v>47</v>
+      </c>
+      <c r="H10" s="40">
+        <f>1+F10/G10</f>
+        <v>22.276595744680851</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="24">
+        <f>E10*H10</f>
+        <v>12.920425531914892</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="C11" s="7"/>
+      <c r="D11" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F11" s="25">
+        <v>200</v>
+      </c>
+      <c r="G11" s="25">
+        <v>47</v>
+      </c>
+      <c r="H11" s="41">
+        <f>1+F11/G11</f>
+        <v>5.2553191489361701</v>
+      </c>
+      <c r="I11" s="21">
+        <v>51</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="21">
+        <v>51</v>
+      </c>
+      <c r="L11" s="24">
+        <f>E11*H11</f>
+        <v>3.0480851063829784</v>
+      </c>
+      <c r="M11" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="N11" s="22">
+        <f>M11*K11/(I11+K11)</f>
+        <v>1.2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="P11" s="9">
+        <f>O11*O11/K11</f>
+        <v>2.1207843137254906E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="C12" s="7"/>
+      <c r="D12" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12" s="25">
+        <v>200</v>
+      </c>
+      <c r="G12" s="25">
+        <v>47</v>
+      </c>
+      <c r="H12" s="41">
+        <f>1+F12/G12</f>
+        <v>5.2553191489361701</v>
+      </c>
+      <c r="I12" s="21">
+        <v>51</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="24">
+        <f>E12*H12</f>
+        <v>3.0480851063829784</v>
+      </c>
+      <c r="M12" s="21">
+        <v>2.64</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="C13" s="7"/>
+      <c r="D13" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13" s="25">
+        <v>200</v>
+      </c>
+      <c r="G13" s="25">
+        <v>47</v>
+      </c>
+      <c r="H13" s="41">
+        <f>1+F13/G13</f>
+        <v>5.2553191489361701</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="21">
+        <v>51</v>
+      </c>
+      <c r="L13" s="24">
+        <f>E13*H13</f>
+        <v>3.0480851063829784</v>
+      </c>
+      <c r="M13" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="N13" s="22">
+        <f>M13*K13/(I13+K13)</f>
+        <v>2.8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="9">
+        <f>O13*O13/K13</f>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="C14" s="7"/>
+      <c r="D14" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F14" s="21">
+        <v>270</v>
+      </c>
+      <c r="G14" s="25">
+        <v>47</v>
+      </c>
+      <c r="H14" s="41">
+        <f>1+F14/G14</f>
+        <v>6.7446808510638299</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="21">
+        <v>51</v>
+      </c>
+      <c r="L14" s="24">
+        <f>E14*H14</f>
+        <v>3.9119148936170212</v>
+      </c>
+      <c r="M14" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="N14" s="22">
+        <f>M14*K14/(I14+K14)</f>
+        <v>3.04</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="P14" s="9">
+        <f>O14*O14/K14</f>
+        <v>0.21612549019607841</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="C15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F15" s="22">
+        <v>470</v>
+      </c>
+      <c r="G15" s="33">
+        <v>47</v>
+      </c>
+      <c r="H15" s="34">
+        <f>1+F15/G15</f>
+        <v>11</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="22">
+        <v>51</v>
+      </c>
+      <c r="L15" s="24">
+        <f>E15*H15</f>
+        <v>6.38</v>
+      </c>
+      <c r="M15" s="22">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="21"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
+      <c r="N15" s="22">
+        <f>M15*K15/(I15+K15)</f>
+        <v>3.3</v>
+      </c>
+      <c r="O15" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="P15" s="35">
+        <f>O15*O15/K15</f>
+        <v>0.25411764705882356</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="C16" s="7"/>
+      <c r="D16" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F16" s="43">
+        <v>470</v>
+      </c>
+      <c r="G16" s="43">
+        <v>47</v>
+      </c>
+      <c r="H16" s="44">
+        <f>1+F16/G16</f>
+        <v>11</v>
+      </c>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="44">
+        <f>E16*H16</f>
+        <v>6.38</v>
+      </c>
+      <c r="M16" s="43">
+        <v>3.32</v>
+      </c>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43">
+        <v>3.64</v>
+      </c>
+      <c r="P16" s="45"/>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="18" thickBot="1">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="18" thickBot="1">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="18" thickBot="1">
+      <c r="N21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="57"/>
+    </row>
+    <row r="22" spans="2:17" s="50" customFormat="1" ht="18" thickBot="1">
+      <c r="C22" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="C23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="13">
+        <v>51</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="13">
+        <v>680</v>
+      </c>
+      <c r="I23" s="13">
+        <v>680</v>
+      </c>
+      <c r="J23" s="54">
+        <f>1+H23/I23</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N23" s="13">
+        <f>M23*J23</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O23" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="C24" s="7"/>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2">
+        <v>680</v>
+      </c>
+      <c r="I24" s="2">
+        <v>680</v>
+      </c>
+      <c r="J24" s="41">
+        <f>1+H24/I24</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N24" s="2">
+        <f>M24*J24</f>
+        <v>6.6</v>
+      </c>
+      <c r="O24" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="C25" s="7"/>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2">
+        <v>680</v>
+      </c>
+      <c r="I25" s="2">
+        <v>680</v>
+      </c>
+      <c r="J25" s="41">
+        <f>1+H25/I25</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="2">
+        <v>51</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="N25" s="2">
+        <f>M25*J25</f>
+        <v>6.72</v>
+      </c>
+      <c r="O25" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="P25" s="9">
+        <f>O25*O25/L25</f>
+        <v>1.1565176470588234</v>
+      </c>
+      <c r="Q25">
+        <f>P25/O25</f>
+        <v>0.15058823529411763</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="C26" s="7"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="C30" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="2:17" ht="18" thickBot="1">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N21:O21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C88DD-45AA-4F53-B8BB-3FA1AA64D3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D97ED-D01B-472A-94AB-1A871D4A312C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
     <sheet name="RF" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CORE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,127 @@
   </si>
   <si>
     <t>Iout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L[uH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z[Ohm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT140-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~500MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT82-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T106-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3MHz ~ 40MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T106-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250KHz ~ 10MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T50-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4,L5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정기가 기본적으로 0.3uH를 표시함, offset 감안하면 0.25uH로 유추 가능함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Wire[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Φ]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7,L8,L9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coupler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,9 +346,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +393,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -299,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -524,11 +653,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -559,11 +703,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,17 +718,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,8 +752,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +765,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1170,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -1190,64 +1337,64 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:17" s="18" customFormat="1">
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="26" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="48"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="2:17" s="18" customFormat="1" ht="18" thickBot="1">
-      <c r="C5" s="49"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1255,8 +1402,8 @@
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36">
         <v>0.6</v>
       </c>
       <c r="F6" s="17">
@@ -1265,8 +1412,8 @@
       <c r="G6" s="17">
         <v>47</v>
       </c>
-      <c r="H6" s="37">
-        <f>1+F6/G6</f>
+      <c r="H6" s="36">
+        <f t="shared" ref="H6:H16" si="0">1+F6/G6</f>
         <v>11</v>
       </c>
       <c r="I6" s="17">
@@ -1279,7 +1426,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="16">
-        <f>E6*H6</f>
+        <f t="shared" ref="L6:L16" si="1">E6*H6</f>
         <v>6.6</v>
       </c>
       <c r="M6" s="13"/>
@@ -1288,17 +1435,17 @@
         <v>3.3</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <f>N6*N6/K6</f>
         <v>0.21352941176470586</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="C7" s="31"/>
-      <c r="D7" s="38">
+      <c r="C7" s="30"/>
+      <c r="D7" s="37">
         <v>0.6</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>0.4</v>
       </c>
       <c r="F7" s="21">
@@ -1307,8 +1454,8 @@
       <c r="G7" s="21">
         <v>47</v>
       </c>
-      <c r="H7" s="39">
-        <f>1+F7/G7</f>
+      <c r="H7" s="38">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I7" s="21">
@@ -1321,7 +1468,7 @@
         <v>51</v>
       </c>
       <c r="L7" s="22">
-        <f>E7*H7</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="M7" s="2"/>
@@ -1336,10 +1483,10 @@
     </row>
     <row r="8" spans="2:17">
       <c r="C8" s="7"/>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0.6</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>0.4</v>
       </c>
       <c r="F8" s="21">
@@ -1348,8 +1495,8 @@
       <c r="G8" s="21">
         <v>47</v>
       </c>
-      <c r="H8" s="39">
-        <f>1+F8/G8</f>
+      <c r="H8" s="38">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I8" s="21">
@@ -1362,7 +1509,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="22">
-        <f>E8*H8</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="M8" s="2">
@@ -1381,11 +1528,11 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="C9" s="31"/>
-      <c r="D9" s="38">
+      <c r="C9" s="30"/>
+      <c r="D9" s="37">
         <v>0.9</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F9" s="21">
@@ -1394,8 +1541,8 @@
       <c r="G9" s="21">
         <v>47</v>
       </c>
-      <c r="H9" s="39">
-        <f>1+F9/G9</f>
+      <c r="H9" s="38">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I9" s="21">
@@ -1408,7 +1555,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="24">
-        <f>E9*H9</f>
+        <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
       <c r="M9" s="2">
@@ -1427,11 +1574,11 @@
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="C10" s="31"/>
-      <c r="D10" s="38">
+      <c r="C10" s="30"/>
+      <c r="D10" s="37">
         <v>0.9</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F10" s="21">
@@ -1440,8 +1587,8 @@
       <c r="G10" s="21">
         <v>47</v>
       </c>
-      <c r="H10" s="40">
-        <f>1+F10/G10</f>
+      <c r="H10" s="39">
+        <f t="shared" si="0"/>
         <v>22.276595744680851</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -1450,7 +1597,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="24">
-        <f>E10*H10</f>
+        <f t="shared" si="1"/>
         <v>12.920425531914892</v>
       </c>
       <c r="M10" s="2">
@@ -1462,10 +1609,10 @@
     </row>
     <row r="11" spans="2:17">
       <c r="C11" s="7"/>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0.9</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F11" s="25">
@@ -1474,8 +1621,8 @@
       <c r="G11" s="25">
         <v>47</v>
       </c>
-      <c r="H11" s="41">
-        <f>1+F11/G11</f>
+      <c r="H11" s="40">
+        <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
       <c r="I11" s="21">
@@ -1488,7 +1635,7 @@
         <v>51</v>
       </c>
       <c r="L11" s="24">
-        <f>E11*H11</f>
+        <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
       <c r="M11" s="21">
@@ -1508,10 +1655,10 @@
     </row>
     <row r="12" spans="2:17">
       <c r="C12" s="7"/>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0.9</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F12" s="25">
@@ -1520,8 +1667,8 @@
       <c r="G12" s="25">
         <v>47</v>
       </c>
-      <c r="H12" s="41">
-        <f>1+F12/G12</f>
+      <c r="H12" s="40">
+        <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
       <c r="I12" s="21">
@@ -1534,7 +1681,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="24">
-        <f>E12*H12</f>
+        <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
       <c r="M12" s="21">
@@ -1546,10 +1693,10 @@
     </row>
     <row r="13" spans="2:17">
       <c r="C13" s="7"/>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0.9</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F13" s="25">
@@ -1558,8 +1705,8 @@
       <c r="G13" s="25">
         <v>47</v>
       </c>
-      <c r="H13" s="41">
-        <f>1+F13/G13</f>
+      <c r="H13" s="40">
+        <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
       <c r="I13" s="21">
@@ -1572,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="L13" s="24">
-        <f>E13*H13</f>
+        <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
       <c r="M13" s="21">
@@ -1592,10 +1739,10 @@
     </row>
     <row r="14" spans="2:17">
       <c r="C14" s="7"/>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0.9</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>0.57999999999999996</v>
       </c>
       <c r="F14" s="21">
@@ -1604,8 +1751,8 @@
       <c r="G14" s="25">
         <v>47</v>
       </c>
-      <c r="H14" s="41">
-        <f>1+F14/G14</f>
+      <c r="H14" s="40">
+        <f t="shared" si="0"/>
         <v>6.7446808510638299</v>
       </c>
       <c r="I14" s="21">
@@ -1618,7 +1765,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="24">
-        <f>E14*H14</f>
+        <f t="shared" si="1"/>
         <v>3.9119148936170212</v>
       </c>
       <c r="M14" s="21">
@@ -1637,7 +1784,7 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="23">
@@ -1649,11 +1796,11 @@
       <c r="F15" s="22">
         <v>470</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>47</v>
       </c>
-      <c r="H15" s="34">
-        <f>1+F15/G15</f>
+      <c r="H15" s="33">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I15" s="22">
@@ -1666,7 +1813,7 @@
         <v>51</v>
       </c>
       <c r="L15" s="24">
-        <f>E15*H15</f>
+        <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
       <c r="M15" s="22">
@@ -1679,50 +1826,50 @@
       <c r="O15" s="22">
         <v>3.6</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <f>O15*O15/K15</f>
         <v>0.25411764705882356</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="C16" s="7"/>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>0.9</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>470</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <v>47</v>
       </c>
-      <c r="H16" s="44">
-        <f>1+F16/G16</f>
+      <c r="H16" s="43">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="42">
         <v>0</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="44">
-        <f>E16*H16</f>
+      <c r="L16" s="43">
+        <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <v>3.32</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43">
+      <c r="N16" s="42"/>
+      <c r="O16" s="42">
         <v>3.64</v>
       </c>
-      <c r="P16" s="45"/>
+      <c r="P16" s="44"/>
       <c r="Q16" t="s">
         <v>27</v>
       </c>
@@ -1759,8 +1906,8 @@
       </c>
       <c r="O21" s="57"/>
     </row>
-    <row r="22" spans="2:17" s="50" customFormat="1" ht="18" thickBot="1">
-      <c r="C22" s="51" t="s">
+    <row r="22" spans="2:17" s="49" customFormat="1" ht="18" thickBot="1">
+      <c r="C22" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -1796,18 +1943,18 @@
       <c r="N22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="O22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:17">
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="13">
@@ -1828,7 +1975,7 @@
       <c r="I23" s="13">
         <v>680</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <f>1+H23/I23</f>
         <v>2</v>
       </c>
@@ -1870,7 +2017,7 @@
       <c r="I24" s="2">
         <v>680</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <f>1+H24/I24</f>
         <v>2</v>
       </c>
@@ -1912,7 +2059,7 @@
       <c r="I25" s="2">
         <v>680</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="40">
         <f>1+H25/I25</f>
         <v>2</v>
       </c>
@@ -2050,12 +2197,350 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>12.7</v>
+      </c>
+      <c r="H4">
+        <v>885</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1704</v>
+      </c>
+      <c r="K4">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>13.2</v>
+      </c>
+      <c r="G5">
+        <v>6.35</v>
+      </c>
+      <c r="H5">
+        <v>470</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1704</v>
+      </c>
+      <c r="K5">
+        <v>6.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>26.9</v>
+      </c>
+      <c r="F6">
+        <v>14.5</v>
+      </c>
+      <c r="G6">
+        <v>11.1</v>
+      </c>
+      <c r="H6">
+        <v>11.6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>85.2</v>
+      </c>
+      <c r="K6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>26.9</v>
+      </c>
+      <c r="F7">
+        <v>14.5</v>
+      </c>
+      <c r="G7">
+        <v>11.1</v>
+      </c>
+      <c r="H7">
+        <v>13.5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>85.2</v>
+      </c>
+      <c r="K7">
+        <v>8.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>12.7</v>
+      </c>
+      <c r="F8">
+        <v>7.7</v>
+      </c>
+      <c r="G8">
+        <v>4.83</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>8.5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>12.7</v>
+      </c>
+      <c r="F9">
+        <v>7.7</v>
+      </c>
+      <c r="G9">
+        <v>4.83</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>21.3</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickBot="1"/>
+    <row r="11" spans="2:12" ht="18" thickBot="1">
+      <c r="B11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>290</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" thickBot="1">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D97ED-D01B-472A-94AB-1A871D4A312C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="RF" sheetId="2" r:id="rId2"/>
-    <sheet name="CORE" sheetId="3" r:id="rId3"/>
+    <sheet name="RF" sheetId="2" r:id="rId1"/>
+    <sheet name="CORE" sheetId="3" r:id="rId2"/>
+    <sheet name="FAN" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,43 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
-  <si>
-    <t>12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V I[A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V P[W]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-LINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,14 +302,73 @@
     <t>Coupler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DELTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12VDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmH2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise[dBA]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFB0912SH-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFB0912VHD-F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92x92x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92x92x25.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -672,14 +694,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -703,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,17 +737,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,10 +771,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,9 +787,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -828,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,26 +880,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,23 +915,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1105,911 +1090,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11.99</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="G5" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="H5" s="8">
-        <v>11.98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <f>C4*C5</f>
-        <v>0.83930000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <f>D4*D5</f>
-        <v>0.83860000000000012</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ref="E6:H6" si="0">E4*E5</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83860000000000012</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83860000000000012</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.83860000000000012</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.03</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.04</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.01</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="H7" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.2829999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="H8" s="8">
-        <v>3.3050000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.306</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3.3029999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:Q31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="4" width="9.19921875" customWidth="1"/>
+    <col min="1" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18" thickBot="1">
+    <row r="3" spans="2:17" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:17" s="18" customFormat="1">
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+    <row r="4" spans="2:17" s="15" customFormat="1">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="55" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M4" s="55"/>
       <c r="N4" s="55" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O4" s="55"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" spans="2:17" s="18" customFormat="1" ht="18" thickBot="1">
-      <c r="C5" s="48"/>
-      <c r="D5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="P4" s="44"/>
+    </row>
+    <row r="5" spans="2:17" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="C5" s="45"/>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="27" t="s">
+    </row>
+    <row r="6" spans="2:17">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33">
         <v>0.6</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>470</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>47</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <f t="shared" ref="H6:H16" si="0">1+F6/G6</f>
         <v>11</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>51</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="14">
         <v>51</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <f t="shared" ref="L6:L16" si="1">E6*H6</f>
         <v>6.6</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16">
+      <c r="M6" s="10"/>
+      <c r="N6" s="13">
         <f>L6*K6/(I6+K6)</f>
         <v>3.3</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="29">
+      <c r="O6" s="10"/>
+      <c r="P6" s="26">
         <f>N6*N6/K6</f>
         <v>0.21352941176470586</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="C7" s="30"/>
-      <c r="D7" s="37">
+      <c r="C7" s="27"/>
+      <c r="D7" s="34">
         <v>0.6</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>0.4</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>470</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>47</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>51</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <v>51</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <v>51</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="19">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="22">
+      <c r="N7" s="19">
         <v>0.7</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="9">
+      <c r="P7" s="6">
         <f>N7*N7/K7</f>
         <v>9.6078431372549015E-3</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="C8" s="7"/>
-      <c r="D8" s="37">
+      <c r="C8" s="4"/>
+      <c r="D8" s="34">
         <v>0.6</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>0.4</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>470</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>47</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>51</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="21">
+      <c r="J8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="18">
         <v>51</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="M8" s="2">
         <v>2.1</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="19">
         <f>M8*K8/(I8+K8)</f>
         <v>1.05</v>
       </c>
       <c r="O8" s="2">
         <v>0.88</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6">
         <f>N8*N8/K8</f>
         <v>2.161764705882353E-2</v>
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="C9" s="30"/>
-      <c r="D9" s="37">
+      <c r="C9" s="27"/>
+      <c r="D9" s="34">
         <v>0.9</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>470</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>47</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>51</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="J9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="18">
         <v>51</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
       <c r="M9" s="2">
         <v>2.9</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="19">
         <f>M9*K9/(I9+K9)</f>
         <v>1.45</v>
       </c>
       <c r="O9" s="2">
         <v>1.2</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <f>O9*O9/K9</f>
         <v>2.8235294117647056E-2</v>
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="C10" s="30"/>
-      <c r="D10" s="37">
+      <c r="C10" s="27"/>
+      <c r="D10" s="34">
         <v>0.9</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>1000</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>47</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>22.276595744680851</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="24">
+      <c r="I10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="21">
         <f t="shared" si="1"/>
         <v>12.920425531914892</v>
       </c>
       <c r="M10" s="2">
         <v>2.8</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="C11" s="7"/>
-      <c r="D11" s="37">
+      <c r="C11" s="4"/>
+      <c r="D11" s="34">
         <v>0.9</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>200</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <v>47</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>51</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="J11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="18">
         <v>51</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="21">
         <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>2.4</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="19">
         <f>M11*K11/(I11+K11)</f>
         <v>1.2</v>
       </c>
       <c r="O11" s="2">
         <v>1.04</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <f>O11*O11/K11</f>
         <v>2.1207843137254906E-2</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="C12" s="7"/>
-      <c r="D12" s="37">
+      <c r="C12" s="4"/>
+      <c r="D12" s="34">
         <v>0.9</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>200</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>47</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>51</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="J12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="21">
         <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>2.64</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="C13" s="7"/>
-      <c r="D13" s="37">
+      <c r="C13" s="4"/>
+      <c r="D13" s="34">
         <v>0.9</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>200</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <v>47</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>5.2553191489361701</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>0</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="J13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="18">
         <v>51</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="21">
         <f t="shared" si="1"/>
         <v>3.0480851063829784</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>2.8</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="19">
         <f>M13*K13/(I13+K13)</f>
         <v>2.8</v>
       </c>
       <c r="O13" s="2">
         <v>3</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="6">
         <f>O13*O13/K13</f>
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="C14" s="7"/>
-      <c r="D14" s="37">
+      <c r="C14" s="4"/>
+      <c r="D14" s="34">
         <v>0.9</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>270</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <v>47</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="37">
         <f t="shared" si="0"/>
         <v>6.7446808510638299</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <v>0</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="J14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="18">
         <v>51</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="21">
         <f t="shared" si="1"/>
         <v>3.9119148936170212</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>3.04</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="19">
         <f>M14*K14/(I14+K14)</f>
         <v>3.04</v>
       </c>
       <c r="O14" s="2">
         <v>3.32</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="6">
         <f>O14*O14/K14</f>
         <v>0.21612549019607841</v>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="20">
         <v>0.9</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <v>470</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="29">
         <v>47</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>0</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="J15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="19">
         <v>51</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="21">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="19">
         <v>3.3</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="19">
         <f>M15*K15/(I15+K15)</f>
         <v>3.3</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="19">
         <v>3.6</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="31">
         <f>O15*O15/K15</f>
         <v>0.25411764705882356</v>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="C16" s="7"/>
-      <c r="D16" s="41">
+      <c r="C16" s="4"/>
+      <c r="D16" s="38">
         <v>0.9</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="39">
         <v>470</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="39">
         <v>47</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="39">
         <v>0</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="43">
+      <c r="J16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="40">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="39">
         <v>3.32</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42">
+      <c r="N16" s="39"/>
+      <c r="O16" s="39">
         <v>3.64</v>
       </c>
-      <c r="P16" s="44"/>
+      <c r="P16" s="41"/>
       <c r="Q16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="18" thickBot="1">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="2:17">
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17.25" thickBot="1">
+      <c r="N21" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="57"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
+      <c r="C22" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1">
-      <c r="B20" s="1" t="s">
+      <c r="L22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="C23" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="57"/>
-    </row>
-    <row r="22" spans="2:17" s="49" customFormat="1" ht="18" thickBot="1">
-      <c r="C22" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="C23" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="13">
-        <v>51</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="H23" s="10">
         <v>680</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="10">
         <v>680</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="50">
         <f>1+H23/I23</f>
         <v>2</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="K23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="10">
         <f>M23*J23</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P23" s="14"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="C24" s="7"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H24" s="2">
         <v>680</v>
@@ -2017,15 +1793,15 @@
       <c r="I24" s="2">
         <v>680</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="37">
         <f>1+H24/I24</f>
         <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M24" s="2">
         <v>3.3</v>
@@ -2037,21 +1813,21 @@
       <c r="O24" s="2">
         <v>7.4</v>
       </c>
-      <c r="P24" s="8"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="C25" s="7"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2">
         <v>680</v>
@@ -2059,12 +1835,12 @@
       <c r="I25" s="2">
         <v>680</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="37">
         <f>1+H25/I25</f>
         <v>2</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L25" s="2">
         <v>51</v>
@@ -2079,7 +1855,7 @@
       <c r="O25" s="2">
         <v>7.68</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="6">
         <f>O25*O25/L25</f>
         <v>1.1565176470588234</v>
       </c>
@@ -2089,7 +1865,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="C26" s="7"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2102,10 +1878,10 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="8"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="C27" s="7"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2118,10 +1894,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="8"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="C28" s="7"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2134,10 +1910,10 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="8"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="C29" s="7"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2150,10 +1926,10 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="8"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="C30" s="7"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2166,23 +1942,23 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="2:17" ht="18" thickBot="1">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:17" ht="17.25" thickBot="1">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2195,45 +1971,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
       <c r="E3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="D4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>35.549999999999997</v>
@@ -2257,12 +2033,12 @@
         <v>4.8</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="D5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>21</v>
@@ -2286,12 +2062,12 @@
         <v>6.5</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>26.9</v>
@@ -2315,12 +2091,12 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="D7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>26.9</v>
@@ -2344,12 +2120,12 @@
         <v>8.6</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="D8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>12.7</v>
@@ -2373,12 +2149,12 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="D9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>12.7</v>
@@ -2402,68 +2178,68 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="11" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1"/>
-    <row r="11" spans="2:12" ht="18" thickBot="1">
-      <c r="B11" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>72</v>
+      <c r="G11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="13">
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>24</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="7" t="s">
-        <v>66</v>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
         <v>6</v>
@@ -2471,25 +2247,25 @@
       <c r="G13" s="2">
         <v>0.5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="7" t="s">
-        <v>66</v>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2">
         <v>9</v>
@@ -2497,20 +2273,20 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="7" t="s">
-        <v>74</v>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2">
         <v>25</v>
@@ -2518,27 +2294,132 @@
       <c r="G15" s="2">
         <v>290</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="7"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" thickBot="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>4800</v>
+      </c>
+      <c r="H5">
+        <v>102.59</v>
+      </c>
+      <c r="I5">
+        <v>13.35</v>
+      </c>
+      <c r="J5">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6">
+        <v>3300</v>
+      </c>
+      <c r="H6">
+        <v>66.11</v>
+      </c>
+      <c r="I6">
+        <v>5.03</v>
+      </c>
+      <c r="J6">
+        <v>40.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8134D5-3D43-46BF-A939-AF93E75E867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
-    <sheet name="CORE" sheetId="3" r:id="rId2"/>
-    <sheet name="FAN" sheetId="4" r:id="rId3"/>
+    <sheet name="0215" sheetId="5" r:id="rId2"/>
+    <sheet name="CORE" sheetId="3" r:id="rId3"/>
+    <sheet name="FAN" sheetId="4" r:id="rId4"/>
+    <sheet name="Bias" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,11 +365,71 @@
     <t>92x92x25.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>#05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_OUT-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_OUT+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vbias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ibias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vbias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF PCB 동작하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET input까지는 문제 없지만, 출력이 20mV로 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류도 0.1A 정도 흐름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bias를 9V까지 올려도 마찬가지임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -450,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -690,11 +753,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -778,6 +1079,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,6 +1133,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -847,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,9 +1281,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,6 +1333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1090,22 +1525,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.25" thickBot="1">
+    <row r="3" spans="2:17" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,17 +1557,17 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="55"/>
+      <c r="O4" s="80"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:17" s="15" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:17" s="15" customFormat="1" ht="18" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -1650,7 +2085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+    <row r="17" spans="2:17" ht="18" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1671,18 +2106,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+    <row r="20" spans="2:17" ht="18" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="17.25" thickBot="1">
-      <c r="N21" s="56" t="s">
+    <row r="21" spans="2:17" ht="18" thickBot="1">
+      <c r="N21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="57"/>
-    </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
+      <c r="O21" s="82"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -1944,7 +2379,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="17.25" thickBot="1">
+    <row r="31" spans="2:17" ht="18" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1972,16 +2407,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD500B9-129D-4B15-8A87-624559BADA88}">
+  <dimension ref="B2:AB16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" ht="18" thickBot="1"/>
+    <row r="3" spans="2:28" ht="18" thickBot="1">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="89"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="75"/>
+    </row>
+    <row r="5" spans="2:28" ht="18" thickBot="1">
+      <c r="B5" s="45"/>
+      <c r="C5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="18" thickBot="1">
+      <c r="B6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E6" s="14">
+        <v>470</v>
+      </c>
+      <c r="F6" s="14">
+        <v>47</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" ref="G6" si="0">1+E6/F6</f>
+        <v>11</v>
+      </c>
+      <c r="H6" s="58">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="33">
+        <f>D6*G6</f>
+        <v>5.6319999999999997</v>
+      </c>
+      <c r="L6" s="94">
+        <v>3.24</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>680</v>
+      </c>
+      <c r="R6" s="10">
+        <v>680</v>
+      </c>
+      <c r="S6" s="50">
+        <f>1+Q6/R6</f>
+        <v>2</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="10">
+        <v>51</v>
+      </c>
+      <c r="V6" s="33">
+        <f>N6*S6</f>
+        <v>6.72</v>
+      </c>
+      <c r="W6" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="X6" s="59">
+        <f>W6*W6/U6</f>
+        <v>0.76593137254901966</v>
+      </c>
+      <c r="Y6" s="70">
+        <f>X6/W6</f>
+        <v>0.12254901960784315</v>
+      </c>
+      <c r="Z6" s="103">
+        <v>2.96</v>
+      </c>
+      <c r="AA6" s="104">
+        <v>2.92</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="4"/>
+      <c r="C7" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="69">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E7" s="14">
+        <v>470</v>
+      </c>
+      <c r="F7" s="14">
+        <v>47</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7" si="1">1+E7/F7</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="58">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="33">
+        <f>D7*G7</f>
+        <v>5.6319999999999997</v>
+      </c>
+      <c r="L7" s="94">
+        <v>2.76</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="13">
+        <v>2.76</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>680</v>
+      </c>
+      <c r="R7" s="10">
+        <v>360</v>
+      </c>
+      <c r="S7" s="50">
+        <f>1+Q7/R7</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="10">
+        <v>51</v>
+      </c>
+      <c r="V7" s="33">
+        <f>N7*S7</f>
+        <v>7.9733333333333327</v>
+      </c>
+      <c r="W7" s="13">
+        <v>7.68</v>
+      </c>
+      <c r="X7" s="59">
+        <f>W7*W7/U7</f>
+        <v>1.1565176470588234</v>
+      </c>
+      <c r="Y7" s="70">
+        <f>X7/W7</f>
+        <v>0.15058823529411763</v>
+      </c>
+      <c r="Z7" s="103">
+        <v>3.84</v>
+      </c>
+      <c r="AA7" s="104">
+        <v>3.72</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="4"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="104"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="4"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="104"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="4"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="104"/>
+    </row>
+    <row r="11" spans="2:28" ht="18" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="104"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="M3:Y3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
@@ -2181,8 +3115,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="11" spans="2:12" ht="17.25" thickBot="1">
+    <row r="10" spans="2:12" ht="18" thickBot="1"/>
+    <row r="11" spans="2:12" ht="18" thickBot="1">
       <c r="B11" s="52" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +3241,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="17.25" thickBot="1">
+    <row r="17" spans="2:8" ht="18" thickBot="1">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2322,19 +3256,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
@@ -2425,4 +3359,155 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E2000-11E4-4844-8A34-A88A2FE98A6B}">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18" thickBot="1"/>
+    <row r="3" spans="2:8" ht="18" thickBot="1">
+      <c r="B3" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="10">
+        <f>B4*E4/(C4+D4+E4)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="2">
+        <f>B5*E5/(C5+D5+E5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="2">
+        <f>B6*E6/(C6+D6+E6)</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="2">
+        <f>B7*E7/(C7+D7+E7)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" ht="18" thickBot="1">
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="8">
+        <f>B8*E8/(C8+D8+E8)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8134D5-3D43-46BF-A939-AF93E75E867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1211D5-8EB3-4F91-B835-10CBB7433A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
     <sheet name="0215" sheetId="5" r:id="rId2"/>
-    <sheet name="CORE" sheetId="3" r:id="rId3"/>
-    <sheet name="FAN" sheetId="4" r:id="rId4"/>
-    <sheet name="Bias" sheetId="6" r:id="rId5"/>
+    <sheet name="0216" sheetId="7" r:id="rId3"/>
+    <sheet name="CORE" sheetId="3" r:id="rId4"/>
+    <sheet name="FAN" sheetId="4" r:id="rId5"/>
+    <sheet name="Bias" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +424,86 @@
   </si>
   <si>
     <t>Bias를 9V까지 올려도 마찬가지임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; TX2의 2pin 48V bias가 납땜이 안되어 있었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF PCB에 SIGEN 직접 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF-800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +568,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +593,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -991,11 +1078,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1126,39 +1283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,6 +1312,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1557,14 +1737,14 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80" t="s">
+      <c r="M4" s="95"/>
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80"/>
+      <c r="O4" s="95"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:17" s="15" customFormat="1" ht="18" thickBot="1">
@@ -2112,10 +2292,10 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="82"/>
+      <c r="O21" s="97"/>
     </row>
     <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
@@ -2408,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD500B9-129D-4B15-8A87-624559BADA88}">
-  <dimension ref="B2:AB16"/>
+  <dimension ref="B2:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2436,56 +2616,57 @@
     <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="18" thickBot="1"/>
-    <row r="3" spans="2:28" ht="18" thickBot="1">
+    <row r="2" spans="2:35" ht="18" thickBot="1"/>
+    <row r="3" spans="2:35" ht="18" thickBot="1">
       <c r="B3" s="76"/>
       <c r="C3" s="77"/>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="89" t="s">
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="90"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="105"/>
       <c r="Z3" s="79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:28">
+    <row r="4" spans="2:35">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="72"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="74"/>
       <c r="N4" s="74"/>
       <c r="O4" s="57"/>
@@ -2495,15 +2676,21 @@
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
       <c r="U4" s="57"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="88"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="103"/>
       <c r="Z4" s="75"/>
-    </row>
-    <row r="5" spans="2:28" ht="18" thickBot="1">
+      <c r="AC4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" ht="18" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="60" t="s">
         <v>12</v>
@@ -2529,16 +2716,16 @@
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="82" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="86" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="24" t="s">
@@ -2553,7 +2740,7 @@
       <c r="R5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="91" t="s">
+      <c r="S5" s="80" t="s">
         <v>1</v>
       </c>
       <c r="T5" s="24" t="s">
@@ -2562,10 +2749,10 @@
       <c r="U5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="97" t="s">
+      <c r="W5" s="86" t="s">
         <v>15</v>
       </c>
       <c r="X5" s="23" t="s">
@@ -2574,17 +2761,38 @@
       <c r="Y5" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="101" t="s">
+      <c r="Z5" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="102" t="s">
+      <c r="AA5" s="91" t="s">
         <v>83</v>
       </c>
       <c r="AB5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="2:28" ht="18" thickBot="1">
+      <c r="AC5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" ht="18" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>81</v>
       </c>
@@ -2617,7 +2825,7 @@
         <f>D6*G6</f>
         <v>5.6319999999999997</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="83">
         <v>3.24</v>
       </c>
       <c r="M6" s="66" t="s">
@@ -2663,17 +2871,17 @@
         <f>X6/W6</f>
         <v>0.12254901960784315</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="Z6" s="92">
         <v>2.96</v>
       </c>
-      <c r="AA6" s="104">
+      <c r="AA6" s="93">
         <v>2.92</v>
       </c>
       <c r="AB6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:28">
+    <row r="7" spans="2:35">
       <c r="B7" s="4"/>
       <c r="C7" s="61">
         <v>0.8</v>
@@ -2704,7 +2912,7 @@
         <f>D7*G7</f>
         <v>5.6319999999999997</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="83">
         <v>2.76</v>
       </c>
       <c r="M7" s="66" t="s">
@@ -2750,19 +2958,21 @@
         <f>X7/W7</f>
         <v>0.15058823529411763</v>
       </c>
-      <c r="Z7" s="103">
+      <c r="Z7" s="92">
         <v>3.84</v>
       </c>
-      <c r="AA7" s="104">
+      <c r="AA7" s="93">
         <v>3.72</v>
       </c>
       <c r="AB7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:35">
       <c r="B8" s="4"/>
-      <c r="C8" s="62"/>
+      <c r="C8" s="62">
+        <v>0.6</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2771,24 +2981,55 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
+      <c r="L8" s="84">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="M8" s="64"/>
-      <c r="N8" s="98"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="35"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="V8" s="35"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="19">
+        <v>5.76</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="62"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="104"/>
-    </row>
-    <row r="9" spans="2:28">
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8">
+        <v>2.5</v>
+      </c>
+      <c r="AC8">
+        <v>50</v>
+      </c>
+      <c r="AD8">
+        <v>23.36</v>
+      </c>
+      <c r="AE8">
+        <v>0.9</v>
+      </c>
+      <c r="AF8">
+        <v>50</v>
+      </c>
+      <c r="AG8">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AH8">
+        <v>25.4</v>
+      </c>
+      <c r="AI8" s="107">
+        <f>AH8*AH8/AF8</f>
+        <v>12.9032</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35">
       <c r="B9" s="4"/>
       <c r="C9" s="62"/>
       <c r="D9" s="4"/>
@@ -2799,9 +3040,9 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="95"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="64"/>
-      <c r="N9" s="98"/>
+      <c r="N9" s="87"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2813,10 +3054,29 @@
       <c r="W9" s="19"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="62"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="104"/>
-    </row>
-    <row r="10" spans="2:28">
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>0.9</v>
+      </c>
+      <c r="AF9">
+        <v>50</v>
+      </c>
+      <c r="AG9">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AH9">
+        <v>25.2</v>
+      </c>
+      <c r="AI9" s="107">
+        <f>AH9*AH9/AF9</f>
+        <v>12.700799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35">
       <c r="B10" s="4"/>
       <c r="C10" s="62"/>
       <c r="D10" s="4"/>
@@ -2827,9 +3087,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="95"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="64"/>
-      <c r="N10" s="98"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2841,55 +3101,243 @@
       <c r="W10" s="19"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="62"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="104"/>
-    </row>
-    <row r="11" spans="2:28" ht="18" thickBot="1">
-      <c r="B11" s="7"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="104"/>
-    </row>
-    <row r="13" spans="2:28">
-      <c r="B13" t="s">
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10">
+        <v>3.76</v>
+      </c>
+      <c r="AE10">
+        <v>1.5</v>
+      </c>
+      <c r="AF10">
+        <v>50</v>
+      </c>
+      <c r="AG10">
+        <v>71.2</v>
+      </c>
+      <c r="AH10">
+        <v>23.9</v>
+      </c>
+      <c r="AI10" s="107">
+        <f>AH10*AH10/AF10</f>
+        <v>11.424199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109">
+        <v>2</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112">
+        <v>3.92</v>
+      </c>
+      <c r="M11" s="113"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="115">
+        <v>10.6</v>
+      </c>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>0.9</v>
+      </c>
+      <c r="AF11">
+        <v>50</v>
+      </c>
+      <c r="AG11">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AH11">
+        <v>25.6</v>
+      </c>
+      <c r="AI11" s="107">
+        <f>AH11*AH11/AF11</f>
+        <v>13.107200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12">
+        <v>2.5</v>
+      </c>
+      <c r="AE12">
+        <v>0.9</v>
+      </c>
+      <c r="AF12">
+        <v>50</v>
+      </c>
+      <c r="AG12">
+        <v>75.2</v>
+      </c>
+      <c r="AH12">
+        <v>25.5</v>
+      </c>
+      <c r="AI12" s="107">
+        <f>AH12*AH12/AF12</f>
+        <v>13.005000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35">
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="93"/>
+      <c r="AI13" s="107"/>
+    </row>
+    <row r="14" spans="2:35">
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="93"/>
+      <c r="AI14" s="107"/>
+    </row>
+    <row r="15" spans="2:35" ht="18" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="93"/>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="2:28">
-      <c r="B14" t="s">
+      <c r="AF17">
+        <v>23.36</v>
+      </c>
+      <c r="AG17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" t="s">
+    <row r="19" spans="2:33">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
-      <c r="B16" t="s">
+    <row r="20" spans="2:33">
+      <c r="B20" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="C21" s="106" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2906,11 +3354,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41601A-209B-494B-A8CF-3CC0B7FE11E4}">
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="F3" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18" thickBot="1">
+      <c r="B4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>3.76</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2.04</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1.6</v>
+      </c>
+      <c r="H5">
+        <f>F5*G5</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>72.8</v>
+      </c>
+      <c r="K5">
+        <v>25.2</v>
+      </c>
+      <c r="L5" s="107">
+        <f>K5*K5/I5</f>
+        <v>12.700799999999999</v>
+      </c>
+      <c r="M5" s="107">
+        <f>L5/H5*100</f>
+        <v>33.074999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>2.9</v>
+      </c>
+      <c r="H6">
+        <f>F6*G6</f>
+        <v>92.8</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>93.6</v>
+      </c>
+      <c r="K6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="L6" s="107">
+        <f>K6*K6/I6</f>
+        <v>20.865799999999993</v>
+      </c>
+      <c r="M6" s="107">
+        <f t="shared" ref="M6:M15" si="0">L6/H6*100</f>
+        <v>22.484698275862062</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f>F7*G7</f>
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>110</v>
+      </c>
+      <c r="K7">
+        <v>38.4</v>
+      </c>
+      <c r="L7" s="107">
+        <f>K7*K7/I7</f>
+        <v>29.491199999999999</v>
+      </c>
+      <c r="M7" s="107">
+        <f t="shared" si="0"/>
+        <v>18.431999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f>F8*G8</f>
+        <v>240</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>43.3</v>
+      </c>
+      <c r="L8" s="107">
+        <f>K8*K8/I8</f>
+        <v>37.497799999999991</v>
+      </c>
+      <c r="M8" s="107">
+        <f t="shared" ref="M8" si="1">L8/H8*100</f>
+        <v>15.62408333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="120">
+        <v>24</v>
+      </c>
+      <c r="G9" s="120">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="120">
+        <f t="shared" ref="H9:H15" si="2">F9*G9</f>
+        <v>84</v>
+      </c>
+      <c r="I9" s="120">
+        <v>50</v>
+      </c>
+      <c r="J9" s="120">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K9" s="120">
+        <v>23.6</v>
+      </c>
+      <c r="L9" s="121">
+        <f t="shared" ref="L9:L15" si="3">K9*K9/I9</f>
+        <v>11.139200000000001</v>
+      </c>
+      <c r="M9" s="121">
+        <f t="shared" si="0"/>
+        <v>13.260952380952382</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="F10" s="120">
+        <v>32</v>
+      </c>
+      <c r="G10" s="120">
+        <v>4.7</v>
+      </c>
+      <c r="H10" s="120">
+        <f t="shared" si="2"/>
+        <v>150.4</v>
+      </c>
+      <c r="I10" s="120">
+        <v>50</v>
+      </c>
+      <c r="J10" s="120">
+        <v>89.6</v>
+      </c>
+      <c r="K10" s="120">
+        <v>30.7</v>
+      </c>
+      <c r="L10" s="121">
+        <f t="shared" si="3"/>
+        <v>18.849800000000002</v>
+      </c>
+      <c r="M10" s="121">
+        <f t="shared" si="0"/>
+        <v>12.533111702127661</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K11">
+        <v>25.6</v>
+      </c>
+      <c r="L11" s="107">
+        <f t="shared" si="3"/>
+        <v>13.107200000000002</v>
+      </c>
+      <c r="M11" s="107">
+        <f t="shared" si="0"/>
+        <v>34.133333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>2.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>89.6</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>92.8</v>
+      </c>
+      <c r="K12">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L12" s="107">
+        <f t="shared" si="3"/>
+        <v>20.736800000000002</v>
+      </c>
+      <c r="M12" s="107">
+        <f t="shared" si="0"/>
+        <v>23.143750000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="F13" s="118">
+        <v>40</v>
+      </c>
+      <c r="G13" s="118">
+        <v>2.9</v>
+      </c>
+      <c r="H13" s="118">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="I13" s="118">
+        <v>50</v>
+      </c>
+      <c r="J13" s="118">
+        <v>94.4</v>
+      </c>
+      <c r="K13" s="118">
+        <v>29.9</v>
+      </c>
+      <c r="L13" s="119">
+        <f t="shared" si="3"/>
+        <v>17.880199999999999</v>
+      </c>
+      <c r="M13" s="119">
+        <f t="shared" si="0"/>
+        <v>15.41396551724138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="L14" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="107" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3138,6 +3977,12 @@
       <c r="H11" s="54" t="s">
         <v>63</v>
       </c>
+      <c r="I11" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="123" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3" t="s">
@@ -3184,7 +4029,7 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3234,12 +4079,27 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
       <c r="H16" s="5"/>
+      <c r="I16">
+        <v>13.56</v>
+      </c>
+      <c r="J16" s="124">
+        <f>2*3.14*I16*G16</f>
+        <v>340.62720000000002</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="18" thickBot="1">
       <c r="B17" s="7"/>
@@ -3256,7 +4116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:K6"/>
   <sheetViews>
@@ -3361,12 +4221,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E2000-11E4-4844-8A34-A88A2FE98A6B}">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3488,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -3501,7 +4361,7 @@
       </c>
       <c r="G8" s="8">
         <f>B8*E8/(C8+D8+E8)</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" s="9"/>
     </row>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1211D5-8EB3-4F91-B835-10CBB7433A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
-    <sheet name="0215" sheetId="5" r:id="rId2"/>
-    <sheet name="0216" sheetId="7" r:id="rId3"/>
-    <sheet name="CORE" sheetId="3" r:id="rId4"/>
-    <sheet name="FAN" sheetId="4" r:id="rId5"/>
-    <sheet name="Bias" sheetId="6" r:id="rId6"/>
+    <sheet name="Bias" sheetId="6" r:id="rId2"/>
+    <sheet name="0215" sheetId="5" r:id="rId3"/>
+    <sheet name="0216" sheetId="7" r:id="rId4"/>
+    <sheet name="CORE" sheetId="3" r:id="rId5"/>
+    <sheet name="FAN" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Test sheet" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,22 +472,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RF PCB에 SIGEN 직접 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,13 +493,165 @@
   </si>
   <si>
     <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vbias[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icc[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P[W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_OUT-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vpp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFIN Vpp가 낮아 효율이 안나오는 것으로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Limit = 10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOUT_B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOUT_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOUTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFIN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_OUT-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_OUT+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2 IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2 OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1152,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1312,39 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1358,16 +1466,116 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1428,7 +1636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1461,26 +1669,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,23 +1704,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1705,29 +1879,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="4" width="9.19921875" customWidth="1"/>
+    <col min="1" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18" thickBot="1">
+    <row r="3" spans="2:24" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:17" s="15" customFormat="1">
+    <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="C4" s="42"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -1737,17 +1911,17 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95" t="s">
+      <c r="M4" s="123"/>
+      <c r="N4" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:17" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -1789,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:24">
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +2005,7 @@
         <v>0.21352941176470586</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:24">
       <c r="C7" s="27"/>
       <c r="D7" s="34">
         <v>0.6</v>
@@ -1872,7 +2046,7 @@
         <v>9.6078431372549015E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:24">
       <c r="C8" s="4"/>
       <c r="D8" s="34">
         <v>0.6</v>
@@ -1918,7 +2092,7 @@
         <v>2.161764705882353E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:24">
       <c r="C9" s="27"/>
       <c r="D9" s="34">
         <v>0.9</v>
@@ -1964,7 +2138,7 @@
         <v>2.8235294117647056E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:24">
       <c r="C10" s="27"/>
       <c r="D10" s="34">
         <v>0.9</v>
@@ -1998,7 +2172,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:24">
       <c r="C11" s="4"/>
       <c r="D11" s="34">
         <v>0.9</v>
@@ -2044,7 +2218,7 @@
         <v>2.1207843137254906E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:24">
       <c r="C12" s="4"/>
       <c r="D12" s="34">
         <v>0.9</v>
@@ -2082,7 +2256,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:24">
       <c r="C13" s="4"/>
       <c r="D13" s="34">
         <v>0.9</v>
@@ -2127,8 +2301,18 @@
         <f>O13*O13/K13</f>
         <v>0.17647058823529413</v>
       </c>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <f>U13*U13/V13</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
       <c r="C14" s="4"/>
       <c r="D14" s="34">
         <v>0.9</v>
@@ -2173,8 +2357,22 @@
         <f>O14*O14/K14</f>
         <v>0.21612549019607841</v>
       </c>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14">
+        <f>U14*U14/V14</f>
+        <v>0.18</v>
+      </c>
+      <c r="X14">
+        <f>W14/W13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
       <c r="C15" s="28" t="s">
         <v>17</v>
       </c>
@@ -2222,7 +2420,7 @@
         <v>0.25411764705882356</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:24">
       <c r="C16" s="4"/>
       <c r="D16" s="38">
         <v>0.9</v>
@@ -2265,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="18" thickBot="1">
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2286,18 +2484,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1">
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="96" t="s">
+    <row r="21" spans="2:17" ht="17.25" thickBot="1">
+      <c r="N21" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="97"/>
-    </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
+      <c r="O21" s="125"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -2559,7 +2757,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="18" thickBot="1">
+    <row r="31" spans="2:17" ht="17.25" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2587,68 +2785,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD500B9-129D-4B15-8A87-624559BADA88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B3" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="10">
+        <f>B4*E4/(C4+D4+E4)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="2">
+        <f>B5*E5/(C5+D5+E5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="2">
+        <f>B6*E6/(C6+D6+E6)</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="2">
+        <f>B7*E7/(C7+D7+E7)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="8">
+        <f>B8*E8/(C8+D8+E8)</f>
+        <v>2.25</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
     <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="18" thickBot="1"/>
-    <row r="3" spans="2:35" ht="18" thickBot="1">
+    <row r="2" spans="2:35" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:35" ht="17.25" thickBot="1">
       <c r="B3" s="76"/>
       <c r="C3" s="77"/>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="104" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="104"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="105"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="133"/>
       <c r="Z3" s="79" t="s">
         <v>57</v>
       </c>
@@ -2657,16 +3006,16 @@
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="72"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="99"/>
+      <c r="L4" s="127"/>
       <c r="M4" s="74"/>
       <c r="N4" s="74"/>
       <c r="O4" s="57"/>
@@ -2676,12 +3025,12 @@
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
       <c r="U4" s="57"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="131"/>
       <c r="Z4" s="75"/>
       <c r="AC4" t="s">
         <v>102</v>
@@ -2690,7 +3039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="18" thickBot="1">
+    <row r="5" spans="2:35" ht="17.25" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="60" t="s">
         <v>12</v>
@@ -2792,7 +3141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="18" thickBot="1">
+    <row r="6" spans="2:35" ht="17.25" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3373,7 @@
       <c r="AH8">
         <v>25.4</v>
       </c>
-      <c r="AI8" s="107">
+      <c r="AI8" s="96">
         <f>AH8*AH8/AF8</f>
         <v>12.9032</v>
       </c>
@@ -3071,7 +3420,7 @@
       <c r="AH9">
         <v>25.2</v>
       </c>
-      <c r="AI9" s="107">
+      <c r="AI9" s="96">
         <f>AH9*AH9/AF9</f>
         <v>12.700799999999999</v>
       </c>
@@ -3118,43 +3467,43 @@
       <c r="AH10">
         <v>23.9</v>
       </c>
-      <c r="AI10" s="107">
+      <c r="AI10" s="96">
         <f>AH10*AH10/AF10</f>
         <v>11.424199999999999</v>
       </c>
     </row>
     <row r="11" spans="2:35">
-      <c r="B11" s="108"/>
-      <c r="C11" s="109">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98">
         <v>2</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112">
+      <c r="D11" s="97"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101">
         <v>3.92</v>
       </c>
-      <c r="M11" s="113"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="115">
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="104">
         <v>10.6</v>
       </c>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="116"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="105"/>
       <c r="AA11" s="93"/>
       <c r="AB11">
         <v>2</v>
@@ -3171,37 +3520,37 @@
       <c r="AH11">
         <v>25.6</v>
       </c>
-      <c r="AI11" s="107">
+      <c r="AI11" s="96">
         <f>AH11*AH11/AF11</f>
         <v>13.107200000000002</v>
       </c>
     </row>
     <row r="12" spans="2:35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="116"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="105"/>
       <c r="AA12" s="93"/>
       <c r="AB12">
         <v>2.5</v>
@@ -3218,70 +3567,70 @@
       <c r="AH12">
         <v>25.5</v>
       </c>
-      <c r="AI12" s="107">
+      <c r="AI12" s="96">
         <f>AH12*AH12/AF12</f>
         <v>13.005000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="116"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="105"/>
       <c r="AA13" s="93"/>
-      <c r="AI13" s="107"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="2:35">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="116"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="105"/>
       <c r="AA14" s="93"/>
-      <c r="AI14" s="107"/>
-    </row>
-    <row r="15" spans="2:35" ht="18" thickBot="1">
+      <c r="AI14" s="96"/>
+    </row>
+    <row r="15" spans="2:35" ht="17.25" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="63"/>
       <c r="D15" s="7"/>
@@ -3336,7 +3685,7 @@
       </c>
     </row>
     <row r="21" spans="2:33">
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="95" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3353,408 +3702,423 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41601A-209B-494B-A8CF-3CC0B7FE11E4}">
-  <dimension ref="B1:M15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="F3" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="17.25" thickBot="1">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1">
+      <c r="B3" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="M3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="18" thickBot="1">
-      <c r="B4" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B4" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
+      <c r="J4" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="135"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5">
+      <c r="B5" s="121">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="57">
         <v>3.76</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="57">
+        <v>2.04</v>
+      </c>
+      <c r="E5" s="139">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2.04</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="57">
         <v>24</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="57">
         <v>1.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="57">
         <f>F5*G5</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="57">
         <v>50</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="57">
         <v>72.8</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="57">
         <v>25.2</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="112">
         <f>K5*K5/I5</f>
         <v>12.700799999999999</v>
       </c>
-      <c r="M5" s="107">
+      <c r="M5" s="122">
         <f>L5/H5*100</f>
         <v>33.074999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="F6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="2">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>2.9</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>F6*G6</f>
         <v>92.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>93.6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="109">
         <f>K6*K6/I6</f>
         <v>20.865799999999993</v>
       </c>
-      <c r="M6" s="107">
-        <f t="shared" ref="M6:M15" si="0">L6/H6*100</f>
+      <c r="M6" s="114">
+        <f t="shared" ref="M6:M13" si="0">L6/H6*100</f>
         <v>22.484698275862062</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="F7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>F7*G7</f>
         <v>160</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>50</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>110</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>38.4</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="109">
         <f>K7*K7/I7</f>
         <v>29.491199999999999</v>
       </c>
-      <c r="M7" s="107">
+      <c r="M7" s="114">
         <f t="shared" si="0"/>
         <v>18.431999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="F8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="2">
         <v>48</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>F8*G8</f>
         <v>240</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>125</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>43.3</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="109">
         <f>K8*K8/I8</f>
         <v>37.497799999999991</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="114">
         <f t="shared" ref="M8" si="1">L8/H8*100</f>
         <v>15.62408333333333</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="D9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="137">
         <v>3.5</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="110">
         <v>24</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="110">
         <v>3.5</v>
       </c>
-      <c r="H9" s="120">
-        <f t="shared" ref="H9:H15" si="2">F9*G9</f>
+      <c r="H9" s="110">
+        <f t="shared" ref="H9:H13" si="2">F9*G9</f>
         <v>84</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="110">
         <v>50</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="110">
         <v>69.599999999999994</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="110">
         <v>23.6</v>
       </c>
-      <c r="L9" s="121">
-        <f t="shared" ref="L9:L15" si="3">K9*K9/I9</f>
+      <c r="L9" s="111">
+        <f t="shared" ref="L9:L13" si="3">K9*K9/I9</f>
         <v>11.139200000000001</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="115">
         <f t="shared" si="0"/>
         <v>13.260952380952382</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="F10" s="120">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="110">
         <v>32</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="110">
         <v>4.7</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="110">
         <f t="shared" si="2"/>
         <v>150.4</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="110">
         <v>50</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="110">
         <v>89.6</v>
       </c>
-      <c r="K10" s="120">
+      <c r="K10" s="110">
         <v>30.7</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>18.849800000000002</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="115">
         <f t="shared" si="0"/>
         <v>12.533111702127661</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="D11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="137">
         <v>2.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>24</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>1.6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>38.400000000000006</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>74.400000000000006</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>25.6</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="109">
         <f t="shared" si="3"/>
         <v>13.107200000000002</v>
       </c>
-      <c r="M11" s="107">
+      <c r="M11" s="114">
         <f t="shared" si="0"/>
         <v>34.133333333333333</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="F12">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="2">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>2.8</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>89.6</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>50</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>92.8</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="109">
         <f t="shared" si="3"/>
         <v>20.736800000000002</v>
       </c>
-      <c r="M12" s="107">
+      <c r="M12" s="114">
         <f t="shared" si="0"/>
         <v>23.143750000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="F13" s="118">
+    <row r="13" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="116">
         <v>40</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="116">
         <v>2.9</v>
       </c>
-      <c r="H13" s="118">
+      <c r="H13" s="116">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="116">
         <v>50</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J13" s="116">
         <v>94.4</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="116">
         <v>29.9</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="117">
         <f t="shared" si="3"/>
         <v>17.880199999999999</v>
       </c>
-      <c r="M13" s="119">
+      <c r="M13" s="118">
         <f t="shared" si="0"/>
         <v>15.41396551724138</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="I14">
-        <v>50</v>
-      </c>
-      <c r="L14" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>50</v>
-      </c>
-      <c r="L15" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="107" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
@@ -3954,8 +4318,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1"/>
-    <row r="11" spans="2:12" ht="18" thickBot="1">
+    <row r="10" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="11" spans="2:12" ht="17.25" thickBot="1">
       <c r="B11" s="52" t="s">
         <v>55</v>
       </c>
@@ -3977,11 +4341,11 @@
       <c r="H11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="122" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="123" t="s">
-        <v>115</v>
+      <c r="I11" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -4080,10 +4444,10 @@
     <row r="16" spans="2:12">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -4096,12 +4460,12 @@
       <c r="I16">
         <v>13.56</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="108">
         <f>2*3.14*I16*G16</f>
         <v>340.62720000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18" thickBot="1">
+    <row r="17" spans="2:8" ht="17.25" thickBot="1">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4116,19 +4480,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
@@ -4221,153 +4585,735 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E2000-11E4-4844-8A34-A88A2FE98A6B}">
-  <dimension ref="B2:H8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1"/>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
-      <c r="B3" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="3">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="10">
-        <f>B4*E4/(C4+D4+E4)</f>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="4">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="2">
-        <f>B5*E5/(C5+D5+E5)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="4">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="2">
-        <f>B6*E6/(C6+D6+E6)</f>
-        <v>6</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="4">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="2">
-        <f>B7*E7/(C7+D7+E7)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" ht="18" thickBot="1">
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="8">
-        <f>B8*E8/(C8+D8+E8)</f>
-        <v>2.25</v>
-      </c>
-      <c r="H8" s="9"/>
+    <row r="4" spans="2:4">
+      <c r="B4" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="140"/>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="140"/>
+      <c r="C6">
+        <f>C4/C5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Z18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:26" s="15" customFormat="1">
+      <c r="B4" s="141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="142"/>
+    </row>
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B5" s="143"/>
+      <c r="C5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="147"/>
+      <c r="U5" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="V5" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="W5" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <v>680</v>
+      </c>
+      <c r="I6" s="10">
+        <v>680</v>
+      </c>
+      <c r="J6" s="50">
+        <f>1+H6/I6</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>50</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="151">
+        <f>V6*V6/T6</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="152">
+        <f>X6*Y6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>680</v>
+      </c>
+      <c r="I7" s="2">
+        <v>310</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7:J18" si="0">1+H7/I7</f>
+        <v>3.193548387096774</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="36">
+        <f t="shared" ref="W7:W18" si="1">V7*V7/T7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="153">
+        <f t="shared" ref="Z7:Z18" si="2">X7*Y7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>680</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <v>50</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>50</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>50</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <v>50</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <v>50</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="144" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
+        <v>50</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:T5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1986AF2-42C2-444A-9AD0-E29CED2E8A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
     <sheet name="Bias" sheetId="6" r:id="rId2"/>
     <sheet name="0215" sheetId="5" r:id="rId3"/>
     <sheet name="0216" sheetId="7" r:id="rId4"/>
-    <sheet name="CORE" sheetId="3" r:id="rId5"/>
-    <sheet name="FAN" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="Test sheet" sheetId="9" r:id="rId8"/>
+    <sheet name="0223" sheetId="9" r:id="rId5"/>
+    <sheet name="CORE" sheetId="3" r:id="rId6"/>
+    <sheet name="FAN" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Test sheet (2)" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,11 +649,27 @@
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RF-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX2 - 1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX2 - 2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -741,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1289,11 +1307,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1489,6 +1518,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,39 +1592,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1636,7 +1671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1669,9 +1704,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1704,6 +1756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1879,22 +1948,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" thickBot="1">
+    <row r="3" spans="2:24" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,17 +1980,17 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="135"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -2463,7 +2532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+    <row r="17" spans="2:17" ht="18" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2484,18 +2553,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+    <row r="20" spans="2:17" ht="18" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="17.25" thickBot="1">
-      <c r="N21" s="124" t="s">
+    <row r="21" spans="2:17" ht="18" thickBot="1">
+      <c r="N21" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="125"/>
-    </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
+      <c r="O21" s="137"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2826,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="17.25" thickBot="1">
+    <row r="31" spans="2:17" ht="18" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2785,17 +2854,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="2" spans="2:8" ht="18" thickBot="1"/>
+    <row r="3" spans="2:8" ht="18" thickBot="1">
       <c r="B3" s="55" t="s">
         <v>85</v>
       </c>
@@ -2906,7 +2975,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" thickBot="1">
+    <row r="8" spans="2:8" ht="18" thickBot="1">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -2936,68 +3005,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
     <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:35" ht="17.25" thickBot="1">
+    <row r="2" spans="2:35" ht="18" thickBot="1"/>
+    <row r="3" spans="2:35" ht="18" thickBot="1">
       <c r="B3" s="76"/>
       <c r="C3" s="77"/>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="132" t="s">
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="133"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="145"/>
       <c r="Z3" s="79" t="s">
         <v>57</v>
       </c>
@@ -3006,16 +3075,16 @@
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="72"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="127"/>
+      <c r="L4" s="139"/>
       <c r="M4" s="74"/>
       <c r="N4" s="74"/>
       <c r="O4" s="57"/>
@@ -3025,12 +3094,12 @@
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
       <c r="U4" s="57"/>
-      <c r="V4" s="130" t="s">
+      <c r="V4" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="131"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="143"/>
       <c r="Z4" s="75"/>
       <c r="AC4" t="s">
         <v>102</v>
@@ -3039,7 +3108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="17.25" thickBot="1">
+    <row r="5" spans="2:35" ht="18" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="60" t="s">
         <v>12</v>
@@ -3141,7 +3210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="17.25" thickBot="1">
+    <row r="6" spans="2:35" ht="18" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>81</v>
       </c>
@@ -3630,7 +3699,7 @@
       <c r="AA14" s="93"/>
       <c r="AI14" s="96"/>
     </row>
-    <row r="15" spans="2:35" ht="17.25" thickBot="1">
+    <row r="15" spans="2:35" ht="18" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="63"/>
       <c r="D15" s="7"/>
@@ -3703,21 +3772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1">
+    <row r="2" spans="2:13" ht="18" thickBot="1">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -3733,22 +3802,22 @@
         <v>120</v>
       </c>
       <c r="E3" s="120"/>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="134" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="B4" s="113" t="s">
         <v>121</v>
       </c>
@@ -3782,7 +3851,7 @@
       <c r="L4" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="135"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="121">
@@ -3794,7 +3863,7 @@
       <c r="D5" s="57">
         <v>2.04</v>
       </c>
-      <c r="E5" s="139">
+      <c r="E5" s="151">
         <v>3</v>
       </c>
       <c r="F5" s="57">
@@ -3829,7 +3898,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="137"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -3862,7 +3931,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="137"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -3895,7 +3964,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="137"/>
+      <c r="E8" s="149"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -3928,7 +3997,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="137">
+      <c r="E9" s="149">
         <v>3.5</v>
       </c>
       <c r="F9" s="110">
@@ -3963,7 +4032,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="137"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="110">
         <v>32</v>
       </c>
@@ -3996,7 +4065,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="137">
+      <c r="E11" s="149">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -4031,7 +4100,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="137"/>
+      <c r="E12" s="149"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -4060,11 +4129,11 @@
         <v>23.143750000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="17.25" thickBot="1">
+    <row r="13" spans="2:13" ht="18" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="138"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="116">
         <v>40</v>
       </c>
@@ -4109,615 +4178,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B3:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.8984375" customWidth="1"/>
+    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>35.549999999999997</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>12.7</v>
-      </c>
-      <c r="H4">
-        <v>885</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1704</v>
-      </c>
-      <c r="K4">
-        <v>4.8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>13.2</v>
-      </c>
-      <c r="G5">
-        <v>6.35</v>
-      </c>
-      <c r="H5">
-        <v>470</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>1704</v>
-      </c>
-      <c r="K5">
-        <v>6.5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>26.9</v>
-      </c>
-      <c r="F6">
-        <v>14.5</v>
-      </c>
-      <c r="G6">
-        <v>11.1</v>
-      </c>
-      <c r="H6">
-        <v>11.6</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>85.2</v>
-      </c>
-      <c r="K6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7">
-        <v>26.9</v>
-      </c>
-      <c r="F7">
-        <v>14.5</v>
-      </c>
-      <c r="G7">
-        <v>11.1</v>
-      </c>
-      <c r="H7">
-        <v>13.5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>85.2</v>
-      </c>
-      <c r="K7">
-        <v>8.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>12.7</v>
-      </c>
-      <c r="F8">
-        <v>7.7</v>
-      </c>
-      <c r="G8">
-        <v>4.83</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>0.1</v>
-      </c>
-      <c r="J8">
-        <v>8.5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9">
-        <v>12.7</v>
-      </c>
-      <c r="F9">
-        <v>7.7</v>
-      </c>
-      <c r="G9">
-        <v>4.83</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0.25</v>
-      </c>
-      <c r="J9">
-        <v>21.3</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="11" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>24</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2">
-        <v>290</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16">
-        <v>13.56</v>
-      </c>
-      <c r="J16" s="108">
-        <f>2*3.14*I16*G16</f>
-        <v>340.62720000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:11">
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5">
-        <v>0.75</v>
-      </c>
-      <c r="G5">
-        <v>4800</v>
-      </c>
-      <c r="H5">
-        <v>102.59</v>
-      </c>
-      <c r="I5">
-        <v>13.35</v>
-      </c>
-      <c r="J5">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G6">
-        <v>3300</v>
-      </c>
-      <c r="H6">
-        <v>66.11</v>
-      </c>
-      <c r="I6">
-        <v>5.03</v>
-      </c>
-      <c r="J6">
-        <v>40.5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>600</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="140"/>
-      <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="140"/>
-      <c r="C6">
-        <f>C4/C5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Z18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:26" s="15" customFormat="1">
-      <c r="B4" s="141" t="s">
+    <row r="3" spans="2:27" ht="18" thickBot="1"/>
+    <row r="4" spans="2:27" s="15" customFormat="1">
+      <c r="B4" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="145" t="s">
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="U4" s="136" t="s">
+      <c r="V4" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136" t="s">
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="142"/>
-    </row>
-    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B5" s="143"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="153"/>
+    </row>
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="155"/>
       <c r="C5" s="24" t="s">
         <v>130</v>
       </c>
@@ -4742,106 +4280,128 @@
       <c r="J5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>136</v>
-      </c>
+      <c r="K5" s="80"/>
       <c r="L5" s="24" t="s">
         <v>136</v>
       </c>
       <c r="M5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="146" t="s">
+      <c r="P5" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="R5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="S5" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="T5" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="147"/>
-      <c r="U5" s="148" t="s">
+      <c r="U5" s="157"/>
+      <c r="V5" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="148" t="s">
+      <c r="W5" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="W5" s="149" t="s">
+      <c r="X5" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="Y5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Z5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="150" t="s">
+      <c r="AA5" s="127" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:27" ht="18" thickBot="1">
       <c r="B6" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10">
+        <v>2.72</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10">
+        <f>E6</f>
+        <v>2.72</v>
+      </c>
       <c r="H6" s="10">
         <v>680</v>
       </c>
       <c r="I6" s="10">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="J6" s="50">
         <f>1+H6/I6</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K6" s="50">
+        <f>G6*J6</f>
+        <v>7.8577777777777786</v>
+      </c>
+      <c r="L6" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="P6" s="10">
+        <v>4.2</v>
+      </c>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="10">
+        <v>3</v>
+      </c>
       <c r="S6" s="10"/>
-      <c r="T6" s="10">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
         <v>50</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="151">
-        <f>V6*V6/T6</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="10">
+      <c r="V6" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="W6" s="10">
+        <v>29.8</v>
+      </c>
+      <c r="X6" s="128">
+        <f>W6*W6/U6</f>
+        <v>17.760800000000003</v>
+      </c>
+      <c r="Y6" s="10">
         <v>24</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="152">
-        <f>X6*Y6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26">
+      <c r="Z6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="129">
+        <f>Y6*Z6</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="18" thickBot="1">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4852,306 +4412,455 @@
         <v>680</v>
       </c>
       <c r="I7" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="J7" s="37">
         <f t="shared" ref="J7:J18" si="0">1+H7/I7</f>
-        <v>3.193548387096774</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" ref="K7:K9" si="1">G7*J7</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>3.5</v>
+      </c>
       <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
         <v>50</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="36">
-        <f t="shared" ref="W7:W18" si="1">V7*V7/T7</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="153">
-        <f t="shared" ref="Z7:Z18" si="2">X7*Y7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="V7" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="X7" s="36">
+        <f t="shared" ref="X7:X18" si="2">W7*W7/U7</f>
+        <v>17.6418</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="130">
+        <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="18" thickBot="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>680</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="37" t="e">
+      <c r="I8" s="8">
+        <v>360</v>
+      </c>
+      <c r="J8" s="123">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>50</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="36">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K8" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="153">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
+        <v>50</v>
+      </c>
+      <c r="V8" s="8">
+        <v>88</v>
+      </c>
+      <c r="W8" s="8">
+        <v>29</v>
+      </c>
+      <c r="X8" s="131">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="37" t="e">
+        <v>16.82</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AA8" s="132">
+        <f t="shared" si="3"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="H9" s="10">
+        <v>680</v>
+      </c>
+      <c r="I9" s="10">
+        <v>200</v>
+      </c>
+      <c r="J9" s="50">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="shared" si="1"/>
+        <v>11.968000000000002</v>
+      </c>
+      <c r="L9" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="P9" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>50</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="153">
+      <c r="V9" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="W9" s="10">
+        <v>30</v>
+      </c>
+      <c r="X9" s="128">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="129">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2.96</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="37" t="e">
+      <c r="H10" s="2">
+        <v>680</v>
+      </c>
+      <c r="I10" s="2">
+        <v>200</v>
+      </c>
+      <c r="J10" s="37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.8</v>
+      </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="2">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
         <v>50</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="36">
-        <f t="shared" si="1"/>
+      <c r="V10" s="2">
+        <v>105</v>
+      </c>
+      <c r="W10" s="2">
+        <v>35</v>
+      </c>
+      <c r="X10" s="36">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AA10" s="130">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26">
+    </row>
+    <row r="11" spans="2:27">
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="37" t="e">
+      <c r="H11" s="2">
+        <v>680</v>
+      </c>
+      <c r="I11" s="2">
+        <v>200</v>
+      </c>
+      <c r="J11" s="37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K11" s="37"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="2">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2">
         <v>50</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="153">
+      <c r="V11" s="2">
+        <v>106</v>
+      </c>
+      <c r="W11" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X11" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="37" t="e">
+        <v>24.220799999999993</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA11" s="130">
+        <f t="shared" si="3"/>
+        <v>64.399999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="18" thickBot="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <v>680</v>
+      </c>
+      <c r="I12" s="8">
+        <v>200</v>
+      </c>
+      <c r="J12" s="123">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K12" s="123"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>50</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="153">
+      <c r="V12" s="8">
+        <v>135</v>
+      </c>
+      <c r="W12" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="X12" s="131">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="37" t="e">
+        <v>41.952799999999996</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="132">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="121"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57">
+        <v>2.8</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57">
+        <f>E13</f>
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="57">
+        <v>680</v>
+      </c>
+      <c r="I13" s="57">
+        <v>100</v>
+      </c>
+      <c r="J13" s="158">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="K13" s="158">
+        <f t="shared" ref="K13" si="4">G13*J13</f>
+        <v>21.84</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57">
+        <v>18.2</v>
+      </c>
+      <c r="P13" s="57">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57">
+        <v>3</v>
+      </c>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57">
         <v>50</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="153">
+      <c r="V13" s="57">
+        <v>136</v>
+      </c>
+      <c r="W13" s="57">
+        <v>45.8</v>
+      </c>
+      <c r="X13" s="159">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26">
+        <v>41.952799999999996</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="160">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="37" t="e">
+      <c r="H14" s="2">
+        <v>680</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="K14" s="37"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>3</v>
+      </c>
       <c r="S14" s="2"/>
-      <c r="T14" s="2">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
         <v>50</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="153">
+      <c r="V14" s="2">
+        <v>144</v>
+      </c>
+      <c r="W14" s="2">
+        <v>46</v>
+      </c>
+      <c r="X14" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26">
+        <v>42.32</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA14" s="130">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5164,32 +4873,43 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
       <c r="S15" s="2"/>
-      <c r="T15" s="2">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
         <v>50</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="153">
+      <c r="V15" s="2">
+        <v>134</v>
+      </c>
+      <c r="W15" s="2">
+        <v>43</v>
+      </c>
+      <c r="X15" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA15" s="130">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5202,32 +4922,43 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
       <c r="S16" s="2"/>
-      <c r="T16" s="2">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2">
         <v>50</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="153">
+      <c r="V16" s="2">
+        <v>152</v>
+      </c>
+      <c r="W16" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="X16" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26">
+        <v>47.433799999999998</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>48</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA16" s="130">
+        <f t="shared" si="3"/>
+        <v>220.79999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5240,32 +4971,45 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>4</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
+        <v>136</v>
+      </c>
+      <c r="U17" s="2">
         <v>50</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="153">
+      <c r="V17" s="2">
+        <v>134</v>
+      </c>
+      <c r="W17" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="X17" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="17.25" thickBot="1">
+        <v>37.324800000000003</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA17" s="130">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="18" thickBot="1">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5274,11 +5018,11 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="144" t="e">
+      <c r="J18" s="123" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="123"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -5287,31 +5031,1469 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
         <v>50</v>
       </c>
-      <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="154">
+      <c r="W18" s="8"/>
+      <c r="X18" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B3:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>12.7</v>
+      </c>
+      <c r="H4">
+        <v>885</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1704</v>
+      </c>
+      <c r="K4">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>13.2</v>
+      </c>
+      <c r="G5">
+        <v>6.35</v>
+      </c>
+      <c r="H5">
+        <v>470</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1704</v>
+      </c>
+      <c r="K5">
+        <v>6.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>26.9</v>
+      </c>
+      <c r="F6">
+        <v>14.5</v>
+      </c>
+      <c r="G6">
+        <v>11.1</v>
+      </c>
+      <c r="H6">
+        <v>11.6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>85.2</v>
+      </c>
+      <c r="K6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>26.9</v>
+      </c>
+      <c r="F7">
+        <v>14.5</v>
+      </c>
+      <c r="G7">
+        <v>11.1</v>
+      </c>
+      <c r="H7">
+        <v>13.5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>85.2</v>
+      </c>
+      <c r="K7">
+        <v>8.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>12.7</v>
+      </c>
+      <c r="F8">
+        <v>7.7</v>
+      </c>
+      <c r="G8">
+        <v>4.83</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>8.5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>12.7</v>
+      </c>
+      <c r="F9">
+        <v>7.7</v>
+      </c>
+      <c r="G9">
+        <v>4.83</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>21.3</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickBot="1"/>
+    <row r="11" spans="2:12" ht="18" thickBot="1">
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>290</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16">
+        <v>13.56</v>
+      </c>
+      <c r="J16" s="108">
+        <f>2*3.14*I16*G16</f>
+        <v>340.62720000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" thickBot="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" thickBot="1">
+      <c r="C18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="133">
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C4:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>4800</v>
+      </c>
+      <c r="H5">
+        <v>102.59</v>
+      </c>
+      <c r="I5">
+        <v>13.35</v>
+      </c>
+      <c r="J5">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6">
+        <v>3300</v>
+      </c>
+      <c r="H6">
+        <v>66.11</v>
+      </c>
+      <c r="I6">
+        <v>5.03</v>
+      </c>
+      <c r="J6">
+        <v>40.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B4:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="152"/>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="152"/>
+      <c r="C6">
+        <f>C4/C5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16CC6A1-89E4-4C64-BE7B-540EEEAB9973}">
+  <dimension ref="B3:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.8984375" customWidth="1"/>
+    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" ht="18" thickBot="1"/>
+    <row r="4" spans="2:27" s="15" customFormat="1">
+      <c r="B4" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="156" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="153"/>
+    </row>
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="155"/>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="157"/>
+      <c r="V5" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="18" thickBot="1">
+      <c r="B6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10">
+        <f>E6</f>
+        <v>2.72</v>
+      </c>
+      <c r="H6" s="10">
+        <v>680</v>
+      </c>
+      <c r="I6" s="10">
+        <v>360</v>
+      </c>
+      <c r="J6" s="50">
+        <f>1+H6/I6</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K6" s="50">
+        <f>G6*J6</f>
+        <v>7.8577777777777786</v>
+      </c>
+      <c r="L6" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
+        <v>3</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
+        <v>50</v>
+      </c>
+      <c r="V6" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="W6" s="10">
+        <v>29.8</v>
+      </c>
+      <c r="X6" s="128">
+        <f>W6*W6/U6</f>
+        <v>17.760800000000003</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="129">
+        <f>Y6*Z6</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="18" thickBot="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>680</v>
+      </c>
+      <c r="I7" s="2">
+        <v>360</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7:J18" si="0">1+H7/I7</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" ref="K7:K9" si="1">G7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>50</v>
+      </c>
+      <c r="V7" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="X7" s="36">
+        <f t="shared" ref="X7:X18" si="2">W7*W7/U7</f>
+        <v>17.6418</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="130">
+        <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="18" thickBot="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>680</v>
+      </c>
+      <c r="I8" s="8">
+        <v>360</v>
+      </c>
+      <c r="J8" s="123">
+        <f t="shared" si="0"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="K8" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="155">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
+        <v>50</v>
+      </c>
+      <c r="V8" s="8">
+        <v>88</v>
+      </c>
+      <c r="W8" s="8">
+        <v>29</v>
+      </c>
+      <c r="X8" s="131">
+        <f t="shared" si="2"/>
+        <v>16.82</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AA8" s="132">
+        <f t="shared" si="3"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="H9" s="10">
+        <v>680</v>
+      </c>
+      <c r="I9" s="10">
+        <v>200</v>
+      </c>
+      <c r="J9" s="50">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="shared" si="1"/>
+        <v>11.968000000000002</v>
+      </c>
+      <c r="L9" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="P9" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
+        <v>50</v>
+      </c>
+      <c r="V9" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="W9" s="10">
+        <v>30</v>
+      </c>
+      <c r="X9" s="128">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="129">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>680</v>
+      </c>
+      <c r="I10" s="2">
+        <v>200</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
+        <v>50</v>
+      </c>
+      <c r="V10" s="2">
+        <v>105</v>
+      </c>
+      <c r="W10" s="2">
+        <v>35</v>
+      </c>
+      <c r="X10" s="36">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AA10" s="130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>680</v>
+      </c>
+      <c r="I11" s="2">
+        <v>200</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2">
+        <v>50</v>
+      </c>
+      <c r="V11" s="2">
+        <v>106</v>
+      </c>
+      <c r="W11" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X11" s="36">
+        <f t="shared" si="2"/>
+        <v>24.220799999999993</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA11" s="130">
+        <f t="shared" si="3"/>
+        <v>64.399999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="18" thickBot="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <v>680</v>
+      </c>
+      <c r="I12" s="8">
+        <v>200</v>
+      </c>
+      <c r="J12" s="123">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K12" s="123"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
+        <v>50</v>
+      </c>
+      <c r="V12" s="8">
+        <v>135</v>
+      </c>
+      <c r="W12" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="X12" s="131">
+        <f t="shared" si="2"/>
+        <v>41.952799999999996</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="132">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="121"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57">
+        <v>2.8</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57">
+        <f>E13</f>
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="57">
+        <v>680</v>
+      </c>
+      <c r="I13" s="57">
+        <v>100</v>
+      </c>
+      <c r="J13" s="158">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="K13" s="158">
+        <f t="shared" ref="K13" si="4">G13*J13</f>
+        <v>21.84</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57">
+        <v>18.2</v>
+      </c>
+      <c r="P13" s="57">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57">
+        <v>3</v>
+      </c>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57">
+        <v>50</v>
+      </c>
+      <c r="V13" s="57">
+        <v>136</v>
+      </c>
+      <c r="W13" s="57">
+        <v>45.8</v>
+      </c>
+      <c r="X13" s="159">
+        <f t="shared" si="2"/>
+        <v>41.952799999999996</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="160">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>680</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
+        <v>50</v>
+      </c>
+      <c r="V14" s="2">
+        <v>144</v>
+      </c>
+      <c r="W14" s="2">
+        <v>46</v>
+      </c>
+      <c r="X14" s="36">
+        <f t="shared" si="2"/>
+        <v>42.32</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA14" s="130">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
+        <v>50</v>
+      </c>
+      <c r="V15" s="2">
+        <v>134</v>
+      </c>
+      <c r="W15" s="2">
+        <v>43</v>
+      </c>
+      <c r="X15" s="36">
+        <f t="shared" si="2"/>
+        <v>36.979999999999997</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA15" s="130">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2">
+        <v>50</v>
+      </c>
+      <c r="V16" s="2">
+        <v>152</v>
+      </c>
+      <c r="W16" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="X16" s="36">
+        <f t="shared" si="2"/>
+        <v>47.433799999999998</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>48</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA16" s="130">
+        <f t="shared" si="3"/>
+        <v>220.79999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
+        <v>136</v>
+      </c>
+      <c r="U17" s="2">
+        <v>50</v>
+      </c>
+      <c r="V17" s="2">
+        <v>134</v>
+      </c>
+      <c r="W17" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="X17" s="36">
+        <f t="shared" si="2"/>
+        <v>37.324800000000003</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA17" s="130">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="18" thickBot="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="123" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="123"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
+        <v>50</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L4:S4"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1986AF2-42C2-444A-9AD0-E29CED2E8A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597EAE4C-5616-4153-B5CA-1F50E3F9AA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
   </si>
   <si>
     <t>Core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,14 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vbias[V]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,6 +651,43 @@
   </si>
   <si>
     <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6,L7,L8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AIR - 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +751,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +790,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1298,31 +1336,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1403,9 +1421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,9 +1510,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1536,81 +1548,110 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1980,14 +2021,14 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="135"/>
+      <c r="O4" s="131"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
@@ -2559,10 +2600,10 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="136" t="s">
+      <c r="N21" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="137"/>
+      <c r="O21" s="133"/>
     </row>
     <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
@@ -2865,26 +2906,26 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18" thickBot="1"/>
     <row r="3" spans="2:8" ht="18" thickBot="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="78" t="s">
+      <c r="F3" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="H3" s="53" t="s">
         <v>89</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -3039,81 +3080,81 @@
   <sheetData>
     <row r="2" spans="2:35" ht="18" thickBot="1"/>
     <row r="3" spans="2:35" ht="18" thickBot="1">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="79" t="s">
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="140"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="76" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:35">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="138" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="142" t="s">
+      <c r="L4" s="135"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="75"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="72"/>
       <c r="AC4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="18" thickBot="1">
       <c r="B5" s="45"/>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -3134,16 +3175,16 @@
       <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="86" t="s">
+      <c r="N5" s="83" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="24" t="s">
@@ -3158,7 +3199,7 @@
       <c r="R5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="77" t="s">
         <v>1</v>
       </c>
       <c r="T5" s="24" t="s">
@@ -3167,57 +3208,57 @@
       <c r="U5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="80" t="s">
+      <c r="V5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="86" t="s">
+      <c r="W5" s="83" t="s">
         <v>15</v>
       </c>
       <c r="X5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="60" t="s">
+      <c r="Y5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="91" t="s">
+      <c r="Z5" s="87" t="s">
         <v>83</v>
       </c>
+      <c r="AA5" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="AB5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>104</v>
       </c>
-      <c r="AE5" t="s">
-        <v>105</v>
-      </c>
       <c r="AF5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH5" t="s">
         <v>98</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>99</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:35" ht="18" thickBot="1">
       <c r="B6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="61">
+        <v>80</v>
+      </c>
+      <c r="C6" s="58">
         <v>0.8</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="66">
         <v>0.51200000000000001</v>
       </c>
       <c r="E6" s="14">
@@ -3230,23 +3271,23 @@
         <f t="shared" ref="G6" si="0">1+E6/F6</f>
         <v>11</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="55">
         <v>0</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="55" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="33">
         <f>D6*G6</f>
         <v>5.6319999999999997</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="80">
         <v>3.24</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="63" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="13">
@@ -3281,18 +3322,18 @@
       <c r="W6" s="13">
         <v>6.25</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="56">
         <f>W6*W6/U6</f>
         <v>0.76593137254901966</v>
       </c>
-      <c r="Y6" s="70">
+      <c r="Y6" s="67">
         <f>X6/W6</f>
         <v>0.12254901960784315</v>
       </c>
-      <c r="Z6" s="92">
+      <c r="Z6" s="89">
         <v>2.96</v>
       </c>
-      <c r="AA6" s="93">
+      <c r="AA6" s="90">
         <v>2.92</v>
       </c>
       <c r="AB6">
@@ -3301,10 +3342,10 @@
     </row>
     <row r="7" spans="2:35">
       <c r="B7" s="4"/>
-      <c r="C7" s="61">
+      <c r="C7" s="58">
         <v>0.8</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="66">
         <v>0.51200000000000001</v>
       </c>
       <c r="E7" s="14">
@@ -3317,23 +3358,23 @@
         <f t="shared" ref="G7" si="1">1+E7/F7</f>
         <v>11</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="55">
         <v>0</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="55" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="33">
         <f>D7*G7</f>
         <v>5.6319999999999997</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="80">
         <v>2.76</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="63" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="13">
@@ -3368,18 +3409,18 @@
       <c r="W7" s="13">
         <v>7.68</v>
       </c>
-      <c r="X7" s="59">
+      <c r="X7" s="56">
         <f>W7*W7/U7</f>
         <v>1.1565176470588234</v>
       </c>
-      <c r="Y7" s="70">
+      <c r="Y7" s="67">
         <f>X7/W7</f>
         <v>0.15058823529411763</v>
       </c>
-      <c r="Z7" s="92">
+      <c r="Z7" s="89">
         <v>3.84</v>
       </c>
-      <c r="AA7" s="93">
+      <c r="AA7" s="90">
         <v>3.72</v>
       </c>
       <c r="AB7">
@@ -3388,7 +3429,7 @@
     </row>
     <row r="8" spans="2:35">
       <c r="B8" s="4"/>
-      <c r="C8" s="62">
+      <c r="C8" s="59">
         <v>0.6</v>
       </c>
       <c r="D8" s="4"/>
@@ -3399,11 +3440,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="84">
+      <c r="L8" s="81">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="87"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="84"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -3411,16 +3452,16 @@
       <c r="S8" s="35"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V8" s="35"/>
       <c r="W8" s="19">
         <v>5.76</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="93"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="90"/>
       <c r="AB8">
         <v>2.5</v>
       </c>
@@ -3442,14 +3483,14 @@
       <c r="AH8">
         <v>25.4</v>
       </c>
-      <c r="AI8" s="96">
+      <c r="AI8" s="93">
         <f>AH8*AH8/AF8</f>
         <v>12.9032</v>
       </c>
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4"/>
-      <c r="C9" s="62"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3458,9 +3499,9 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="87"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3471,9 +3512,9 @@
       <c r="V9" s="35"/>
       <c r="W9" s="19"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="93"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
       <c r="AB9">
         <v>3</v>
       </c>
@@ -3489,14 +3530,14 @@
       <c r="AH9">
         <v>25.2</v>
       </c>
-      <c r="AI9" s="96">
+      <c r="AI9" s="93">
         <f>AH9*AH9/AF9</f>
         <v>12.700799999999999</v>
       </c>
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4"/>
-      <c r="C10" s="62"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3505,9 +3546,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="87"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -3518,9 +3559,9 @@
       <c r="V10" s="35"/>
       <c r="W10" s="19"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="93"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="90"/>
       <c r="AB10">
         <v>3.76</v>
       </c>
@@ -3536,44 +3577,44 @@
       <c r="AH10">
         <v>23.9</v>
       </c>
-      <c r="AI10" s="96">
+      <c r="AI10" s="93">
         <f>AH10*AH10/AF10</f>
         <v>11.424199999999999</v>
       </c>
     </row>
     <row r="11" spans="2:35">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95">
         <v>2</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101">
+      <c r="D11" s="94"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98">
         <v>3.92</v>
       </c>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="104">
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="101">
         <v>10.6</v>
       </c>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="93"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="90"/>
       <c r="AB11">
         <v>2</v>
       </c>
@@ -3589,38 +3630,38 @@
       <c r="AH11">
         <v>25.6</v>
       </c>
-      <c r="AI11" s="96">
+      <c r="AI11" s="93">
         <f>AH11*AH11/AF11</f>
         <v>13.107200000000002</v>
       </c>
     </row>
     <row r="12" spans="2:35">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="90"/>
       <c r="AB12">
         <v>2.5</v>
       </c>
@@ -3636,72 +3677,72 @@
       <c r="AH12">
         <v>25.5</v>
       </c>
-      <c r="AI12" s="96">
+      <c r="AI12" s="93">
         <f>AH12*AH12/AF12</f>
         <v>13.005000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:35">
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="93"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="90"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="2:35">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="93"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="90"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="2:35" ht="18" thickBot="1">
       <c r="B15" s="7"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -3709,27 +3750,27 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="88"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="85"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="81"/>
+      <c r="S15" s="78"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="89"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="86"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="93"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="90"/>
     </row>
     <row r="17" spans="2:33">
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF17">
         <v>23.36</v>
@@ -3740,22 +3781,22 @@
     </row>
     <row r="18" spans="2:33">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:33">
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="C21" s="92" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33">
-      <c r="C21" s="95" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3783,113 +3824,113 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="18" thickBot="1">
       <c r="C2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146" t="s">
-        <v>119</v>
+      <c r="D3" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="114"/>
+      <c r="F3" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="142" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1">
-      <c r="B4" s="113" t="s">
-        <v>121</v>
+      <c r="B4" s="107" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="K4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="147"/>
+      <c r="M4" s="143"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="121">
+      <c r="B5" s="115">
         <v>14</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>3.76</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <v>2.04</v>
       </c>
-      <c r="E5" s="151">
+      <c r="E5" s="147">
         <v>3</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <v>24</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="54">
         <v>1.6</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <f>F5*G5</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <v>50</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <v>72.8</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="54">
         <v>25.2</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="106">
         <f>K5*K5/I5</f>
         <v>12.700799999999999</v>
       </c>
-      <c r="M5" s="122">
+      <c r="M5" s="116">
         <f>L5/H5*100</f>
         <v>33.074999999999996</v>
       </c>
@@ -3898,7 +3939,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="149"/>
+      <c r="E6" s="145"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -3918,11 +3959,11 @@
       <c r="K6" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="103">
         <f>K6*K6/I6</f>
         <v>20.865799999999993</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="108">
         <f t="shared" ref="M6:M13" si="0">L6/H6*100</f>
         <v>22.484698275862062</v>
       </c>
@@ -3931,7 +3972,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="149"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -3951,11 +3992,11 @@
       <c r="K7" s="2">
         <v>38.4</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="103">
         <f>K7*K7/I7</f>
         <v>29.491199999999999</v>
       </c>
-      <c r="M7" s="114">
+      <c r="M7" s="108">
         <f t="shared" si="0"/>
         <v>18.431999999999999</v>
       </c>
@@ -3964,7 +4005,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="149"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -3984,11 +4025,11 @@
       <c r="K8" s="2">
         <v>43.3</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="103">
         <f>K8*K8/I8</f>
         <v>37.497799999999991</v>
       </c>
-      <c r="M8" s="114">
+      <c r="M8" s="108">
         <f t="shared" ref="M8" si="1">L8/H8*100</f>
         <v>15.62408333333333</v>
       </c>
@@ -3997,33 +4038,33 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="149">
+      <c r="E9" s="145">
         <v>3.5</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="104">
         <v>24</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="104">
         <v>3.5</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="104">
         <f t="shared" ref="H9:H13" si="2">F9*G9</f>
         <v>84</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="104">
         <v>50</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="104">
         <v>69.599999999999994</v>
       </c>
-      <c r="K9" s="110">
+      <c r="K9" s="104">
         <v>23.6</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="105">
         <f t="shared" ref="L9:L13" si="3">K9*K9/I9</f>
         <v>11.139200000000001</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="109">
         <f t="shared" si="0"/>
         <v>13.260952380952382</v>
       </c>
@@ -4032,31 +4073,31 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="110">
+      <c r="E10" s="145"/>
+      <c r="F10" s="104">
         <v>32</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="104">
         <v>4.7</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="104">
         <f t="shared" si="2"/>
         <v>150.4</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="104">
         <v>50</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="104">
         <v>89.6</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="104">
         <v>30.7</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="105">
         <f t="shared" si="3"/>
         <v>18.849800000000002</v>
       </c>
-      <c r="M10" s="115">
+      <c r="M10" s="109">
         <f t="shared" si="0"/>
         <v>12.533111702127661</v>
       </c>
@@ -4065,7 +4106,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="149">
+      <c r="E11" s="145">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -4087,11 +4128,11 @@
       <c r="K11" s="2">
         <v>25.6</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="103">
         <f t="shared" si="3"/>
         <v>13.107200000000002</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="108">
         <f t="shared" si="0"/>
         <v>34.133333333333333</v>
       </c>
@@ -4100,7 +4141,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="149"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -4120,11 +4161,11 @@
       <c r="K12" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="103">
         <f t="shared" si="3"/>
         <v>20.736800000000002</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M12" s="108">
         <f t="shared" si="0"/>
         <v>23.143750000000004</v>
       </c>
@@ -4133,31 +4174,31 @@
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="116">
+      <c r="E13" s="146"/>
+      <c r="F13" s="110">
         <v>40</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="110">
         <v>2.9</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="110">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="110">
         <v>50</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="110">
         <v>94.4</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K13" s="110">
         <v>29.9</v>
       </c>
-      <c r="L13" s="117">
+      <c r="L13" s="111">
         <f t="shared" si="3"/>
         <v>17.880199999999999</v>
       </c>
-      <c r="M13" s="118">
+      <c r="M13" s="112">
         <f t="shared" si="0"/>
         <v>15.41396551724138</v>
       </c>
@@ -4213,63 +4254,63 @@
   <sheetData>
     <row r="3" spans="2:27" ht="18" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="148"/>
+    </row>
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="150"/>
+      <c r="C5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="E5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="156" t="s">
-        <v>146</v>
-      </c>
-      <c r="V4" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="153"/>
-    </row>
-    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
-      <c r="B5" s="155"/>
-      <c r="C5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>26</v>
@@ -4277,55 +4318,55 @@
       <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="P5" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="124" t="s">
+      <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" s="24" t="s">
+      <c r="U5" s="152"/>
+      <c r="V5" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="W5" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="X5" s="126" t="s">
-        <v>150</v>
+      <c r="W5" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="X5" s="120" t="s">
+        <v>147</v>
       </c>
       <c r="Y5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="121" t="s">
         <v>115</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="127" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" thickBot="1">
@@ -4334,13 +4375,13 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" s="10">
         <v>2.72</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G6" s="10">
         <f>E6</f>
@@ -4365,7 +4406,7 @@
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10">
@@ -4386,7 +4427,7 @@
       <c r="W6" s="10">
         <v>29.8</v>
       </c>
-      <c r="X6" s="128">
+      <c r="X6" s="122">
         <f>W6*W6/U6</f>
         <v>17.760800000000003</v>
       </c>
@@ -4396,7 +4437,7 @@
       <c r="Z6" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="129">
+      <c r="AA6" s="123">
         <f>Y6*Z6</f>
         <v>21.6</v>
       </c>
@@ -4452,7 +4493,7 @@
       <c r="Z7" s="2">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="130">
+      <c r="AA7" s="124">
         <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
         <v>21.6</v>
       </c>
@@ -4470,11 +4511,11 @@
       <c r="I8" s="8">
         <v>360</v>
       </c>
-      <c r="J8" s="123">
+      <c r="J8" s="117">
         <f t="shared" si="0"/>
         <v>2.8888888888888888</v>
       </c>
-      <c r="K8" s="161">
+      <c r="K8" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4498,7 +4539,7 @@
       <c r="W8" s="8">
         <v>29</v>
       </c>
-      <c r="X8" s="131">
+      <c r="X8" s="125">
         <f t="shared" si="2"/>
         <v>16.82</v>
       </c>
@@ -4508,7 +4549,7 @@
       <c r="Z8" s="8">
         <v>1.3</v>
       </c>
-      <c r="AA8" s="132">
+      <c r="AA8" s="126">
         <f t="shared" si="3"/>
         <v>31.200000000000003</v>
       </c>
@@ -4564,7 +4605,7 @@
       <c r="W9" s="10">
         <v>30</v>
       </c>
-      <c r="X9" s="128">
+      <c r="X9" s="122">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -4574,7 +4615,7 @@
       <c r="Z9" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA9" s="129">
+      <c r="AA9" s="123">
         <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
@@ -4631,7 +4672,7 @@
       <c r="Z10" s="2">
         <v>1.6</v>
       </c>
-      <c r="AA10" s="130">
+      <c r="AA10" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4684,7 +4725,7 @@
       <c r="Z11" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA11" s="130">
+      <c r="AA11" s="124">
         <f t="shared" si="3"/>
         <v>64.399999999999991</v>
       </c>
@@ -4702,11 +4743,11 @@
       <c r="I12" s="8">
         <v>200</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="117">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K12" s="123"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -4727,7 +4768,7 @@
       <c r="W12" s="8">
         <v>45.8</v>
       </c>
-      <c r="X12" s="131">
+      <c r="X12" s="125">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
@@ -4737,72 +4778,72 @@
       <c r="Z12" s="8">
         <v>4</v>
       </c>
-      <c r="AA12" s="132">
+      <c r="AA12" s="126">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="121"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57">
+      <c r="B13" s="115"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54">
         <v>2.8</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54">
         <f>E13</f>
         <v>2.8</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="54">
         <v>680</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="54">
         <v>100</v>
       </c>
-      <c r="J13" s="158">
+      <c r="J13" s="127">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="K13" s="158">
+      <c r="K13" s="127">
         <f t="shared" ref="K13" si="4">G13*J13</f>
         <v>21.84</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57">
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54">
         <v>18.2</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="54">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57">
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54">
         <v>3</v>
       </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57">
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54">
         <v>50</v>
       </c>
-      <c r="V13" s="57">
+      <c r="V13" s="54">
         <v>136</v>
       </c>
-      <c r="W13" s="57">
+      <c r="W13" s="54">
         <v>45.8</v>
       </c>
-      <c r="X13" s="159">
+      <c r="X13" s="128">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
-      <c r="Y13" s="57">
+      <c r="Y13" s="54">
         <v>40</v>
       </c>
-      <c r="Z13" s="57">
+      <c r="Z13" s="54">
         <v>4</v>
       </c>
-      <c r="AA13" s="160">
+      <c r="AA13" s="129">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
@@ -4855,7 +4896,7 @@
       <c r="Z14" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA14" s="130">
+      <c r="AA14" s="124">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
@@ -4904,7 +4945,7 @@
       <c r="Z15" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA15" s="130">
+      <c r="AA15" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
@@ -4953,7 +4994,7 @@
       <c r="Z16" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA16" s="130">
+      <c r="AA16" s="124">
         <f t="shared" si="3"/>
         <v>220.79999999999998</v>
       </c>
@@ -5004,7 +5045,7 @@
       <c r="Z17" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA17" s="130">
+      <c r="AA17" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
@@ -5018,11 +5059,11 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="123" t="e">
+      <c r="J18" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="123"/>
+      <c r="K18" s="117"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -5037,13 +5078,13 @@
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="131">
+      <c r="X18" s="125">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="132">
+      <c r="AA18" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5065,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:L18"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5076,234 +5117,234 @@
     <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:11">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>12.7</v>
+      </c>
+      <c r="F4">
+        <v>885</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1704</v>
+      </c>
+      <c r="I4">
+        <v>4.8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>13.2</v>
+      </c>
+      <c r="E5">
+        <v>6.35</v>
+      </c>
+      <c r="F5">
+        <v>470</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>1704</v>
+      </c>
+      <c r="I5">
+        <v>6.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>26.9</v>
+      </c>
+      <c r="D6">
+        <v>14.5</v>
+      </c>
+      <c r="E6">
+        <v>11.1</v>
+      </c>
+      <c r="F6">
+        <v>11.6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>85.2</v>
+      </c>
+      <c r="I6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>26.9</v>
+      </c>
+      <c r="D7">
+        <v>14.5</v>
+      </c>
+      <c r="E7">
+        <v>11.1</v>
+      </c>
+      <c r="F7">
+        <v>13.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>85.2</v>
+      </c>
+      <c r="I7">
+        <v>8.6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>12.7</v>
+      </c>
+      <c r="D8">
+        <v>7.7</v>
+      </c>
+      <c r="E8">
+        <v>4.83</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>8.5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>12.7</v>
+      </c>
+      <c r="D9">
+        <v>7.7</v>
+      </c>
+      <c r="E9">
+        <v>4.83</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>21.3</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18" thickBot="1"/>
+    <row r="11" spans="2:11" ht="18" thickBot="1">
+      <c r="B11" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>35.549999999999997</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>12.7</v>
-      </c>
-      <c r="H4">
-        <v>885</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1704</v>
-      </c>
-      <c r="K4">
-        <v>4.8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>13.2</v>
-      </c>
-      <c r="G5">
-        <v>6.35</v>
-      </c>
-      <c r="H5">
-        <v>470</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>1704</v>
-      </c>
-      <c r="K5">
-        <v>6.5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>26.9</v>
-      </c>
-      <c r="F6">
-        <v>14.5</v>
-      </c>
-      <c r="G6">
-        <v>11.1</v>
-      </c>
-      <c r="H6">
-        <v>11.6</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>85.2</v>
-      </c>
-      <c r="K6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7">
-        <v>26.9</v>
-      </c>
-      <c r="F7">
-        <v>14.5</v>
-      </c>
-      <c r="G7">
-        <v>11.1</v>
-      </c>
-      <c r="H7">
-        <v>13.5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>85.2</v>
-      </c>
-      <c r="K7">
-        <v>8.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>12.7</v>
-      </c>
-      <c r="F8">
-        <v>7.7</v>
-      </c>
-      <c r="G8">
-        <v>4.83</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>0.1</v>
-      </c>
-      <c r="J8">
-        <v>8.5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9">
-        <v>12.7</v>
-      </c>
-      <c r="F9">
-        <v>7.7</v>
-      </c>
-      <c r="G9">
-        <v>4.83</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0.25</v>
-      </c>
-      <c r="J9">
-        <v>21.3</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1"/>
-    <row r="11" spans="2:12" ht="18" thickBot="1">
-      <c r="B11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="53" t="s">
+      <c r="H11" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="J11" s="156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
@@ -5316,22 +5357,29 @@
       <c r="E12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="157">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="157">
         <v>24</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="I12" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J12" s="158">
+        <f>2*3.14*I12*G12</f>
+        <v>2043.7632000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>54</v>
@@ -5339,116 +5387,238 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="159">
         <v>6</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="159">
         <v>0.5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
       <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="159">
+        <v>9</v>
+      </c>
+      <c r="G14" s="159">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="159">
+        <v>25</v>
+      </c>
+      <c r="G15" s="159">
+        <v>290</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J15" s="158">
+        <f>2*3.14*I15*G15</f>
+        <v>24695.472000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="159">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2">
-        <v>290</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="G16" s="159">
         <v>4</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <v>13.56</v>
       </c>
-      <c r="J16" s="108">
+      <c r="J16" s="158">
         <f>2*3.14*I16*G16</f>
         <v>340.62720000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18" thickBot="1">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>152</v>
+    <row r="17" spans="2:10">
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="159">
+        <v>2</v>
+      </c>
+      <c r="G17" s="159">
+        <v>25.6</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J17" s="158">
+        <f>2*3.14*I17*G17</f>
+        <v>2180.0140800000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8">
-        <v>25.6</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" ht="18" thickBot="1">
-      <c r="C18" s="8" t="s">
+      <c r="G18" s="159">
+        <v>3.3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J18" s="158">
+        <f>2*3.14*I18*G18</f>
+        <v>281.01744000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="D19" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="133">
-        <v>3.3</v>
-      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="162">
+        <v>5</v>
+      </c>
+      <c r="G19" s="162">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="145">
+        <v>1.6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J19" s="158">
+        <f>2*3.14*I19*G19</f>
+        <v>42.578400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="161"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="162">
+        <v>6</v>
+      </c>
+      <c r="G20" s="162">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="145"/>
+      <c r="I20" s="2">
+        <v>13.56</v>
+      </c>
+      <c r="J20" s="158">
+        <f>2*3.14*I20*G20</f>
+        <v>51.094079999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="161"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="162">
+        <v>8</v>
+      </c>
+      <c r="G21" s="162">
+        <v>1</v>
+      </c>
+      <c r="H21" s="145"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" thickBot="1">
+      <c r="B22" s="163"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="164">
+        <v>10</v>
+      </c>
+      <c r="G22" s="164">
+        <v>1.4</v>
+      </c>
+      <c r="H22" s="146"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="H19:H22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5471,42 +5641,42 @@
   <sheetData>
     <row r="4" spans="3:11">
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
       <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>0.75</v>
@@ -5524,15 +5694,15 @@
         <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>0.28000000000000003</v>
@@ -5550,7 +5720,7 @@
         <v>40.5</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5570,38 +5740,38 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="152" t="s">
-        <v>123</v>
+      <c r="B4" s="153" t="s">
+        <v>120</v>
       </c>
       <c r="C4">
         <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="152"/>
+      <c r="B5" s="153"/>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="152"/>
+      <c r="B6" s="153"/>
       <c r="C6">
         <f>C4/C5</f>
         <v>12.5</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5650,49 +5820,49 @@
   <sheetData>
     <row r="3" spans="2:27" ht="18" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="148" t="s">
+      <c r="B4" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="156" t="s">
-        <v>101</v>
-      </c>
-      <c r="V4" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="153"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="148"/>
     </row>
     <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
-      <c r="B5" s="155"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5700,7 +5870,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>24</v>
@@ -5714,10 +5884,10 @@
       <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="24" t="s">
         <v>34</v>
       </c>
@@ -5728,41 +5898,41 @@
         <v>5</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="R5" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="U5" s="152"/>
+      <c r="V5" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="X5" s="126" t="s">
+      <c r="X5" s="120" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="121" t="s">
         <v>115</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="127" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" thickBot="1">
@@ -5823,7 +5993,7 @@
       <c r="W6" s="10">
         <v>29.8</v>
       </c>
-      <c r="X6" s="128">
+      <c r="X6" s="122">
         <f>W6*W6/U6</f>
         <v>17.760800000000003</v>
       </c>
@@ -5833,7 +6003,7 @@
       <c r="Z6" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="129">
+      <c r="AA6" s="123">
         <f>Y6*Z6</f>
         <v>21.6</v>
       </c>
@@ -5889,7 +6059,7 @@
       <c r="Z7" s="2">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="130">
+      <c r="AA7" s="124">
         <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
         <v>21.6</v>
       </c>
@@ -5907,11 +6077,11 @@
       <c r="I8" s="8">
         <v>360</v>
       </c>
-      <c r="J8" s="123">
+      <c r="J8" s="117">
         <f t="shared" si="0"/>
         <v>2.8888888888888888</v>
       </c>
-      <c r="K8" s="161">
+      <c r="K8" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5935,7 +6105,7 @@
       <c r="W8" s="8">
         <v>29</v>
       </c>
-      <c r="X8" s="131">
+      <c r="X8" s="125">
         <f t="shared" si="2"/>
         <v>16.82</v>
       </c>
@@ -5945,7 +6115,7 @@
       <c r="Z8" s="8">
         <v>1.3</v>
       </c>
-      <c r="AA8" s="132">
+      <c r="AA8" s="126">
         <f t="shared" si="3"/>
         <v>31.200000000000003</v>
       </c>
@@ -6001,7 +6171,7 @@
       <c r="W9" s="10">
         <v>30</v>
       </c>
-      <c r="X9" s="128">
+      <c r="X9" s="122">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -6011,7 +6181,7 @@
       <c r="Z9" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA9" s="129">
+      <c r="AA9" s="123">
         <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
@@ -6068,7 +6238,7 @@
       <c r="Z10" s="2">
         <v>1.6</v>
       </c>
-      <c r="AA10" s="130">
+      <c r="AA10" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6121,7 +6291,7 @@
       <c r="Z11" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA11" s="130">
+      <c r="AA11" s="124">
         <f t="shared" si="3"/>
         <v>64.399999999999991</v>
       </c>
@@ -6139,11 +6309,11 @@
       <c r="I12" s="8">
         <v>200</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="117">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K12" s="123"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -6164,7 +6334,7 @@
       <c r="W12" s="8">
         <v>45.8</v>
       </c>
-      <c r="X12" s="131">
+      <c r="X12" s="125">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
@@ -6174,72 +6344,72 @@
       <c r="Z12" s="8">
         <v>4</v>
       </c>
-      <c r="AA12" s="132">
+      <c r="AA12" s="126">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="121"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57">
+      <c r="B13" s="115"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54">
         <v>2.8</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54">
         <f>E13</f>
         <v>2.8</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="54">
         <v>680</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="54">
         <v>100</v>
       </c>
-      <c r="J13" s="158">
+      <c r="J13" s="127">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="K13" s="158">
+      <c r="K13" s="127">
         <f t="shared" ref="K13" si="4">G13*J13</f>
         <v>21.84</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57">
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54">
         <v>18.2</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="54">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57">
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54">
         <v>3</v>
       </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57">
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54">
         <v>50</v>
       </c>
-      <c r="V13" s="57">
+      <c r="V13" s="54">
         <v>136</v>
       </c>
-      <c r="W13" s="57">
+      <c r="W13" s="54">
         <v>45.8</v>
       </c>
-      <c r="X13" s="159">
+      <c r="X13" s="128">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
-      <c r="Y13" s="57">
+      <c r="Y13" s="54">
         <v>40</v>
       </c>
-      <c r="Z13" s="57">
+      <c r="Z13" s="54">
         <v>4</v>
       </c>
-      <c r="AA13" s="160">
+      <c r="AA13" s="129">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
@@ -6292,7 +6462,7 @@
       <c r="Z14" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA14" s="130">
+      <c r="AA14" s="124">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
@@ -6341,7 +6511,7 @@
       <c r="Z15" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA15" s="130">
+      <c r="AA15" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
@@ -6390,7 +6560,7 @@
       <c r="Z16" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA16" s="130">
+      <c r="AA16" s="124">
         <f t="shared" si="3"/>
         <v>220.79999999999998</v>
       </c>
@@ -6441,7 +6611,7 @@
       <c r="Z17" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA17" s="130">
+      <c r="AA17" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
@@ -6455,11 +6625,11 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="123" t="e">
+      <c r="J18" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="123"/>
+      <c r="K18" s="117"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -6474,13 +6644,13 @@
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="131">
+      <c r="X18" s="125">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="132">
+      <c r="AA18" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597EAE4C-5616-4153-B5CA-1F50E3F9AA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Test sheet (2)" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,11 +689,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1552,75 +1555,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,17 +1574,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,7 +1715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,26 +1748,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1797,23 +1783,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1989,22 +1958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="4" width="9.19921875" customWidth="1"/>
+    <col min="1" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="18" thickBot="1">
+    <row r="3" spans="2:24" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,17 +1990,17 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131" t="s">
+      <c r="M4" s="140"/>
+      <c r="N4" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="131"/>
+      <c r="O4" s="140"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -2573,7 +2542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="18" thickBot="1">
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2594,18 +2563,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1">
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="132" t="s">
+    <row r="21" spans="2:17" ht="17.25" thickBot="1">
+      <c r="N21" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="133"/>
-    </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
+      <c r="O21" s="142"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -2867,7 +2836,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="18" thickBot="1">
+    <row r="31" spans="2:17" ht="17.25" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2895,17 +2864,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1"/>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="52" t="s">
         <v>84</v>
       </c>
@@ -3016,7 +2985,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="18" thickBot="1">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -3046,68 +3015,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
     <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="18" thickBot="1"/>
-    <row r="3" spans="2:35" ht="18" thickBot="1">
+    <row r="2" spans="2:35" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:35" ht="17.25" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="140" t="s">
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="140"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="141"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="150"/>
       <c r="Z3" s="76" t="s">
         <v>57</v>
       </c>
@@ -3116,16 +3085,16 @@
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="134" t="s">
+      <c r="K4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="135"/>
+      <c r="L4" s="144"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
       <c r="O4" s="54"/>
@@ -3135,12 +3104,12 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="138" t="s">
+      <c r="V4" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="139"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="148"/>
       <c r="Z4" s="72"/>
       <c r="AC4" t="s">
         <v>101</v>
@@ -3149,7 +3118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="18" thickBot="1">
+    <row r="5" spans="2:35" ht="17.25" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="57" t="s">
         <v>12</v>
@@ -3251,7 +3220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="18" thickBot="1">
+    <row r="6" spans="2:35" ht="17.25" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>80</v>
       </c>
@@ -3740,7 +3709,7 @@
       <c r="AA14" s="90"/>
       <c r="AI14" s="93"/>
     </row>
-    <row r="15" spans="2:35" ht="18" thickBot="1">
+    <row r="15" spans="2:35" ht="17.25" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="60"/>
       <c r="D15" s="7"/>
@@ -3813,21 +3782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18" thickBot="1">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="C2" t="s">
         <v>119</v>
       </c>
@@ -3843,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="E3" s="114"/>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144" t="s">
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142" t="s">
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="151" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="B4" s="107" t="s">
         <v>118</v>
       </c>
@@ -3892,7 +3861,7 @@
       <c r="L4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="143"/>
+      <c r="M4" s="152"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="115">
@@ -3904,7 +3873,7 @@
       <c r="D5" s="54">
         <v>2.04</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="156">
         <v>3</v>
       </c>
       <c r="F5" s="54">
@@ -3939,7 +3908,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="145"/>
+      <c r="E6" s="154"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -3972,7 +3941,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="145"/>
+      <c r="E7" s="154"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -4005,7 +3974,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="145"/>
+      <c r="E8" s="154"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -4038,7 +4007,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="145">
+      <c r="E9" s="154">
         <v>3.5</v>
       </c>
       <c r="F9" s="104">
@@ -4073,7 +4042,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="145"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="104">
         <v>32</v>
       </c>
@@ -4106,7 +4075,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="145">
+      <c r="E11" s="154">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -4141,7 +4110,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="145"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -4170,11 +4139,11 @@
         <v>23.143750000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18" thickBot="1">
+    <row r="13" spans="2:13" ht="17.25" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="146"/>
+      <c r="E13" s="155"/>
       <c r="F13" s="110">
         <v>40</v>
       </c>
@@ -4219,84 +4188,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.8984375" customWidth="1"/>
-    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="18" thickBot="1"/>
+    <row r="3" spans="2:27" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144" t="s">
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="151" t="s">
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="V4" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144" t="s">
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="148"/>
-    </row>
-    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
-      <c r="B5" s="150"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="157"/>
+    </row>
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B5" s="159"/>
       <c r="C5" s="24" t="s">
         <v>127</v>
       </c>
@@ -4349,7 +4318,7 @@
       <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="152"/>
+      <c r="U5" s="161"/>
       <c r="V5" s="119" t="s">
         <v>145</v>
       </c>
@@ -4369,7 +4338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="18" thickBot="1">
+    <row r="6" spans="2:27" ht="17.25" thickBot="1">
       <c r="B6" s="3">
         <v>0.8</v>
       </c>
@@ -4442,7 +4411,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="18" thickBot="1">
+    <row r="7" spans="2:27" ht="17.25" thickBot="1">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4498,7 +4467,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18" thickBot="1">
+    <row r="8" spans="2:27" ht="17.25" thickBot="1">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4730,7 +4699,7 @@
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18" thickBot="1">
+    <row r="12" spans="2:27" ht="17.25" thickBot="1">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5050,7 +5019,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="18" thickBot="1">
+    <row r="18" spans="2:27" ht="17.25" thickBot="1">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5105,16 +5074,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -5314,33 +5283,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" thickBot="1"/>
-    <row r="11" spans="2:11" ht="18" thickBot="1">
-      <c r="B11" s="154" t="s">
+    <row r="10" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="11" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B11" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="156" t="s">
+      <c r="J11" s="133" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5357,10 +5326,10 @@
       <c r="E12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="157">
+      <c r="F12" s="134">
         <v>5</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="134">
         <v>24</v>
       </c>
       <c r="H12" s="10">
@@ -5369,7 +5338,7 @@
       <c r="I12" s="2">
         <v>13.56</v>
       </c>
-      <c r="J12" s="158">
+      <c r="J12" s="135">
         <f>2*3.14*I12*G12</f>
         <v>2043.7632000000001</v>
       </c>
@@ -5387,10 +5356,10 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="159">
+      <c r="F13" s="136">
         <v>6</v>
       </c>
-      <c r="G13" s="159">
+      <c r="G13" s="136">
         <v>0.5</v>
       </c>
       <c r="H13" s="2">
@@ -5415,10 +5384,10 @@
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="159">
+      <c r="F14" s="136">
         <v>9</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="136">
         <v>1</v>
       </c>
       <c r="H14" s="2">
@@ -5438,10 +5407,10 @@
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="159">
+      <c r="F15" s="136">
         <v>25</v>
       </c>
-      <c r="G15" s="159">
+      <c r="G15" s="136">
         <v>290</v>
       </c>
       <c r="H15" s="2">
@@ -5450,8 +5419,8 @@
       <c r="I15" s="2">
         <v>13.56</v>
       </c>
-      <c r="J15" s="158">
-        <f>2*3.14*I15*G15</f>
+      <c r="J15" s="135">
+        <f t="shared" ref="J15:J20" si="0">2*3.14*I15*G15</f>
         <v>24695.472000000002</v>
       </c>
     </row>
@@ -5466,18 +5435,18 @@
         <v>108</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="159">
+      <c r="F16" s="136">
         <v>1</v>
       </c>
-      <c r="G16" s="159">
+      <c r="G16" s="136">
         <v>4</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>13.56</v>
       </c>
-      <c r="J16" s="158">
-        <f>2*3.14*I16*G16</f>
+      <c r="J16" s="135">
+        <f t="shared" si="0"/>
         <v>340.62720000000002</v>
       </c>
     </row>
@@ -5492,18 +5461,18 @@
         <v>148</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="159">
+      <c r="F17" s="136">
         <v>2</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="136">
         <v>25.6</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>13.56</v>
       </c>
-      <c r="J17" s="158">
-        <f>2*3.14*I17*G17</f>
+      <c r="J17" s="135">
+        <f t="shared" si="0"/>
         <v>2180.0140800000004</v>
       </c>
     </row>
@@ -5518,96 +5487,96 @@
         <v>148</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="159">
+      <c r="G18" s="136">
         <v>3.3</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>13.56</v>
       </c>
-      <c r="J18" s="158">
-        <f>2*3.14*I18*G18</f>
+      <c r="J18" s="135">
+        <f t="shared" si="0"/>
         <v>281.01744000000002</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="162">
+      <c r="E19" s="154"/>
+      <c r="F19" s="138">
         <v>5</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="138">
         <v>0.5</v>
       </c>
-      <c r="H19" s="145">
+      <c r="H19" s="154">
         <v>1.6</v>
       </c>
       <c r="I19" s="2">
         <v>13.56</v>
       </c>
-      <c r="J19" s="158">
-        <f>2*3.14*I19*G19</f>
+      <c r="J19" s="135">
+        <f t="shared" si="0"/>
         <v>42.578400000000002</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="161"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="162">
+      <c r="B20" s="162"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="138">
         <v>6</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="138">
         <v>0.6</v>
       </c>
-      <c r="H20" s="145"/>
+      <c r="H20" s="154"/>
       <c r="I20" s="2">
         <v>13.56</v>
       </c>
-      <c r="J20" s="158">
-        <f>2*3.14*I20*G20</f>
+      <c r="J20" s="135">
+        <f t="shared" si="0"/>
         <v>51.094079999999998</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="161"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="162">
+      <c r="B21" s="162"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="138">
         <v>8</v>
       </c>
-      <c r="G21" s="162">
+      <c r="G21" s="138">
         <v>1</v>
       </c>
-      <c r="H21" s="145"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="18" thickBot="1">
+    <row r="22" spans="2:10" ht="17.25" thickBot="1">
       <c r="B22" s="163"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="164">
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="139">
         <v>10</v>
       </c>
-      <c r="G22" s="164">
+      <c r="G22" s="139">
         <v>1.4</v>
       </c>
-      <c r="H22" s="146"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
@@ -5625,18 +5594,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
@@ -5730,17 +5699,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="164" t="s">
         <v>120</v>
       </c>
       <c r="C4">
@@ -5751,7 +5720,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="153"/>
+      <c r="B5" s="164"/>
       <c r="C5">
         <v>48</v>
       </c>
@@ -5760,7 +5729,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="153"/>
+      <c r="B6" s="164"/>
       <c r="C6">
         <f>C4/C5</f>
         <v>12.5</v>
@@ -5785,851 +5754,736 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16CC6A1-89E4-4C64-BE7B-540EEEAB9973}">
-  <dimension ref="B3:AA18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.8984375" customWidth="1"/>
-    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="18" thickBot="1"/>
-    <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="149" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="144" t="s">
+    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:26" s="15" customFormat="1">
+      <c r="B4" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="151" t="s">
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="U4" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144" t="s">
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="148"/>
-    </row>
-    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
-      <c r="B5" s="150"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="157"/>
+    </row>
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="I5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="L5" s="24" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="O5" s="118" t="s">
         <v>82</v>
       </c>
+      <c r="P5" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="Q5" s="24" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="152"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="119" t="s">
+        <v>97</v>
+      </c>
       <c r="V5" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="120" t="s">
+      <c r="W5" s="120" t="s">
         <v>16</v>
       </c>
+      <c r="X5" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="Y5" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="121" t="s">
+      <c r="Z5" s="121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="18" thickBot="1">
-      <c r="B6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2.72</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="10">
-        <f>E6</f>
-        <v>2.72</v>
-      </c>
-      <c r="H6" s="10">
-        <v>680</v>
-      </c>
-      <c r="I6" s="10">
-        <v>360</v>
-      </c>
-      <c r="J6" s="50">
-        <f>1+H6/I6</f>
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="K6" s="50">
-        <f>G6*J6</f>
-        <v>7.8577777777777786</v>
-      </c>
-      <c r="L6" s="10">
-        <v>8.4</v>
-      </c>
+    <row r="6" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4.12</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="50" t="e">
+        <f>1+G6/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="50" t="e">
+        <f>F6*I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10">
-        <v>4.2</v>
-      </c>
+      <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10">
-        <v>3</v>
-      </c>
+      <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="T6" s="10">
+        <v>50</v>
+      </c>
       <c r="U6" s="10">
-        <v>50</v>
+        <v>91.2</v>
       </c>
       <c r="V6" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="W6" s="10">
         <v>29.8</v>
       </c>
-      <c r="X6" s="122">
-        <f>W6*W6/U6</f>
+      <c r="W6" s="122">
+        <f>V6*V6/T6</f>
         <v>17.760800000000003</v>
       </c>
+      <c r="X6" s="10">
+        <v>24</v>
+      </c>
       <c r="Y6" s="10">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA6" s="123">
-        <f>Y6*Z6</f>
+      <c r="Z6" s="123">
+        <f>X6*Y6</f>
         <v>21.6</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="18" thickBot="1">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>680</v>
-      </c>
-      <c r="I7" s="2">
-        <v>360</v>
-      </c>
-      <c r="J7" s="37">
-        <f t="shared" ref="J7:J18" si="0">1+H7/I7</f>
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="K7" s="50">
-        <f t="shared" ref="K7:K9" si="1">G7*J7</f>
-        <v>0</v>
-      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="37" t="e">
+        <f t="shared" ref="I7:I18" si="0">1+G7/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="50" t="e">
+        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>3.5</v>
-      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
       <c r="U7" s="2">
-        <v>50</v>
+        <v>91.2</v>
       </c>
       <c r="V7" s="2">
-        <v>91.2</v>
-      </c>
-      <c r="W7" s="2">
         <v>29.7</v>
       </c>
-      <c r="X7" s="36">
-        <f t="shared" ref="X7:X18" si="2">W7*W7/U7</f>
+      <c r="W7" s="36">
+        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
         <v>17.6418</v>
       </c>
+      <c r="X7" s="2">
+        <v>24</v>
+      </c>
       <c r="Y7" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="124">
-        <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
+      <c r="Z7" s="124">
+        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18" thickBot="1">
-      <c r="B8" s="7"/>
+    <row r="8" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>680</v>
-      </c>
-      <c r="I8" s="8">
-        <v>360</v>
-      </c>
-      <c r="J8" s="117">
+      <c r="H8" s="8"/>
+      <c r="I8" s="117" t="e">
         <f t="shared" si="0"/>
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="K8" s="130">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="130" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="8">
-        <v>4</v>
-      </c>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="8">
+        <v>50</v>
+      </c>
       <c r="U8" s="8">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="V8" s="8">
-        <v>88</v>
-      </c>
-      <c r="W8" s="8">
         <v>29</v>
       </c>
-      <c r="X8" s="125">
+      <c r="W8" s="125">
         <f t="shared" si="2"/>
         <v>16.82</v>
       </c>
+      <c r="X8" s="8">
+        <v>24</v>
+      </c>
       <c r="Y8" s="8">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="8">
         <v>1.3</v>
       </c>
-      <c r="AA8" s="126">
+      <c r="Z8" s="126">
         <f t="shared" si="3"/>
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="3"/>
+    <row r="9" spans="2:26">
+      <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <v>2.72</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>2.72</v>
-      </c>
-      <c r="H9" s="10">
-        <v>680</v>
-      </c>
-      <c r="I9" s="10">
-        <v>200</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="50" t="e">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K9" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="50" t="e">
         <f t="shared" si="1"/>
-        <v>11.968000000000002</v>
-      </c>
-      <c r="L9" s="10">
-        <v>12.6</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
-        <v>11.4</v>
-      </c>
-      <c r="P9" s="10">
-        <v>6</v>
-      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10">
-        <v>3</v>
-      </c>
+      <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="T9" s="10">
+        <v>50</v>
+      </c>
       <c r="U9" s="10">
-        <v>50</v>
+        <v>91.2</v>
       </c>
       <c r="V9" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="W9" s="10">
         <v>30</v>
       </c>
-      <c r="X9" s="122">
+      <c r="W9" s="122">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="X9" s="10">
+        <v>24</v>
+      </c>
       <c r="Y9" s="10">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA9" s="123">
+      <c r="Z9" s="123">
         <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="4"/>
+    <row r="10" spans="2:26">
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>2.96</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>680</v>
-      </c>
-      <c r="I10" s="2">
-        <v>200</v>
-      </c>
-      <c r="J10" s="37">
+      <c r="H10" s="2"/>
+      <c r="I10" s="37" t="e">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K10" s="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>11</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5.8</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>3</v>
-      </c>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2">
+        <v>50</v>
+      </c>
       <c r="U10" s="2">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="V10" s="2">
-        <v>105</v>
-      </c>
-      <c r="W10" s="2">
         <v>35</v>
       </c>
-      <c r="X10" s="36">
+      <c r="W10" s="36">
         <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
         <v>1.6</v>
       </c>
-      <c r="AA10" s="124">
+      <c r="Z10" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="4"/>
+    <row r="11" spans="2:26">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>680</v>
-      </c>
-      <c r="I11" s="2">
-        <v>200</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="H11" s="2"/>
+      <c r="I11" s="37" t="e">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K11" s="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2">
-        <v>3</v>
-      </c>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2">
+        <v>50</v>
+      </c>
       <c r="U11" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="V11" s="2">
-        <v>106</v>
-      </c>
-      <c r="W11" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="X11" s="36">
+      <c r="W11" s="36">
         <f t="shared" si="2"/>
         <v>24.220799999999993</v>
       </c>
+      <c r="X11" s="2">
+        <v>28</v>
+      </c>
       <c r="Y11" s="2">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA11" s="124">
+      <c r="Z11" s="124">
         <f t="shared" si="3"/>
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18" thickBot="1">
-      <c r="B12" s="7"/>
+    <row r="12" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>680</v>
-      </c>
-      <c r="I12" s="8">
-        <v>200</v>
-      </c>
-      <c r="J12" s="117">
+      <c r="H12" s="8"/>
+      <c r="I12" s="117" t="e">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K12" s="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="117"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8">
-        <v>3</v>
-      </c>
+      <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="8">
+        <v>50</v>
+      </c>
       <c r="U12" s="8">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="V12" s="8">
-        <v>135</v>
-      </c>
-      <c r="W12" s="8">
         <v>45.8</v>
       </c>
-      <c r="X12" s="125">
+      <c r="W12" s="125">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
+      <c r="X12" s="8">
+        <v>40</v>
+      </c>
       <c r="Y12" s="8">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="8">
         <v>4</v>
       </c>
-      <c r="AA12" s="126">
+      <c r="Z12" s="126">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="115"/>
+    <row r="13" spans="2:26">
+      <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="54">
-        <v>2.8</v>
-      </c>
+      <c r="E13" s="54"/>
       <c r="F13" s="54"/>
-      <c r="G13" s="54">
-        <f>E13</f>
-        <v>2.8</v>
-      </c>
-      <c r="H13" s="54">
-        <v>680</v>
-      </c>
-      <c r="I13" s="54">
-        <v>100</v>
-      </c>
-      <c r="J13" s="127">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="K13" s="127">
-        <f t="shared" ref="K13" si="4">G13*J13</f>
-        <v>21.84</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="127" t="e">
+        <f t="shared" ref="J13" si="4">F13*I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="54"/>
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="54">
-        <v>18.2</v>
-      </c>
-      <c r="P13" s="54">
-        <v>9.1199999999999992</v>
-      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="54">
-        <v>3</v>
-      </c>
+      <c r="R13" s="54"/>
       <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
+      <c r="T13" s="54">
+        <v>50</v>
+      </c>
       <c r="U13" s="54">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="V13" s="54">
-        <v>136</v>
-      </c>
-      <c r="W13" s="54">
         <v>45.8</v>
       </c>
-      <c r="X13" s="128">
+      <c r="W13" s="128">
         <f t="shared" si="2"/>
         <v>41.952799999999996</v>
       </c>
+      <c r="X13" s="54">
+        <v>40</v>
+      </c>
       <c r="Y13" s="54">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="54">
         <v>4</v>
       </c>
-      <c r="AA13" s="129">
+      <c r="Z13" s="129">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="4"/>
+    <row r="14" spans="2:26">
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>680</v>
-      </c>
-      <c r="I14" s="2">
-        <v>100</v>
-      </c>
-      <c r="J14" s="37">
+      <c r="H14" s="2"/>
+      <c r="I14" s="37" t="e">
         <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="K14" s="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2">
-        <v>3</v>
-      </c>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
       <c r="U14" s="2">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="V14" s="2">
-        <v>144</v>
-      </c>
-      <c r="W14" s="2">
         <v>46</v>
       </c>
-      <c r="X14" s="36">
+      <c r="W14" s="36">
         <f t="shared" si="2"/>
         <v>42.32</v>
       </c>
+      <c r="X14" s="2">
+        <v>40</v>
+      </c>
       <c r="Y14" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA14" s="124">
+      <c r="Z14" s="124">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="4"/>
+    <row r="15" spans="2:26">
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="37" t="e">
+      <c r="I15" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2">
-        <v>3</v>
-      </c>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
       <c r="U15" s="2">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="V15" s="2">
-        <v>134</v>
-      </c>
-      <c r="W15" s="2">
         <v>43</v>
       </c>
-      <c r="X15" s="36">
+      <c r="W15" s="36">
         <f t="shared" si="2"/>
         <v>36.979999999999997</v>
       </c>
+      <c r="X15" s="2">
+        <v>40</v>
+      </c>
       <c r="Y15" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA15" s="124">
+      <c r="Z15" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="4"/>
+    <row r="16" spans="2:26">
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="37" t="e">
+      <c r="I16" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <v>3</v>
-      </c>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
       <c r="U16" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="V16" s="2">
-        <v>152</v>
-      </c>
-      <c r="W16" s="2">
         <v>48.7</v>
       </c>
-      <c r="X16" s="36">
+      <c r="W16" s="36">
         <f t="shared" si="2"/>
         <v>47.433799999999998</v>
       </c>
+      <c r="X16" s="2">
+        <v>48</v>
+      </c>
       <c r="Y16" s="2">
-        <v>48</v>
-      </c>
-      <c r="Z16" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA16" s="124">
+      <c r="Z16" s="124">
         <f t="shared" si="3"/>
         <v>220.79999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="4"/>
+    <row r="17" spans="2:26">
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="37" t="e">
+      <c r="I17" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <v>4</v>
-      </c>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="U17" s="2">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="V17" s="2">
-        <v>134</v>
-      </c>
-      <c r="W17" s="2">
         <v>43.2</v>
       </c>
-      <c r="X17" s="36">
+      <c r="W17" s="36">
         <f t="shared" si="2"/>
         <v>37.324800000000003</v>
       </c>
+      <c r="X17" s="2">
+        <v>40</v>
+      </c>
       <c r="Y17" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="2">
         <v>3.7</v>
       </c>
-      <c r="AA17" s="124">
+      <c r="Z17" s="124">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="18" thickBot="1">
-      <c r="B18" s="7"/>
+    <row r="18" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="117" t="e">
+      <c r="I18" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -6638,32 +6492,30 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8">
+      <c r="T18" s="8">
         <v>50</v>
       </c>
+      <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="125">
+      <c r="W18" s="125">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="126">
+      <c r="Z18" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:X4"/>
+  <mergeCells count="6">
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188336B-C1FF-4A0A-B983-37A601B79990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -16,8 +17,9 @@
     <sheet name="FAN" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Test sheet (2)" sheetId="10" r:id="rId9"/>
+    <sheet name="Coupler" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="206">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,15 +695,236 @@
     <t>NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>turn ratio 1:25의 동일한 Transformer 2ea 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irms[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-wave SWR meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupling 1:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT114-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT50-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core OD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uH for 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측 impedance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측 권선 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2W 두개를 사용하여 50Ω 4W 설계</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측 impedance가 Load impedance의 10배의 impedance를 가져야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipp[A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF-INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측 권선의 길이가 가장 짧은 파장의 1/10 이하 이어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차측 권선 최대 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KΩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) rectified circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1[KΩ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2[KΩ]</t>
+  </si>
+  <si>
+    <t>R2[KΩ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT Turn ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT Turn ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT - 1차측의 전류는 Load Z와 Trans Z로 계산해야 함.(Transformer 공식 사용하면 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT  - 1차측의 전압은 Load Z와 Trans Z로 계산해야 함.(Transformer 공식 사용하면 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC Filter 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>τ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass Cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +984,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -800,7 +1036,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1339,11 +1575,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1580,6 +1920,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,6 +2003,193 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,6 +2206,316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171226</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F77A9-FEA9-45DA-87D2-086B17683761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5082540" y="5067300"/>
+          <a:ext cx="1344706" cy="643217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>354817</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="SWR 브리지의 회로도">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C3430D-C091-4C50-9B59-A1931072C053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7985760" y="213360"/>
+          <a:ext cx="6001237" cy="5449197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCAF82E-D8D6-45E0-8C46-F0F1020E5DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11315700" y="11094720"/>
+          <a:ext cx="1851660" cy="1889760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>184938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DCCD1A-57BD-4EFE-8971-DB6743437742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5219700" y="11871960"/>
+          <a:ext cx="4732020" cy="1480338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>67705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13674B6-96A0-4841-A4CF-5F1D17BB2FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10294620" y="11879580"/>
+          <a:ext cx="1775460" cy="677305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,7 +2561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1748,9 +2594,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1783,6 +2646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1958,22 +2838,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" thickBot="1">
+    <row r="3" spans="2:24" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,17 +2870,17 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="140" t="s">
+      <c r="L4" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140" t="s">
+      <c r="M4" s="143"/>
+      <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="140"/>
+      <c r="O4" s="143"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -2542,7 +3422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+    <row r="17" spans="2:17" ht="18" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2563,18 +3443,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+    <row r="20" spans="2:17" ht="18" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="17.25" thickBot="1">
-      <c r="N21" s="141" t="s">
+    <row r="21" spans="2:17" ht="18" thickBot="1">
+      <c r="N21" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="142"/>
-    </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
+      <c r="O21" s="145"/>
+    </row>
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -2836,7 +3716,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="17.25" thickBot="1">
+    <row r="31" spans="2:17" ht="18" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2863,18 +3743,1844 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E61BE2-D52E-4F1A-A460-6E9EC3FBF46E}">
+  <dimension ref="B1:R62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="3" width="3.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" thickBot="1">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" s="1"/>
+      <c r="D6" s="190" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="190" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="192"/>
+    </row>
+    <row r="7" spans="2:13" ht="18" thickBot="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="201" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="202" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" s="1"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="169">
+        <f>(D8*50)^0.5</f>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="F8" s="169">
+        <f>E8/0.707*2</f>
+        <v>63.255105445538611</v>
+      </c>
+      <c r="G8" s="169">
+        <f>D8/E8</f>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="H8" s="185">
+        <f>G8/0.707*2</f>
+        <v>1.2651021089107721</v>
+      </c>
+      <c r="I8" s="170">
+        <f>E8/25</f>
+        <v>0.89442719099991597</v>
+      </c>
+      <c r="J8" s="169">
+        <f>I8/0.707*2</f>
+        <v>2.5302042178215447</v>
+      </c>
+      <c r="K8" s="56">
+        <f>I8*I8/50</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="L8" s="56">
+        <f>K8/I8</f>
+        <v>1.7888543819998319E-2</v>
+      </c>
+      <c r="M8" s="185">
+        <f>L8/0.707*2</f>
+        <v>5.0604084356430892E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="103">
+        <f t="shared" ref="E9:E12" si="0">(D9*50)^0.5</f>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="F9" s="103">
+        <f>E9/0.707*2</f>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G9" s="103">
+        <f t="shared" ref="G9:G12" si="1">D9/E9</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="H9" s="108">
+        <f t="shared" ref="H9:H12" si="2">G9/0.707*2</f>
+        <v>4.0006041368404386</v>
+      </c>
+      <c r="I9" s="171">
+        <f>E9/25</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J9" s="103">
+        <f t="shared" ref="J9:J12" si="3">I9/0.707*2</f>
+        <v>8.0012082736808789</v>
+      </c>
+      <c r="K9" s="172">
+        <f t="shared" ref="K9:K12" si="4">I9*I9/50</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="L9" s="172">
+        <f t="shared" ref="L9:L12" si="5">K9/I9</f>
+        <v>5.656854249492381E-2</v>
+      </c>
+      <c r="M9" s="108">
+        <f>L9/0.707*2</f>
+        <v>0.16002416547361759</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="C10" s="1"/>
+      <c r="D10" s="28">
+        <v>300</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F10" s="21">
+        <f>E10/0.707*2</f>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="1"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H10" s="187">
+        <f t="shared" si="2"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I10" s="188">
+        <f>E10/25</f>
+        <v>4.8989794855663567</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="3"/>
+        <v>13.858499251955749</v>
+      </c>
+      <c r="K10" s="189">
+        <f t="shared" si="4"/>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="L10" s="189">
+        <f t="shared" si="5"/>
+        <v>9.7979589711327128E-2</v>
+      </c>
+      <c r="M10" s="187">
+        <f t="shared" ref="M10:M12" si="6">L10/0.707*2</f>
+        <v>0.27716998503911494</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" s="1"/>
+      <c r="D11" s="4">
+        <v>600</v>
+      </c>
+      <c r="E11" s="103">
+        <f t="shared" si="0"/>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="F11" s="103">
+        <f>E11/0.707*2</f>
+        <v>489.97193990633025</v>
+      </c>
+      <c r="G11" s="103">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377548</v>
+      </c>
+      <c r="H11" s="108">
+        <f t="shared" si="2"/>
+        <v>9.7994387981266051</v>
+      </c>
+      <c r="I11" s="171">
+        <f>E11/25</f>
+        <v>6.9282032302755088</v>
+      </c>
+      <c r="J11" s="103">
+        <f t="shared" si="3"/>
+        <v>19.598877596253207</v>
+      </c>
+      <c r="K11" s="172">
+        <f t="shared" si="4"/>
+        <v>0.95999999999999985</v>
+      </c>
+      <c r="L11" s="172">
+        <f t="shared" si="5"/>
+        <v>0.13856406460551016</v>
+      </c>
+      <c r="M11" s="108">
+        <f t="shared" si="6"/>
+        <v>0.39197755192506412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18" thickBot="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="173">
+        <f t="shared" si="0"/>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="F12" s="173">
+        <f>E12/0.707*2</f>
+        <v>632.55105445538607</v>
+      </c>
+      <c r="G12" s="173">
+        <f t="shared" si="1"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H12" s="186">
+        <f t="shared" si="2"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="I12" s="174">
+        <f>E12/25</f>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="J12" s="173">
+        <f t="shared" si="3"/>
+        <v>25.302042178215444</v>
+      </c>
+      <c r="K12" s="175">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="L12" s="175">
+        <f t="shared" si="5"/>
+        <v>0.1788854381999832</v>
+      </c>
+      <c r="M12" s="186">
+        <f t="shared" si="6"/>
+        <v>0.5060408435643089</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18" thickBot="1">
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18" thickBot="1">
+      <c r="D15" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="145"/>
+      <c r="F15" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="205" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="205" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="205" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="203" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="204"/>
+      <c r="F16" s="115">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="G16" s="206">
+        <v>29</v>
+      </c>
+      <c r="H16" s="54">
+        <v>21</v>
+      </c>
+      <c r="I16" s="54">
+        <v>12.7</v>
+      </c>
+      <c r="J16" s="206">
+        <v>29</v>
+      </c>
+      <c r="K16" s="206">
+        <v>29</v>
+      </c>
+      <c r="L16" s="178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="D17" s="176" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="177"/>
+      <c r="F17" s="4">
+        <v>885</v>
+      </c>
+      <c r="G17" s="19">
+        <v>510</v>
+      </c>
+      <c r="H17" s="2">
+        <v>470</v>
+      </c>
+      <c r="I17" s="2">
+        <v>440</v>
+      </c>
+      <c r="J17" s="19">
+        <v>510</v>
+      </c>
+      <c r="K17" s="19">
+        <v>510</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="D18" s="176" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="177"/>
+      <c r="F18" s="179">
+        <f>F17*25^2/1000</f>
+        <v>553.125</v>
+      </c>
+      <c r="G18" s="21">
+        <f>G17*25^2/1000</f>
+        <v>318.75</v>
+      </c>
+      <c r="H18" s="103">
+        <f>H17*25^2/1000</f>
+        <v>293.75</v>
+      </c>
+      <c r="I18" s="103">
+        <f>I17*25^2/1000</f>
+        <v>275</v>
+      </c>
+      <c r="J18" s="21">
+        <f>J17*25^2/1000</f>
+        <v>318.75</v>
+      </c>
+      <c r="K18" s="21">
+        <f>K17*25^2/1000</f>
+        <v>318.75</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="D19" s="176" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="177"/>
+      <c r="F19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>27.12</v>
+      </c>
+      <c r="K19" s="19">
+        <v>13.65</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="D20" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="177"/>
+      <c r="F20" s="179">
+        <f>2*3.14*F19*F18</f>
+        <v>1042.0874999999999</v>
+      </c>
+      <c r="G20" s="21">
+        <f>2*3.14*G19*G18</f>
+        <v>600.52499999999998</v>
+      </c>
+      <c r="H20" s="103">
+        <f>2*3.14*H19*H18</f>
+        <v>553.42499999999995</v>
+      </c>
+      <c r="I20" s="103">
+        <f>2*3.14*I19*I18</f>
+        <v>518.1</v>
+      </c>
+      <c r="J20" s="21">
+        <f>2*3.14*J19*J18</f>
+        <v>54287.46</v>
+      </c>
+      <c r="K20" s="21">
+        <f>2*3.14*K19*K18</f>
+        <v>27323.887500000004</v>
+      </c>
+      <c r="L20" s="180" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="18" thickBot="1">
+      <c r="D21" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="182"/>
+      <c r="F21" s="174">
+        <v>1.226</v>
+      </c>
+      <c r="G21" s="207">
+        <v>0.78</v>
+      </c>
+      <c r="H21" s="175">
+        <v>0.78</v>
+      </c>
+      <c r="I21" s="175">
+        <v>0.78</v>
+      </c>
+      <c r="J21" s="207">
+        <v>0.78</v>
+      </c>
+      <c r="K21" s="207">
+        <v>0.78</v>
+      </c>
+      <c r="L21" s="183" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="18" thickBot="1">
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="D24" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="156"/>
+      <c r="F24" s="10">
+        <v>30</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="D25" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="2">
+        <f>300/F24</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="18" thickBot="1">
+      <c r="D26" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="208"/>
+      <c r="F26" s="8">
+        <f>F25/10</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="183" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" ht="18" thickBot="1">
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="D30" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="196" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="197">
+        <v>25</v>
+      </c>
+      <c r="N30" s="190" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" s="198"/>
+      <c r="P30" s="190" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="192"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="D31" s="214"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="241">
+        <v>1</v>
+      </c>
+      <c r="N31" s="209" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="246">
+        <v>1</v>
+      </c>
+      <c r="P31" s="209" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" s="240">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="3:18" ht="18" thickBot="1">
+      <c r="D32" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="199" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="193" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="193" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="199" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32" s="193" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q32" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32" s="195" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18">
+      <c r="D33" s="219">
+        <v>50</v>
+      </c>
+      <c r="E33" s="220">
+        <f>(D33*50)^0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F33" s="220">
+        <f>E33/0.707*2</f>
+        <v>141.44271570014146</v>
+      </c>
+      <c r="G33" s="220">
+        <f>D33/E33</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="221">
+        <f>G33/0.707*2</f>
+        <v>2.8288543140028288</v>
+      </c>
+      <c r="I33" s="251">
+        <f>E33/M$30</f>
+        <v>2</v>
+      </c>
+      <c r="J33" s="220">
+        <f>I33/0.707*2</f>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="K33" s="220">
+        <f>I33*I33/50</f>
+        <v>0.08</v>
+      </c>
+      <c r="L33" s="222">
+        <f>K33/I33</f>
+        <v>0.04</v>
+      </c>
+      <c r="M33" s="221">
+        <f>L33/0.707*2</f>
+        <v>0.11315417256011316</v>
+      </c>
+      <c r="N33" s="242">
+        <f>I33*O$31/(O$31+Q$31)</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="247">
+        <f>N33*N33/(O$31*1000)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P33" s="251">
+        <f>I33*Q$31/(O$31+Q$31)</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="223">
+        <f>P33*P33/(Q$31*1000)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R33" s="221">
+        <f>P33/0.707*2</f>
+        <v>2.8288543140028288</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34" s="225">
+        <v>100</v>
+      </c>
+      <c r="E34" s="226">
+        <f t="shared" ref="E34:E35" si="7">(D34*50)^0.5</f>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="F34" s="226">
+        <f>E34/0.707*2</f>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G34" s="226">
+        <f t="shared" ref="G34:G35" si="8">D34/E34</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="H34" s="227">
+        <f t="shared" ref="H34:H39" si="9">G34/0.707*2</f>
+        <v>4.0006041368404386</v>
+      </c>
+      <c r="I34" s="242">
+        <f t="shared" ref="I34:I39" si="10">E34/M$30</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J34" s="239">
+        <f t="shared" ref="J34:J39" si="11">I34/0.707*2</f>
+        <v>8.0012082736808789</v>
+      </c>
+      <c r="K34" s="226">
+        <f t="shared" ref="K34:K35" si="12">I34*I34/50</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="L34" s="228">
+        <f t="shared" ref="L34:L35" si="13">K34/I34</f>
+        <v>5.656854249492381E-2</v>
+      </c>
+      <c r="M34" s="227">
+        <f>L34/0.707*2</f>
+        <v>0.16002416547361759</v>
+      </c>
+      <c r="N34" s="243">
+        <f>I34*O$31/(O$31+Q$31)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O34" s="248">
+        <f>N34*N34/(O$31*1000)</f>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="P34" s="243">
+        <f>I34*Q$31/(O$31+Q$31)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q34" s="229">
+        <f>P34*P34/(Q$31*1000)</f>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="R34" s="227">
+        <f t="shared" ref="R34:R39" si="14">P34/0.707*2</f>
+        <v>4.0006041368404395</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18">
+      <c r="D35" s="225">
+        <v>150</v>
+      </c>
+      <c r="E35" s="226">
+        <f t="shared" si="7"/>
+        <v>86.602540378443862</v>
+      </c>
+      <c r="F35" s="226">
+        <f>E35/0.707*2</f>
+        <v>244.98596995316512</v>
+      </c>
+      <c r="G35" s="226">
+        <f t="shared" si="8"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="H35" s="227">
+        <f t="shared" si="9"/>
+        <v>4.8997193990633026</v>
+      </c>
+      <c r="I35" s="242">
+        <f t="shared" si="10"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="J35" s="239">
+        <f t="shared" si="11"/>
+        <v>9.7994387981266033</v>
+      </c>
+      <c r="K35" s="226">
+        <f t="shared" si="12"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="L35" s="228">
+        <f t="shared" si="13"/>
+        <v>6.9282032302755078E-2</v>
+      </c>
+      <c r="M35" s="227">
+        <f t="shared" ref="M35:M39" si="15">L35/0.707*2</f>
+        <v>0.19598877596253206</v>
+      </c>
+      <c r="N35" s="243">
+        <f>I35*O$31/(O$31+Q$31)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O35" s="248">
+        <f>N35*N35/(O$31*1000)</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="P35" s="243">
+        <f>I35*Q$31/(O$31+Q$31)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="Q35" s="229">
+        <f>P35*P35/(Q$31*1000)</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="R35" s="227">
+        <f t="shared" si="14"/>
+        <v>4.8997193990633017</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18">
+      <c r="D36" s="225">
+        <v>200</v>
+      </c>
+      <c r="E36" s="226">
+        <f t="shared" ref="E36" si="16">(D36*50)^0.5</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="226">
+        <f>E36/0.707*2</f>
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G36" s="226">
+        <f t="shared" ref="G36" si="17">D36/E36</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="227">
+        <f t="shared" si="9"/>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="I36" s="242">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="239">
+        <f t="shared" si="11"/>
+        <v>11.315417256011315</v>
+      </c>
+      <c r="K36" s="226">
+        <f t="shared" ref="K36" si="18">I36*I36/50</f>
+        <v>0.32</v>
+      </c>
+      <c r="L36" s="228">
+        <f t="shared" ref="L36" si="19">K36/I36</f>
+        <v>0.08</v>
+      </c>
+      <c r="M36" s="227">
+        <f t="shared" si="15"/>
+        <v>0.22630834512022632</v>
+      </c>
+      <c r="N36" s="243">
+        <f>I36*O$31/(O$31+Q$31)</f>
+        <v>2</v>
+      </c>
+      <c r="O36" s="248">
+        <f>N36*N36/(O$31*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P36" s="243">
+        <f>I36*Q$31/(O$31+Q$31)</f>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="229">
+        <f>P36*P36/(Q$31*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R36" s="227">
+        <f t="shared" si="14"/>
+        <v>5.6577086280056577</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18">
+      <c r="D37" s="225">
+        <v>250</v>
+      </c>
+      <c r="E37" s="226">
+        <f t="shared" ref="E37" si="20">(D37*50)^0.5</f>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="F37" s="226">
+        <f>E37/0.707*2</f>
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G37" s="226">
+        <f t="shared" ref="G37" si="21">D37/E37</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H37" s="227">
+        <f t="shared" si="9"/>
+        <v>6.3255105445538611</v>
+      </c>
+      <c r="I37" s="242">
+        <f t="shared" si="10"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="J37" s="239">
+        <f t="shared" si="11"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="K37" s="226">
+        <f t="shared" ref="K37" si="22">I37*I37/50</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="L37" s="228">
+        <f t="shared" ref="L37" si="23">K37/I37</f>
+        <v>8.9442719099991602E-2</v>
+      </c>
+      <c r="M37" s="227">
+        <f t="shared" si="15"/>
+        <v>0.25302042178215445</v>
+      </c>
+      <c r="N37" s="243">
+        <f>I37*O$31/(O$31+Q$31)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O37" s="248">
+        <f>N37*N37/(O$31*1000)</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P37" s="243">
+        <f>I37*Q$31/(O$31+Q$31)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q37" s="229">
+        <f>P37*P37/(Q$31*1000)</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R37" s="227">
+        <f t="shared" si="14"/>
+        <v>6.3255105445538611</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18">
+      <c r="D38" s="225">
+        <v>300</v>
+      </c>
+      <c r="E38" s="226">
+        <f t="shared" ref="E38:E39" si="24">(D38*50)^0.5</f>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F38" s="226">
+        <f>E38/0.707*2</f>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G38" s="226">
+        <f t="shared" ref="G38:G39" si="25">D38/E38</f>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H38" s="227">
+        <f t="shared" si="9"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I38" s="242">
+        <f t="shared" si="10"/>
+        <v>4.8989794855663567</v>
+      </c>
+      <c r="J38" s="239">
+        <f t="shared" si="11"/>
+        <v>13.858499251955749</v>
+      </c>
+      <c r="K38" s="226">
+        <f t="shared" ref="K38:K39" si="26">I38*I38/50</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="L38" s="228">
+        <f t="shared" ref="L38:L39" si="27">K38/I38</f>
+        <v>9.7979589711327128E-2</v>
+      </c>
+      <c r="M38" s="227">
+        <f t="shared" si="15"/>
+        <v>0.27716998503911494</v>
+      </c>
+      <c r="N38" s="243">
+        <f>I38*O$31/(O$31+Q$31)</f>
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="O38" s="248">
+        <f>N38*N38/(O$31*1000)</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="P38" s="243">
+        <f>I38*Q$31/(O$31+Q$31)</f>
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="Q38" s="229">
+        <f>P38*P38/(Q$31*1000)</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="R38" s="227">
+        <f t="shared" si="14"/>
+        <v>6.9292496259778744</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" ht="18" thickBot="1">
+      <c r="D39" s="231">
+        <v>350</v>
+      </c>
+      <c r="E39" s="232">
+        <f t="shared" si="24"/>
+        <v>132.28756555322954</v>
+      </c>
+      <c r="F39" s="232">
+        <f>E39/0.707*2</f>
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G39" s="232">
+        <f t="shared" si="25"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="H39" s="233">
+        <f t="shared" si="9"/>
+        <v>7.4844450100837072</v>
+      </c>
+      <c r="I39" s="252">
+        <f t="shared" si="10"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="J39" s="245">
+        <f t="shared" si="11"/>
+        <v>14.968890020167416</v>
+      </c>
+      <c r="K39" s="232">
+        <f t="shared" si="26"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L39" s="234">
+        <f t="shared" si="27"/>
+        <v>0.10583005244258363</v>
+      </c>
+      <c r="M39" s="233">
+        <f t="shared" si="15"/>
+        <v>0.29937780040334833</v>
+      </c>
+      <c r="N39" s="244">
+        <f>I39*O$31/(O$31+Q$31)</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="O39" s="249">
+        <f>N39*N39/(O$31*1000)</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="P39" s="244">
+        <f>I39*Q$31/(O$31+Q$31)</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="Q39" s="235">
+        <f>P39*P39/(Q$31*1000)</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="R39" s="233">
+        <f t="shared" si="14"/>
+        <v>7.4844450100837081</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18">
+      <c r="D40" s="257"/>
+      <c r="E40" s="258"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="258"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="258"/>
+      <c r="K40" s="258"/>
+      <c r="L40" s="259"/>
+      <c r="M40" s="258"/>
+      <c r="N40" s="259"/>
+      <c r="O40" s="260"/>
+      <c r="P40" s="259"/>
+      <c r="Q40" s="260"/>
+      <c r="R40" s="258"/>
+    </row>
+    <row r="41" spans="4:18" ht="18" thickBot="1">
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18">
+      <c r="D42" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="213"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="215" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="213"/>
+      <c r="K42" s="213"/>
+      <c r="L42" s="196" t="s">
+        <v>187</v>
+      </c>
+      <c r="M42" s="197">
+        <v>1</v>
+      </c>
+      <c r="N42" s="190" t="s">
+        <v>183</v>
+      </c>
+      <c r="O42" s="198"/>
+      <c r="P42" s="190" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="191"/>
+      <c r="R42" s="192"/>
+    </row>
+    <row r="43" spans="4:18">
+      <c r="D43" s="214"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="218"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="M43" s="241">
+        <v>25</v>
+      </c>
+      <c r="N43" s="209" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="246">
+        <v>1</v>
+      </c>
+      <c r="P43" s="209" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q43" s="240">
+        <v>1</v>
+      </c>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="4:18" ht="18" thickBot="1">
+      <c r="D44" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="250" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="O44" s="256" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q44" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44" s="202" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18">
+      <c r="D45" s="219">
+        <v>50</v>
+      </c>
+      <c r="E45" s="220">
+        <f>(D45*50)^0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F45" s="220">
+        <f>E45/0.707*2</f>
+        <v>141.44271570014146</v>
+      </c>
+      <c r="G45" s="220">
+        <f>D45/E45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="253">
+        <f>G45/0.707*2</f>
+        <v>2.8288543140028288</v>
+      </c>
+      <c r="I45" s="251">
+        <f>G45/M$43</f>
+        <v>0.04</v>
+      </c>
+      <c r="J45" s="220">
+        <f>I45/0.707*2</f>
+        <v>0.11315417256011316</v>
+      </c>
+      <c r="K45" s="222">
+        <f>I45*50</f>
+        <v>2</v>
+      </c>
+      <c r="L45" s="220">
+        <f>K45/0.707*2</f>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="M45" s="221">
+        <f>I45*K45</f>
+        <v>0.08</v>
+      </c>
+      <c r="N45" s="251">
+        <f>K45*O$31/(O$31+Q$31)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="224">
+        <f>N45*N45/(O$31*1000)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P45" s="251">
+        <f>K45*Q$31/(O$31+Q$31)</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="223">
+        <f>P45*P45/(Q$31*1000)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R45" s="221">
+        <f>P45/0.707*2</f>
+        <v>2.8288543140028288</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18">
+      <c r="D46" s="225">
+        <v>100</v>
+      </c>
+      <c r="E46" s="226">
+        <f t="shared" ref="E46:E51" si="28">(D46*50)^0.5</f>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="F46" s="226">
+        <f>E46/0.707*2</f>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G46" s="226">
+        <f t="shared" ref="G46:G51" si="29">D46/E46</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="H46" s="254">
+        <f t="shared" ref="H46:H51" si="30">G46/0.707*2</f>
+        <v>4.0006041368404386</v>
+      </c>
+      <c r="I46" s="243">
+        <f t="shared" ref="I46:I51" si="31">G46/M$43</f>
+        <v>5.6568542494923796E-2</v>
+      </c>
+      <c r="J46" s="226">
+        <f t="shared" ref="J46:J51" si="32">I46/0.707*2</f>
+        <v>0.16002416547361753</v>
+      </c>
+      <c r="K46" s="228">
+        <f t="shared" ref="K46:K51" si="33">I46*50</f>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="L46" s="226">
+        <f t="shared" ref="L46:L51" si="34">K46/0.707*2</f>
+        <v>8.0012082736808772</v>
+      </c>
+      <c r="M46" s="227">
+        <f t="shared" ref="M46:M51" si="35">I46*K46</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="N46" s="243">
+        <f t="shared" ref="N46:N51" si="36">K46*O$31/(O$31+Q$31)</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="O46" s="230">
+        <f>N46*N46/(O$31*1000)</f>
+        <v>1.9999999999999996E-3</v>
+      </c>
+      <c r="P46" s="243">
+        <f t="shared" ref="P46:P51" si="37">K46*Q$31/(O$31+Q$31)</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="Q46" s="229">
+        <f>P46*P46/(Q$31*1000)</f>
+        <v>1.9999999999999996E-3</v>
+      </c>
+      <c r="R46" s="227">
+        <f t="shared" ref="R46:R51" si="38">P46/0.707*2</f>
+        <v>4.0006041368404386</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18">
+      <c r="D47" s="225">
+        <v>150</v>
+      </c>
+      <c r="E47" s="226">
+        <f t="shared" si="28"/>
+        <v>86.602540378443862</v>
+      </c>
+      <c r="F47" s="226">
+        <f>E47/0.707*2</f>
+        <v>244.98596995316512</v>
+      </c>
+      <c r="G47" s="226">
+        <f t="shared" si="29"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="H47" s="254">
+        <f t="shared" si="30"/>
+        <v>4.8997193990633026</v>
+      </c>
+      <c r="I47" s="243">
+        <f t="shared" si="31"/>
+        <v>6.9282032302755092E-2</v>
+      </c>
+      <c r="J47" s="226">
+        <f t="shared" si="32"/>
+        <v>0.19598877596253209</v>
+      </c>
+      <c r="K47" s="228">
+        <f t="shared" si="33"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="L47" s="226">
+        <f t="shared" si="34"/>
+        <v>9.7994387981266033</v>
+      </c>
+      <c r="M47" s="227">
+        <f t="shared" si="35"/>
+        <v>0.24</v>
+      </c>
+      <c r="N47" s="243">
+        <f t="shared" si="36"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O47" s="230">
+        <f>N47*N47/(O$31*1000)</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="P47" s="243">
+        <f t="shared" si="37"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="Q47" s="229">
+        <f>P47*P47/(Q$31*1000)</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="R47" s="227">
+        <f t="shared" si="38"/>
+        <v>4.8997193990633017</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="D48" s="225">
+        <v>200</v>
+      </c>
+      <c r="E48" s="226">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="F48" s="226">
+        <f>E48/0.707*2</f>
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G48" s="226">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="H48" s="254">
+        <f t="shared" si="30"/>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="I48" s="243">
+        <f t="shared" si="31"/>
+        <v>0.08</v>
+      </c>
+      <c r="J48" s="226">
+        <f t="shared" si="32"/>
+        <v>0.22630834512022632</v>
+      </c>
+      <c r="K48" s="228">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="L48" s="226">
+        <f t="shared" si="34"/>
+        <v>11.315417256011315</v>
+      </c>
+      <c r="M48" s="227">
+        <f t="shared" si="35"/>
+        <v>0.32</v>
+      </c>
+      <c r="N48" s="243">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="O48" s="230">
+        <f>N48*N48/(O$31*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P48" s="243">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="Q48" s="229">
+        <f>P48*P48/(Q$31*1000)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R48" s="227">
+        <f t="shared" si="38"/>
+        <v>5.6577086280056577</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18">
+      <c r="D49" s="225">
+        <v>250</v>
+      </c>
+      <c r="E49" s="226">
+        <f t="shared" si="28"/>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="F49" s="226">
+        <f>E49/0.707*2</f>
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G49" s="226">
+        <f t="shared" si="29"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H49" s="254">
+        <f t="shared" si="30"/>
+        <v>6.3255105445538611</v>
+      </c>
+      <c r="I49" s="243">
+        <f t="shared" si="31"/>
+        <v>8.9442719099991588E-2</v>
+      </c>
+      <c r="J49" s="226">
+        <f t="shared" si="32"/>
+        <v>0.25302042178215445</v>
+      </c>
+      <c r="K49" s="228">
+        <f t="shared" si="33"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="L49" s="226">
+        <f t="shared" si="34"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="M49" s="227">
+        <f t="shared" si="35"/>
+        <v>0.4</v>
+      </c>
+      <c r="N49" s="243">
+        <f t="shared" si="36"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O49" s="230">
+        <f>N49*N49/(O$31*1000)</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P49" s="243">
+        <f t="shared" si="37"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q49" s="229">
+        <f>P49*P49/(Q$31*1000)</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R49" s="227">
+        <f t="shared" si="38"/>
+        <v>6.3255105445538611</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18">
+      <c r="D50" s="225">
+        <v>300</v>
+      </c>
+      <c r="E50" s="226">
+        <f t="shared" si="28"/>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F50" s="226">
+        <f>E50/0.707*2</f>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G50" s="226">
+        <f t="shared" si="29"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H50" s="254">
+        <f t="shared" si="30"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I50" s="243">
+        <f t="shared" si="31"/>
+        <v>9.7979589711327114E-2</v>
+      </c>
+      <c r="J50" s="226">
+        <f t="shared" si="32"/>
+        <v>0.27716998503911489</v>
+      </c>
+      <c r="K50" s="228">
+        <f t="shared" si="33"/>
+        <v>4.8989794855663558</v>
+      </c>
+      <c r="L50" s="226">
+        <f t="shared" si="34"/>
+        <v>13.858499251955745</v>
+      </c>
+      <c r="M50" s="227">
+        <f t="shared" si="35"/>
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="N50" s="243">
+        <f t="shared" si="36"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="O50" s="230">
+        <f>N50*N50/(O$31*1000)</f>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="P50" s="243">
+        <f t="shared" si="37"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="Q50" s="229">
+        <f>P50*P50/(Q$31*1000)</f>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="R50" s="227">
+        <f t="shared" si="38"/>
+        <v>6.9292496259778726</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" ht="18" thickBot="1">
+      <c r="D51" s="231">
+        <v>350</v>
+      </c>
+      <c r="E51" s="232">
+        <f t="shared" si="28"/>
+        <v>132.28756555322954</v>
+      </c>
+      <c r="F51" s="232">
+        <f>E51/0.707*2</f>
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G51" s="232">
+        <f t="shared" si="29"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="H51" s="255">
+        <f t="shared" si="30"/>
+        <v>7.4844450100837072</v>
+      </c>
+      <c r="I51" s="244">
+        <f t="shared" si="31"/>
+        <v>0.10583005244258362</v>
+      </c>
+      <c r="J51" s="232">
+        <f t="shared" si="32"/>
+        <v>0.29937780040334827</v>
+      </c>
+      <c r="K51" s="234">
+        <f t="shared" si="33"/>
+        <v>5.2915026221291805</v>
+      </c>
+      <c r="L51" s="232">
+        <f t="shared" si="34"/>
+        <v>14.968890020167414</v>
+      </c>
+      <c r="M51" s="233">
+        <f t="shared" si="35"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="N51" s="244">
+        <f t="shared" si="36"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="O51" s="236">
+        <f>N51*N51/(O$31*1000)</f>
+        <v>6.9999999999999984E-3</v>
+      </c>
+      <c r="P51" s="244">
+        <f t="shared" si="37"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="Q51" s="235">
+        <f>P51*P51/(Q$31*1000)</f>
+        <v>6.9999999999999984E-3</v>
+      </c>
+      <c r="R51" s="233">
+        <f t="shared" si="38"/>
+        <v>7.4844450100837072</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" ht="18" thickBot="1">
+      <c r="D53" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18">
+      <c r="D54" s="265" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H54" s="262" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18">
+      <c r="D55" s="266" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="4">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <v>47</v>
+      </c>
+      <c r="G55" s="5">
+        <v>100</v>
+      </c>
+      <c r="H55" s="263" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18">
+      <c r="D56" s="266" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="4">
+        <f>(1/(2*3.14*E54*1000*E55*10^(-12)))/1000</f>
+        <v>1592.3566878980891</v>
+      </c>
+      <c r="F56" s="2">
+        <f>(1/(2*3.14*F54*1000*F55*10^(-12)))/1000</f>
+        <v>3387.9929529746578</v>
+      </c>
+      <c r="G56" s="5">
+        <f>(1/(2*3.14*G54*1000*G55*10^(-12)))/1000</f>
+        <v>2843.4940855323021</v>
+      </c>
+      <c r="H56" s="263" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="4:18" ht="18" thickBot="1">
+      <c r="D57" s="267" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="7">
+        <f>1/(2*3.14*E56)*1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="8">
+        <f>1/(2*3.14*F56)*1000</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G57" s="9">
+        <f>1/(2*3.14*G56)*1000</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="H57" s="264" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" ht="18" thickBot="1">
+      <c r="D59" s="261" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18">
+      <c r="D60" s="265" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20</v>
+      </c>
+      <c r="F60" s="10">
+        <v>68</v>
+      </c>
+      <c r="G60" s="10">
+        <v>100</v>
+      </c>
+      <c r="H60" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I60" s="262" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18">
+      <c r="D61" s="266" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="4">
+        <v>27120</v>
+      </c>
+      <c r="F61" s="2">
+        <v>13560</v>
+      </c>
+      <c r="G61" s="2">
+        <v>13560</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I61" s="263" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" ht="18" thickBot="1">
+      <c r="D62" s="268" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="7">
+        <f>(1/(2*3.14*E61*1000*E60*10^(-12)))</f>
+        <v>293.57608552693381</v>
+      </c>
+      <c r="F62" s="8">
+        <f>(1/(2*3.14*F61*1000*F60*10^(-12)))</f>
+        <v>172.69181501584345</v>
+      </c>
+      <c r="G62" s="8">
+        <f>(1/(2*3.14*G61*1000*G60*10^(-12)))</f>
+        <v>117.43043421077354</v>
+      </c>
+      <c r="H62" s="9">
+        <f>(1/(2*3.14*H61*1000*H60*10^(-12)))</f>
+        <v>1990.4458598726112</v>
+      </c>
+      <c r="I62" s="264" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D30:H31"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G8:G12" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="2" spans="2:8" ht="18" thickBot="1"/>
+    <row r="3" spans="2:8" ht="18" thickBot="1">
       <c r="B3" s="52" t="s">
         <v>84</v>
       </c>
@@ -2985,7 +5691,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" thickBot="1">
+    <row r="8" spans="2:8" ht="18" thickBot="1">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -3015,68 +5721,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
     <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:35" ht="17.25" thickBot="1">
+    <row r="2" spans="2:35" ht="18" thickBot="1"/>
+    <row r="3" spans="2:35" ht="18" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="149" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="149"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="150"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="153"/>
       <c r="Z3" s="76" t="s">
         <v>57</v>
       </c>
@@ -3085,16 +5791,16 @@
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="143" t="s">
+      <c r="K4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="144"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
       <c r="O4" s="54"/>
@@ -3104,12 +5810,12 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="147" t="s">
+      <c r="V4" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="151"/>
       <c r="Z4" s="72"/>
       <c r="AC4" t="s">
         <v>101</v>
@@ -3118,7 +5824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="17.25" thickBot="1">
+    <row r="5" spans="2:35" ht="18" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="57" t="s">
         <v>12</v>
@@ -3220,7 +5926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="17.25" thickBot="1">
+    <row r="6" spans="2:35" ht="18" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>80</v>
       </c>
@@ -3709,7 +6415,7 @@
       <c r="AA14" s="90"/>
       <c r="AI14" s="93"/>
     </row>
-    <row r="15" spans="2:35" ht="17.25" thickBot="1">
+    <row r="15" spans="2:35" ht="18" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="60"/>
       <c r="D15" s="7"/>
@@ -3782,21 +6488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1">
+    <row r="2" spans="2:13" ht="18" thickBot="1">
       <c r="C2" t="s">
         <v>119</v>
       </c>
@@ -3812,22 +6518,22 @@
         <v>117</v>
       </c>
       <c r="E3" s="114"/>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153" t="s">
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="151" t="s">
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="154" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="B4" s="107" t="s">
         <v>118</v>
       </c>
@@ -3861,7 +6567,7 @@
       <c r="L4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="152"/>
+      <c r="M4" s="155"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="115">
@@ -3873,7 +6579,7 @@
       <c r="D5" s="54">
         <v>2.04</v>
       </c>
-      <c r="E5" s="156">
+      <c r="E5" s="159">
         <v>3</v>
       </c>
       <c r="F5" s="54">
@@ -3908,7 +6614,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="154"/>
+      <c r="E6" s="157"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -3941,7 +6647,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="154"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -3974,7 +6680,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="154"/>
+      <c r="E8" s="157"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -4007,7 +6713,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="154">
+      <c r="E9" s="157">
         <v>3.5</v>
       </c>
       <c r="F9" s="104">
@@ -4042,7 +6748,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="154"/>
+      <c r="E10" s="157"/>
       <c r="F10" s="104">
         <v>32</v>
       </c>
@@ -4075,7 +6781,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="154">
+      <c r="E11" s="157">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -4110,7 +6816,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="154"/>
+      <c r="E12" s="157"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -4139,11 +6845,11 @@
         <v>23.143750000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="17.25" thickBot="1">
+    <row r="13" spans="2:13" ht="18" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="155"/>
+      <c r="E13" s="158"/>
       <c r="F13" s="110">
         <v>40</v>
       </c>
@@ -4188,84 +6894,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.8984375" customWidth="1"/>
+    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:27" ht="18" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153" t="s">
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="160" t="s">
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="153" t="s">
+      <c r="V4" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153" t="s">
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="157"/>
-    </row>
-    <row r="5" spans="2:27" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B5" s="159"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="160"/>
+    </row>
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="162"/>
       <c r="C5" s="24" t="s">
         <v>127</v>
       </c>
@@ -4318,7 +7024,7 @@
       <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="161"/>
+      <c r="U5" s="164"/>
       <c r="V5" s="119" t="s">
         <v>145</v>
       </c>
@@ -4338,7 +7044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="17.25" thickBot="1">
+    <row r="6" spans="2:27" ht="18" thickBot="1">
       <c r="B6" s="3">
         <v>0.8</v>
       </c>
@@ -4411,7 +7117,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="17.25" thickBot="1">
+    <row r="7" spans="2:27" ht="18" thickBot="1">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4467,7 +7173,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="17.25" thickBot="1">
+    <row r="8" spans="2:27" ht="18" thickBot="1">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4699,7 +7405,7 @@
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="17.25" thickBot="1">
+    <row r="12" spans="2:27" ht="18" thickBot="1">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5019,7 +7725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="17.25" thickBot="1">
+    <row r="18" spans="2:27" ht="18" thickBot="1">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5074,16 +7780,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -5283,8 +7989,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="11" spans="2:11" ht="17.25" thickBot="1">
+    <row r="10" spans="2:11" ht="18" thickBot="1"/>
+    <row r="11" spans="2:11" ht="18" thickBot="1">
       <c r="B11" s="131" t="s">
         <v>55</v>
       </c>
@@ -5503,23 +8209,23 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="154" t="s">
+      <c r="D19" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="154"/>
+      <c r="E19" s="157"/>
       <c r="F19" s="138">
         <v>5</v>
       </c>
       <c r="G19" s="138">
         <v>0.5</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="157">
         <v>1.6</v>
       </c>
       <c r="I19" s="2">
@@ -5531,17 +8237,17 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="162"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
       <c r="F20" s="138">
         <v>6</v>
       </c>
       <c r="G20" s="138">
         <v>0.6</v>
       </c>
-      <c r="H20" s="154"/>
+      <c r="H20" s="157"/>
       <c r="I20" s="2">
         <v>13.56</v>
       </c>
@@ -5551,32 +8257,32 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="162"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
       <c r="F21" s="138">
         <v>8</v>
       </c>
       <c r="G21" s="138">
         <v>1</v>
       </c>
-      <c r="H21" s="154"/>
+      <c r="H21" s="157"/>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B22" s="163"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
+    <row r="22" spans="2:10" ht="18" thickBot="1">
+      <c r="B22" s="166"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
       <c r="F22" s="139">
         <v>10</v>
       </c>
       <c r="G22" s="139">
         <v>1.4</v>
       </c>
-      <c r="H22" s="155"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
@@ -5594,18 +8300,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C4:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
@@ -5699,17 +8405,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="167" t="s">
         <v>120</v>
       </c>
       <c r="C4">
@@ -5720,7 +8426,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5">
         <v>48</v>
       </c>
@@ -5729,7 +8435,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6">
         <f>C4/C5</f>
         <v>12.5</v>
@@ -5754,79 +8460,79 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:26" ht="18" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153" t="s">
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="160" t="s">
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="153" t="s">
+      <c r="U4" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153" t="s">
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="157"/>
-    </row>
-    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="160"/>
+    </row>
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="18" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5879,7 +8585,7 @@
       <c r="S5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="161"/>
+      <c r="T5" s="164"/>
       <c r="U5" s="119" t="s">
         <v>97</v>
       </c>
@@ -5899,7 +8605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="17.25" thickBot="1">
+    <row r="6" spans="2:26" ht="18" thickBot="1">
       <c r="B6" s="10">
         <v>0.6</v>
       </c>
@@ -5954,7 +8660,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="17.25" thickBot="1">
+    <row r="7" spans="2:26" ht="18" thickBot="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -6003,7 +8709,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="17.25" thickBot="1">
+    <row r="8" spans="2:26" ht="18" thickBot="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -6191,7 +8897,7 @@
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="17.25" thickBot="1">
+    <row r="12" spans="2:26" ht="18" thickBot="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6470,7 +9176,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="17.25" thickBot="1">
+    <row r="18" spans="2:26" ht="18" thickBot="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188336B-C1FF-4A0A-B983-37A601B79990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB054629-E970-423D-8B81-CAAD128820DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,10 @@
     <sheet name="FAN" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Test sheet (2)" sheetId="10" r:id="rId9"/>
-    <sheet name="Coupler" sheetId="11" r:id="rId10"/>
+    <sheet name="0229" sheetId="13" r:id="rId10"/>
+    <sheet name="0229 (2)" sheetId="14" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
+    <sheet name="Coupler" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="209">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,6 +918,18 @@
     <t>Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4,L5 0 Ohm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS 48V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -922,7 +937,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1683,7 +1698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1929,82 +1944,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2014,21 +1954,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2038,7 +1969,13 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,24 +1984,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2075,12 +1994,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,57 +2007,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,9 +2038,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,7 +2055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2189,6 +2072,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2870,14 +2897,14 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="143" t="s">
+      <c r="L4" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143" t="s">
+      <c r="M4" s="225"/>
+      <c r="N4" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="143"/>
+      <c r="O4" s="225"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
@@ -3449,10 +3476,10 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="18" thickBot="1">
-      <c r="N21" s="144" t="s">
+      <c r="N21" s="226" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="145"/>
+      <c r="O21" s="227"/>
     </row>
     <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
       <c r="C22" s="47" t="s">
@@ -3744,10 +3771,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE4969-2496-4FE1-B52C-5A5E2868470A}">
+  <dimension ref="B3:Z18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:26" ht="18" thickBot="1"/>
+    <row r="4" spans="2:26" s="15" customFormat="1">
+      <c r="B4" s="238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="245" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="238" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="238"/>
+      <c r="W4" s="238"/>
+      <c r="X4" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="238"/>
+      <c r="Z4" s="242"/>
+    </row>
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="174" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="174" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="174" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="S5" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="246"/>
+      <c r="U5" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" s="121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="18" thickBot="1">
+      <c r="B6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.52</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
+        <f>D6</f>
+        <v>2.52</v>
+      </c>
+      <c r="G6" s="10">
+        <v>680</v>
+      </c>
+      <c r="H6" s="10">
+        <v>100</v>
+      </c>
+      <c r="I6" s="50">
+        <f>1+G6/H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="J6" s="50">
+        <f>F6*I6</f>
+        <v>19.655999999999999</v>
+      </c>
+      <c r="K6" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>50</v>
+      </c>
+      <c r="U6" s="10">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="V6" s="10">
+        <v>26.8</v>
+      </c>
+      <c r="W6" s="122">
+        <f>V6*V6/T6</f>
+        <v>14.364800000000001</v>
+      </c>
+      <c r="X6" s="10">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="123">
+        <f>X6*Y6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="18" thickBot="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="37" t="e">
+        <f t="shared" ref="I7:I18" si="0">1+G7/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="50" t="e">
+        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2">
+        <v>76</v>
+      </c>
+      <c r="V7" s="2">
+        <v>26</v>
+      </c>
+      <c r="W7" s="36">
+        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
+        <v>13.52</v>
+      </c>
+      <c r="X7" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Z7" s="124">
+        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="18" thickBot="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="117" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="130" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
+        <v>50</v>
+      </c>
+      <c r="U8" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="V8" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="W8" s="125">
+        <f t="shared" si="2"/>
+        <v>9.1591999999999985</v>
+      </c>
+      <c r="X8" s="8">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="126">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10">
+        <v>50</v>
+      </c>
+      <c r="U9" s="10">
+        <v>87</v>
+      </c>
+      <c r="V9" s="10">
+        <v>29.8</v>
+      </c>
+      <c r="W9" s="122">
+        <f t="shared" si="2"/>
+        <v>17.760800000000003</v>
+      </c>
+      <c r="X9" s="10">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="Z9" s="123">
+        <f t="shared" si="3"/>
+        <v>156.79999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>50</v>
+      </c>
+      <c r="U10" s="2">
+        <v>94.4</v>
+      </c>
+      <c r="V10" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="W10" s="36">
+        <f t="shared" si="2"/>
+        <v>20.736800000000002</v>
+      </c>
+      <c r="X10" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z10" s="124">
+        <f t="shared" si="3"/>
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <v>50</v>
+      </c>
+      <c r="U11" s="2">
+        <v>100</v>
+      </c>
+      <c r="V11" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="W11" s="36">
+        <f t="shared" si="2"/>
+        <v>23.667199999999998</v>
+      </c>
+      <c r="X11" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="124">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="18" thickBot="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="117" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="117"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8">
+        <v>120</v>
+      </c>
+      <c r="T12" s="8">
+        <v>50</v>
+      </c>
+      <c r="U12" s="8">
+        <v>106</v>
+      </c>
+      <c r="V12" s="8">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W12" s="125">
+        <f t="shared" si="2"/>
+        <v>26.353799999999996</v>
+      </c>
+      <c r="X12" s="8">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="126">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="127" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="127" t="e">
+        <f t="shared" ref="J13" si="4">F13*I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54">
+        <v>0</v>
+      </c>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54">
+        <v>50</v>
+      </c>
+      <c r="U13" s="54">
+        <v>126</v>
+      </c>
+      <c r="V13" s="54">
+        <v>43.8</v>
+      </c>
+      <c r="W13" s="128">
+        <f t="shared" si="2"/>
+        <v>38.368799999999993</v>
+      </c>
+      <c r="X13" s="54">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="54">
+        <v>4.3</v>
+      </c>
+      <c r="Z13" s="129">
+        <f t="shared" si="3"/>
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
+      <c r="U14" s="2">
+        <v>134</v>
+      </c>
+      <c r="V14" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="W14" s="36">
+        <f t="shared" si="2"/>
+        <v>43.059200000000004</v>
+      </c>
+      <c r="X14" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="Z14" s="124">
+        <f t="shared" si="3"/>
+        <v>249.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="18" thickBot="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
+      <c r="U15" s="2">
+        <v>222</v>
+      </c>
+      <c r="V15" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" s="36">
+        <f t="shared" si="2"/>
+        <v>115.52</v>
+      </c>
+      <c r="X15" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="124">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="B16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>680</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2">
+        <v>154</v>
+      </c>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2">
+        <v>170</v>
+      </c>
+      <c r="V16" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="W16" s="36">
+        <f t="shared" si="2"/>
+        <v>66.816800000000001</v>
+      </c>
+      <c r="X16" s="2">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="Z16" s="124">
+        <f t="shared" si="3"/>
+        <v>151.20000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2">
+        <v>168</v>
+      </c>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2">
+        <v>186</v>
+      </c>
+      <c r="V17" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="W17" s="36">
+        <f t="shared" si="2"/>
+        <v>81.408799999999985</v>
+      </c>
+      <c r="X17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z17" s="124">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="18" thickBot="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="117" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
+        <v>50</v>
+      </c>
+      <c r="U18" s="8">
+        <v>208</v>
+      </c>
+      <c r="V18" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="W18" s="125">
+        <f t="shared" si="2"/>
+        <v>99.687199999999976</v>
+      </c>
+      <c r="X18" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9FA989-CEE6-41FF-8605-D6D59DBD9329}">
+  <dimension ref="B3:AD18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:30" ht="18" thickBot="1"/>
+    <row r="4" spans="2:30" s="15" customFormat="1">
+      <c r="B4" s="264" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="245" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="238" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="238"/>
+      <c r="W4" s="238"/>
+      <c r="X4" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="238"/>
+      <c r="Z4" s="238"/>
+      <c r="AA4" s="238" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB4" s="238"/>
+      <c r="AC4" s="238"/>
+      <c r="AD4" s="242"/>
+    </row>
+    <row r="5" spans="2:30" s="15" customFormat="1" ht="18" thickBot="1">
+      <c r="B5" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="174" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="174" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="174" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="S5" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="246"/>
+      <c r="U5" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA5" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB5" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" s="121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3.12</v>
+      </c>
+      <c r="E6" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
+        <f>D6</f>
+        <v>3.12</v>
+      </c>
+      <c r="G6" s="10">
+        <v>680</v>
+      </c>
+      <c r="H6" s="10">
+        <v>100</v>
+      </c>
+      <c r="I6" s="50">
+        <f>1+G6/H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="J6" s="50">
+        <f>F6*I6</f>
+        <v>24.335999999999999</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="M6" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>50</v>
+      </c>
+      <c r="U6" s="10">
+        <v>204</v>
+      </c>
+      <c r="V6" s="10">
+        <v>70.5</v>
+      </c>
+      <c r="W6" s="122">
+        <f>V6*V6/T6</f>
+        <v>99.405000000000001</v>
+      </c>
+      <c r="X6" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="122">
+        <f>X6*Y6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB6" s="122">
+        <f>48*AA6</f>
+        <v>235.20000000000002</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AD6" s="123">
+        <f>48*AC6</f>
+        <v>393.59999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="4"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="37" t="e">
+        <f t="shared" ref="I7:I18" si="0">1+G7/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="37" t="e">
+        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="36">
+        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="36">
+        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="36">
+        <f t="shared" ref="AB7:AD18" si="4">48*AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="4"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <v>50</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="4"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>50</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="4"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>50</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="4"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <v>50</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="4"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <v>50</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="4"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="37" t="e">
+        <f t="shared" ref="J13" si="5">F13*I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="4"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="4"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="4"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="4"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" ht="18" thickBot="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="117" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
+        <v>50</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA08EB1-F4D4-4206-AEED-C6C0A953ADF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E61BE2-D52E-4F1A-A460-6E9EC3FBF46E}">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
@@ -3787,51 +5514,51 @@
     </row>
     <row r="6" spans="2:13">
       <c r="C6" s="1"/>
-      <c r="D6" s="190" t="s">
+      <c r="D6" s="250" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="190" t="s">
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="192"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="253"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickBot="1">
       <c r="C7" s="1"/>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="H7" s="195" t="s">
+      <c r="H7" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="200" t="s">
+      <c r="I7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="201" t="s">
+      <c r="K7" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="201" t="s">
+      <c r="L7" s="169" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="170" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3840,27 +5567,27 @@
       <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="169">
+      <c r="E8" s="144">
         <f>(D8*50)^0.5</f>
         <v>22.360679774997898</v>
       </c>
-      <c r="F8" s="169">
+      <c r="F8" s="144">
         <f>E8/0.707*2</f>
         <v>63.255105445538611</v>
       </c>
-      <c r="G8" s="169">
+      <c r="G8" s="144">
         <f>D8/E8</f>
         <v>0.44721359549995793</v>
       </c>
-      <c r="H8" s="185">
+      <c r="H8" s="157">
         <f>G8/0.707*2</f>
         <v>1.2651021089107721</v>
       </c>
-      <c r="I8" s="170">
+      <c r="I8" s="145">
         <f>E8/25</f>
         <v>0.89442719099991597</v>
       </c>
-      <c r="J8" s="169">
+      <c r="J8" s="144">
         <f>I8/0.707*2</f>
         <v>2.5302042178215447</v>
       </c>
@@ -3872,7 +5599,7 @@
         <f>K8/I8</f>
         <v>1.7888543819998319E-2</v>
       </c>
-      <c r="M8" s="185">
+      <c r="M8" s="157">
         <f>L8/0.707*2</f>
         <v>5.0604084356430892E-2</v>
       </c>
@@ -3898,7 +5625,7 @@
         <f t="shared" ref="H9:H12" si="2">G9/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
-      <c r="I9" s="171">
+      <c r="I9" s="146">
         <f>E9/25</f>
         <v>2.8284271247461903</v>
       </c>
@@ -3906,11 +5633,11 @@
         <f t="shared" ref="J9:J12" si="3">I9/0.707*2</f>
         <v>8.0012082736808789</v>
       </c>
-      <c r="K9" s="172">
+      <c r="K9" s="147">
         <f t="shared" ref="K9:K12" si="4">I9*I9/50</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="L9" s="172">
+      <c r="L9" s="147">
         <f t="shared" ref="L9:L12" si="5">K9/I9</f>
         <v>5.656854249492381E-2</v>
       </c>
@@ -3936,11 +5663,11 @@
         <f t="shared" si="1"/>
         <v>2.4494897427831779</v>
       </c>
-      <c r="H10" s="187">
+      <c r="H10" s="159">
         <f t="shared" si="2"/>
         <v>6.9292496259778726</v>
       </c>
-      <c r="I10" s="188">
+      <c r="I10" s="160">
         <f>E10/25</f>
         <v>4.8989794855663567</v>
       </c>
@@ -3948,15 +5675,15 @@
         <f t="shared" si="3"/>
         <v>13.858499251955749</v>
       </c>
-      <c r="K10" s="189">
+      <c r="K10" s="161">
         <f t="shared" si="4"/>
         <v>0.48000000000000009</v>
       </c>
-      <c r="L10" s="189">
+      <c r="L10" s="161">
         <f t="shared" si="5"/>
         <v>9.7979589711327128E-2</v>
       </c>
-      <c r="M10" s="187">
+      <c r="M10" s="159">
         <f t="shared" ref="M10:M12" si="6">L10/0.707*2</f>
         <v>0.27716998503911494</v>
       </c>
@@ -3982,7 +5709,7 @@
         <f t="shared" si="2"/>
         <v>9.7994387981266051</v>
       </c>
-      <c r="I11" s="171">
+      <c r="I11" s="146">
         <f>E11/25</f>
         <v>6.9282032302755088</v>
       </c>
@@ -3990,11 +5717,11 @@
         <f t="shared" si="3"/>
         <v>19.598877596253207</v>
       </c>
-      <c r="K11" s="172">
+      <c r="K11" s="147">
         <f t="shared" si="4"/>
         <v>0.95999999999999985</v>
       </c>
-      <c r="L11" s="172">
+      <c r="L11" s="147">
         <f t="shared" si="5"/>
         <v>0.13856406460551016</v>
       </c>
@@ -4008,39 +5735,39 @@
       <c r="D12" s="7">
         <v>1000</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="148">
         <f t="shared" si="0"/>
         <v>223.60679774997897</v>
       </c>
-      <c r="F12" s="173">
+      <c r="F12" s="148">
         <f>E12/0.707*2</f>
         <v>632.55105445538607</v>
       </c>
-      <c r="G12" s="173">
+      <c r="G12" s="148">
         <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
-      <c r="H12" s="186">
+      <c r="H12" s="158">
         <f t="shared" si="2"/>
         <v>12.651021089107722</v>
       </c>
-      <c r="I12" s="174">
+      <c r="I12" s="149">
         <f>E12/25</f>
         <v>8.9442719099991592</v>
       </c>
-      <c r="J12" s="173">
+      <c r="J12" s="148">
         <f t="shared" si="3"/>
         <v>25.302042178215444</v>
       </c>
-      <c r="K12" s="175">
+      <c r="K12" s="150">
         <f t="shared" si="4"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="L12" s="175">
+      <c r="L12" s="150">
         <f t="shared" si="5"/>
         <v>0.1788854381999832</v>
       </c>
-      <c r="M12" s="186">
+      <c r="M12" s="158">
         <f t="shared" si="6"/>
         <v>0.5060408435643089</v>
       </c>
@@ -4051,14 +5778,14 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="18" thickBot="1">
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="145"/>
+      <c r="E15" s="227"/>
       <c r="F15" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="205" t="s">
+      <c r="G15" s="171" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="142" t="s">
@@ -4067,10 +5794,10 @@
       <c r="I15" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="J15" s="205" t="s">
+      <c r="J15" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="205" t="s">
+      <c r="K15" s="171" t="s">
         <v>161</v>
       </c>
       <c r="L15" s="141" t="s">
@@ -4078,14 +5805,14 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="D16" s="203" t="s">
+      <c r="D16" s="271" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="204"/>
+      <c r="E16" s="272"/>
       <c r="F16" s="115">
         <v>35.549999999999997</v>
       </c>
-      <c r="G16" s="206">
+      <c r="G16" s="172">
         <v>29</v>
       </c>
       <c r="H16" s="54">
@@ -4094,21 +5821,21 @@
       <c r="I16" s="54">
         <v>12.7</v>
       </c>
-      <c r="J16" s="206">
+      <c r="J16" s="172">
         <v>29</v>
       </c>
-      <c r="K16" s="206">
+      <c r="K16" s="172">
         <v>29</v>
       </c>
-      <c r="L16" s="178" t="s">
+      <c r="L16" s="151" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="177"/>
+      <c r="E17" s="269"/>
       <c r="F17" s="4">
         <v>885</v>
       </c>
@@ -4130,32 +5857,32 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="D18" s="176" t="s">
+      <c r="D18" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="177"/>
-      <c r="F18" s="179">
-        <f>F17*25^2/1000</f>
+      <c r="E18" s="269"/>
+      <c r="F18" s="152">
+        <f t="shared" ref="F18:K18" si="7">F17*25^2/1000</f>
         <v>553.125</v>
       </c>
       <c r="G18" s="21">
-        <f>G17*25^2/1000</f>
+        <f t="shared" si="7"/>
         <v>318.75</v>
       </c>
       <c r="H18" s="103">
-        <f>H17*25^2/1000</f>
+        <f t="shared" si="7"/>
         <v>293.75</v>
       </c>
       <c r="I18" s="103">
-        <f>I17*25^2/1000</f>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="J18" s="21">
-        <f>J17*25^2/1000</f>
+        <f t="shared" si="7"/>
         <v>318.75</v>
       </c>
       <c r="K18" s="21">
-        <f>K17*25^2/1000</f>
+        <f t="shared" si="7"/>
         <v>318.75</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -4163,10 +5890,10 @@
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="265" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="177"/>
+      <c r="E19" s="269"/>
       <c r="F19" s="4">
         <v>0.3</v>
       </c>
@@ -4190,62 +5917,62 @@
       </c>
     </row>
     <row r="20" spans="3:18">
-      <c r="D20" s="176" t="s">
+      <c r="D20" s="265" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="179">
-        <f>2*3.14*F19*F18</f>
+      <c r="E20" s="269"/>
+      <c r="F20" s="152">
+        <f t="shared" ref="F20:K20" si="8">2*3.14*F19*F18</f>
         <v>1042.0874999999999</v>
       </c>
       <c r="G20" s="21">
-        <f>2*3.14*G19*G18</f>
+        <f t="shared" si="8"/>
         <v>600.52499999999998</v>
       </c>
       <c r="H20" s="103">
-        <f>2*3.14*H19*H18</f>
+        <f t="shared" si="8"/>
         <v>553.42499999999995</v>
       </c>
       <c r="I20" s="103">
-        <f>2*3.14*I19*I18</f>
+        <f t="shared" si="8"/>
         <v>518.1</v>
       </c>
       <c r="J20" s="21">
-        <f>2*3.14*J19*J18</f>
+        <f t="shared" si="8"/>
         <v>54287.46</v>
       </c>
       <c r="K20" s="21">
-        <f>2*3.14*K19*K18</f>
+        <f t="shared" si="8"/>
         <v>27323.887500000004</v>
       </c>
-      <c r="L20" s="180" t="s">
+      <c r="L20" s="153" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:18" ht="18" thickBot="1">
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="267" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="174">
+      <c r="E21" s="270"/>
+      <c r="F21" s="149">
         <v>1.226</v>
       </c>
-      <c r="G21" s="207">
+      <c r="G21" s="173">
         <v>0.78</v>
       </c>
-      <c r="H21" s="175">
+      <c r="H21" s="150">
         <v>0.78</v>
       </c>
-      <c r="I21" s="175">
+      <c r="I21" s="150">
         <v>0.78</v>
       </c>
-      <c r="J21" s="207">
+      <c r="J21" s="173">
         <v>0.78</v>
       </c>
-      <c r="K21" s="207">
+      <c r="K21" s="173">
         <v>0.78</v>
       </c>
-      <c r="L21" s="183" t="s">
+      <c r="L21" s="155" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4255,10 +5982,10 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="156"/>
+      <c r="E24" s="238"/>
       <c r="F24" s="10">
         <v>30</v>
       </c>
@@ -4267,10 +5994,10 @@
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="265" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="184"/>
+      <c r="E25" s="266"/>
       <c r="F25" s="2">
         <f>300/F24</f>
         <v>10</v>
@@ -4280,15 +6007,15 @@
       </c>
     </row>
     <row r="26" spans="3:18" ht="18" thickBot="1">
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="208"/>
+      <c r="E26" s="268"/>
       <c r="F26" s="8">
         <f>F25/10</f>
         <v>1</v>
       </c>
-      <c r="G26" s="183" t="s">
+      <c r="G26" s="155" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4304,553 +6031,553 @@
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="D30" s="212" t="s">
+      <c r="D30" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="212" t="s">
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="254" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="196" t="s">
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="197">
+      <c r="M30" s="166">
         <v>25</v>
       </c>
-      <c r="N30" s="190" t="s">
+      <c r="N30" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="O30" s="198"/>
-      <c r="P30" s="190" t="s">
+      <c r="O30" s="251"/>
+      <c r="P30" s="250" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="192"/>
+      <c r="Q30" s="252"/>
+      <c r="R30" s="253"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="D31" s="214"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="211" t="s">
+      <c r="D31" s="257"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="257"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="176" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="241">
+      <c r="M31" s="197">
         <v>1</v>
       </c>
-      <c r="N31" s="209" t="s">
+      <c r="N31" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="O31" s="246">
+      <c r="O31" s="202">
         <v>1</v>
       </c>
-      <c r="P31" s="209" t="s">
+      <c r="P31" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="Q31" s="240">
+      <c r="Q31" s="196">
         <v>1</v>
       </c>
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="3:18" ht="18" thickBot="1">
-      <c r="D32" s="193" t="s">
+      <c r="D32" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="194" t="s">
+      <c r="E32" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="194" t="s">
+      <c r="F32" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="194" t="s">
+      <c r="G32" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="199" t="s">
+      <c r="H32" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="193" t="s">
+      <c r="I32" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="194" t="s">
+      <c r="J32" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="194" t="s">
+      <c r="K32" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="194" t="s">
+      <c r="L32" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="195" t="s">
+      <c r="M32" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="N32" s="193" t="s">
+      <c r="N32" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="O32" s="199" t="s">
+      <c r="O32" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="P32" s="193" t="s">
+      <c r="P32" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="Q32" s="194" t="s">
+      <c r="Q32" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="R32" s="195" t="s">
+      <c r="R32" s="164" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="4:18">
-      <c r="D33" s="219">
+      <c r="D33" s="177">
         <v>50</v>
       </c>
-      <c r="E33" s="220">
+      <c r="E33" s="178">
         <f>(D33*50)^0.5</f>
         <v>50</v>
       </c>
-      <c r="F33" s="220">
-        <f>E33/0.707*2</f>
+      <c r="F33" s="178">
+        <f t="shared" ref="F33:F39" si="9">E33/0.707*2</f>
         <v>141.44271570014146</v>
       </c>
-      <c r="G33" s="220">
+      <c r="G33" s="178">
         <f>D33/E33</f>
         <v>1</v>
       </c>
-      <c r="H33" s="221">
+      <c r="H33" s="179">
         <f>G33/0.707*2</f>
         <v>2.8288543140028288</v>
       </c>
-      <c r="I33" s="251">
+      <c r="I33" s="207">
         <f>E33/M$30</f>
         <v>2</v>
       </c>
-      <c r="J33" s="220">
+      <c r="J33" s="178">
         <f>I33/0.707*2</f>
         <v>5.6577086280056577</v>
       </c>
-      <c r="K33" s="220">
+      <c r="K33" s="178">
         <f>I33*I33/50</f>
         <v>0.08</v>
       </c>
-      <c r="L33" s="222">
+      <c r="L33" s="180">
         <f>K33/I33</f>
         <v>0.04</v>
       </c>
-      <c r="M33" s="221">
+      <c r="M33" s="179">
         <f>L33/0.707*2</f>
         <v>0.11315417256011316</v>
       </c>
-      <c r="N33" s="242">
-        <f>I33*O$31/(O$31+Q$31)</f>
+      <c r="N33" s="198">
+        <f t="shared" ref="N33:N39" si="10">I33*O$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="247">
-        <f>N33*N33/(O$31*1000)</f>
+      <c r="O33" s="203">
+        <f t="shared" ref="O33:O39" si="11">N33*N33/(O$31*1000)</f>
         <v>1E-3</v>
       </c>
-      <c r="P33" s="251">
-        <f>I33*Q$31/(O$31+Q$31)</f>
+      <c r="P33" s="207">
+        <f t="shared" ref="P33:P39" si="12">I33*Q$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="223">
-        <f>P33*P33/(Q$31*1000)</f>
+      <c r="Q33" s="181">
+        <f t="shared" ref="Q33:Q39" si="13">P33*P33/(Q$31*1000)</f>
         <v>1E-3</v>
       </c>
-      <c r="R33" s="221">
+      <c r="R33" s="179">
         <f>P33/0.707*2</f>
         <v>2.8288543140028288</v>
       </c>
     </row>
     <row r="34" spans="4:18">
-      <c r="D34" s="225">
+      <c r="D34" s="183">
         <v>100</v>
       </c>
-      <c r="E34" s="226">
-        <f t="shared" ref="E34:E35" si="7">(D34*50)^0.5</f>
+      <c r="E34" s="184">
+        <f t="shared" ref="E34:E35" si="14">(D34*50)^0.5</f>
         <v>70.710678118654755</v>
       </c>
-      <c r="F34" s="226">
-        <f>E34/0.707*2</f>
+      <c r="F34" s="184">
+        <f t="shared" si="9"/>
         <v>200.03020684202195</v>
       </c>
-      <c r="G34" s="226">
-        <f t="shared" ref="G34:G35" si="8">D34/E34</f>
+      <c r="G34" s="184">
+        <f t="shared" ref="G34:G35" si="15">D34/E34</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="H34" s="227">
-        <f t="shared" ref="H34:H39" si="9">G34/0.707*2</f>
+      <c r="H34" s="185">
+        <f t="shared" ref="H34:H39" si="16">G34/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
-      <c r="I34" s="242">
-        <f t="shared" ref="I34:I39" si="10">E34/M$30</f>
+      <c r="I34" s="198">
+        <f t="shared" ref="I34:I39" si="17">E34/M$30</f>
         <v>2.8284271247461903</v>
       </c>
-      <c r="J34" s="239">
-        <f t="shared" ref="J34:J39" si="11">I34/0.707*2</f>
+      <c r="J34" s="195">
+        <f t="shared" ref="J34:J39" si="18">I34/0.707*2</f>
         <v>8.0012082736808789</v>
       </c>
-      <c r="K34" s="226">
-        <f t="shared" ref="K34:K35" si="12">I34*I34/50</f>
+      <c r="K34" s="184">
+        <f t="shared" ref="K34:K35" si="19">I34*I34/50</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="L34" s="228">
-        <f t="shared" ref="L34:L35" si="13">K34/I34</f>
+      <c r="L34" s="186">
+        <f t="shared" ref="L34:L35" si="20">K34/I34</f>
         <v>5.656854249492381E-2</v>
       </c>
-      <c r="M34" s="227">
+      <c r="M34" s="185">
         <f>L34/0.707*2</f>
         <v>0.16002416547361759</v>
       </c>
-      <c r="N34" s="243">
-        <f>I34*O$31/(O$31+Q$31)</f>
+      <c r="N34" s="199">
+        <f t="shared" si="10"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="O34" s="248">
-        <f>N34*N34/(O$31*1000)</f>
+      <c r="O34" s="204">
+        <f t="shared" si="11"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="P34" s="243">
-        <f>I34*Q$31/(O$31+Q$31)</f>
+      <c r="P34" s="199">
+        <f t="shared" si="12"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="Q34" s="229">
-        <f>P34*P34/(Q$31*1000)</f>
+      <c r="Q34" s="187">
+        <f t="shared" si="13"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="R34" s="227">
-        <f t="shared" ref="R34:R39" si="14">P34/0.707*2</f>
+      <c r="R34" s="185">
+        <f t="shared" ref="R34:R39" si="21">P34/0.707*2</f>
         <v>4.0006041368404395</v>
       </c>
     </row>
     <row r="35" spans="4:18">
-      <c r="D35" s="225">
+      <c r="D35" s="183">
         <v>150</v>
       </c>
-      <c r="E35" s="226">
-        <f t="shared" si="7"/>
+      <c r="E35" s="184">
+        <f t="shared" si="14"/>
         <v>86.602540378443862</v>
       </c>
-      <c r="F35" s="226">
-        <f>E35/0.707*2</f>
+      <c r="F35" s="184">
+        <f t="shared" si="9"/>
         <v>244.98596995316512</v>
       </c>
-      <c r="G35" s="226">
-        <f t="shared" si="8"/>
+      <c r="G35" s="184">
+        <f t="shared" si="15"/>
         <v>1.7320508075688774</v>
       </c>
-      <c r="H35" s="227">
+      <c r="H35" s="185">
+        <f t="shared" si="16"/>
+        <v>4.8997193990633026</v>
+      </c>
+      <c r="I35" s="198">
+        <f t="shared" si="17"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="J35" s="195">
+        <f t="shared" si="18"/>
+        <v>9.7994387981266033</v>
+      </c>
+      <c r="K35" s="184">
+        <f t="shared" si="19"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="L35" s="186">
+        <f t="shared" si="20"/>
+        <v>6.9282032302755078E-2</v>
+      </c>
+      <c r="M35" s="185">
+        <f t="shared" ref="M35:M39" si="22">L35/0.707*2</f>
+        <v>0.19598877596253206</v>
+      </c>
+      <c r="N35" s="199">
+        <f t="shared" si="10"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O35" s="204">
+        <f t="shared" si="11"/>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="P35" s="199">
+        <f t="shared" si="12"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="Q35" s="187">
+        <f t="shared" si="13"/>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="R35" s="185">
+        <f t="shared" si="21"/>
+        <v>4.8997193990633017</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18">
+      <c r="D36" s="183">
+        <v>200</v>
+      </c>
+      <c r="E36" s="184">
+        <f t="shared" ref="E36" si="23">(D36*50)^0.5</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="184">
         <f t="shared" si="9"/>
-        <v>4.8997193990633026</v>
-      </c>
-      <c r="I35" s="242">
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G36" s="184">
+        <f t="shared" ref="G36" si="24">D36/E36</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="185">
+        <f t="shared" si="16"/>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="I36" s="198">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="195">
+        <f t="shared" si="18"/>
+        <v>11.315417256011315</v>
+      </c>
+      <c r="K36" s="184">
+        <f t="shared" ref="K36" si="25">I36*I36/50</f>
+        <v>0.32</v>
+      </c>
+      <c r="L36" s="186">
+        <f t="shared" ref="L36" si="26">K36/I36</f>
+        <v>0.08</v>
+      </c>
+      <c r="M36" s="185">
+        <f t="shared" si="22"/>
+        <v>0.22630834512022632</v>
+      </c>
+      <c r="N36" s="199">
         <f t="shared" si="10"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="J35" s="239">
+        <v>2</v>
+      </c>
+      <c r="O36" s="204">
         <f t="shared" si="11"/>
-        <v>9.7994387981266033</v>
-      </c>
-      <c r="K35" s="226">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P36" s="199">
         <f t="shared" si="12"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="L35" s="228">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="187">
         <f t="shared" si="13"/>
-        <v>6.9282032302755078E-2</v>
-      </c>
-      <c r="M35" s="227">
-        <f t="shared" ref="M35:M39" si="15">L35/0.707*2</f>
-        <v>0.19598877596253206</v>
-      </c>
-      <c r="N35" s="243">
-        <f>I35*O$31/(O$31+Q$31)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="O35" s="248">
-        <f>N35*N35/(O$31*1000)</f>
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="P35" s="243">
-        <f>I35*Q$31/(O$31+Q$31)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="Q35" s="229">
-        <f>P35*P35/(Q$31*1000)</f>
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="R35" s="227">
-        <f t="shared" si="14"/>
-        <v>4.8997193990633017</v>
-      </c>
-    </row>
-    <row r="36" spans="4:18">
-      <c r="D36" s="225">
-        <v>200</v>
-      </c>
-      <c r="E36" s="226">
-        <f t="shared" ref="E36" si="16">(D36*50)^0.5</f>
-        <v>100</v>
-      </c>
-      <c r="F36" s="226">
-        <f>E36/0.707*2</f>
-        <v>282.88543140028293</v>
-      </c>
-      <c r="G36" s="226">
-        <f t="shared" ref="G36" si="17">D36/E36</f>
-        <v>2</v>
-      </c>
-      <c r="H36" s="227">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R36" s="185">
+        <f t="shared" si="21"/>
+        <v>5.6577086280056577</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18">
+      <c r="D37" s="183">
+        <v>250</v>
+      </c>
+      <c r="E37" s="184">
+        <f t="shared" ref="E37" si="27">(D37*50)^0.5</f>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="F37" s="184">
         <f t="shared" si="9"/>
-        <v>5.6577086280056577</v>
-      </c>
-      <c r="I36" s="242">
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G37" s="184">
+        <f t="shared" ref="G37" si="28">D37/E37</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H37" s="185">
+        <f t="shared" si="16"/>
+        <v>6.3255105445538611</v>
+      </c>
+      <c r="I37" s="198">
+        <f t="shared" si="17"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="J37" s="195">
+        <f t="shared" si="18"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="K37" s="184">
+        <f t="shared" ref="K37" si="29">I37*I37/50</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="L37" s="186">
+        <f t="shared" ref="L37" si="30">K37/I37</f>
+        <v>8.9442719099991602E-2</v>
+      </c>
+      <c r="M37" s="185">
+        <f t="shared" si="22"/>
+        <v>0.25302042178215445</v>
+      </c>
+      <c r="N37" s="199">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="J36" s="239">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O37" s="204">
         <f t="shared" si="11"/>
-        <v>11.315417256011315</v>
-      </c>
-      <c r="K36" s="226">
-        <f t="shared" ref="K36" si="18">I36*I36/50</f>
-        <v>0.32</v>
-      </c>
-      <c r="L36" s="228">
-        <f t="shared" ref="L36" si="19">K36/I36</f>
-        <v>0.08</v>
-      </c>
-      <c r="M36" s="227">
-        <f t="shared" si="15"/>
-        <v>0.22630834512022632</v>
-      </c>
-      <c r="N36" s="243">
-        <f>I36*O$31/(O$31+Q$31)</f>
-        <v>2</v>
-      </c>
-      <c r="O36" s="248">
-        <f>N36*N36/(O$31*1000)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P36" s="243">
-        <f>I36*Q$31/(O$31+Q$31)</f>
-        <v>2</v>
-      </c>
-      <c r="Q36" s="229">
-        <f>P36*P36/(Q$31*1000)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R36" s="227">
-        <f t="shared" si="14"/>
-        <v>5.6577086280056577</v>
-      </c>
-    </row>
-    <row r="37" spans="4:18">
-      <c r="D37" s="225">
-        <v>250</v>
-      </c>
-      <c r="E37" s="226">
-        <f t="shared" ref="E37" si="20">(D37*50)^0.5</f>
-        <v>111.80339887498948</v>
-      </c>
-      <c r="F37" s="226">
-        <f>E37/0.707*2</f>
-        <v>316.27552722769303</v>
-      </c>
-      <c r="G37" s="226">
-        <f t="shared" ref="G37" si="21">D37/E37</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P37" s="199">
+        <f t="shared" si="12"/>
         <v>2.2360679774997898</v>
       </c>
-      <c r="H37" s="227">
+      <c r="Q37" s="187">
+        <f t="shared" si="13"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R37" s="185">
+        <f t="shared" si="21"/>
+        <v>6.3255105445538611</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18">
+      <c r="D38" s="183">
+        <v>300</v>
+      </c>
+      <c r="E38" s="184">
+        <f t="shared" ref="E38:E39" si="31">(D38*50)^0.5</f>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F38" s="184">
         <f t="shared" si="9"/>
-        <v>6.3255105445538611</v>
-      </c>
-      <c r="I37" s="242">
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G38" s="184">
+        <f t="shared" ref="G38:G39" si="32">D38/E38</f>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H38" s="185">
+        <f t="shared" si="16"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I38" s="198">
+        <f t="shared" si="17"/>
+        <v>4.8989794855663567</v>
+      </c>
+      <c r="J38" s="195">
+        <f t="shared" si="18"/>
+        <v>13.858499251955749</v>
+      </c>
+      <c r="K38" s="184">
+        <f t="shared" ref="K38:K39" si="33">I38*I38/50</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="L38" s="186">
+        <f t="shared" ref="L38:L39" si="34">K38/I38</f>
+        <v>9.7979589711327128E-2</v>
+      </c>
+      <c r="M38" s="185">
+        <f t="shared" si="22"/>
+        <v>0.27716998503911494</v>
+      </c>
+      <c r="N38" s="199">
         <f t="shared" si="10"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="J37" s="239">
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="O38" s="204">
         <f t="shared" si="11"/>
-        <v>12.651021089107722</v>
-      </c>
-      <c r="K37" s="226">
-        <f t="shared" ref="K37" si="22">I37*I37/50</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="L37" s="228">
-        <f t="shared" ref="L37" si="23">K37/I37</f>
-        <v>8.9442719099991602E-2</v>
-      </c>
-      <c r="M37" s="227">
-        <f t="shared" si="15"/>
-        <v>0.25302042178215445</v>
-      </c>
-      <c r="N37" s="243">
-        <f>I37*O$31/(O$31+Q$31)</f>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O37" s="248">
-        <f>N37*N37/(O$31*1000)</f>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="P37" s="243">
-        <f>I37*Q$31/(O$31+Q$31)</f>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Q37" s="229">
-        <f>P37*P37/(Q$31*1000)</f>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="R37" s="227">
-        <f t="shared" si="14"/>
-        <v>6.3255105445538611</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18">
-      <c r="D38" s="225">
-        <v>300</v>
-      </c>
-      <c r="E38" s="226">
-        <f t="shared" ref="E38:E39" si="24">(D38*50)^0.5</f>
-        <v>122.47448713915891</v>
-      </c>
-      <c r="F38" s="226">
-        <f>E38/0.707*2</f>
-        <v>346.46248129889369</v>
-      </c>
-      <c r="G38" s="226">
-        <f t="shared" ref="G38:G39" si="25">D38/E38</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H38" s="227">
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="P38" s="199">
+        <f t="shared" si="12"/>
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="Q38" s="187">
+        <f t="shared" si="13"/>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="R38" s="185">
+        <f t="shared" si="21"/>
+        <v>6.9292496259778744</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" ht="18" thickBot="1">
+      <c r="D39" s="189">
+        <v>350</v>
+      </c>
+      <c r="E39" s="190">
+        <f t="shared" si="31"/>
+        <v>132.28756555322954</v>
+      </c>
+      <c r="F39" s="190">
         <f t="shared" si="9"/>
-        <v>6.9292496259778726</v>
-      </c>
-      <c r="I38" s="242">
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G39" s="190">
+        <f t="shared" si="32"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="H39" s="191">
+        <f t="shared" si="16"/>
+        <v>7.4844450100837072</v>
+      </c>
+      <c r="I39" s="208">
+        <f t="shared" si="17"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="J39" s="201">
+        <f t="shared" si="18"/>
+        <v>14.968890020167416</v>
+      </c>
+      <c r="K39" s="190">
+        <f t="shared" si="33"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L39" s="192">
+        <f t="shared" si="34"/>
+        <v>0.10583005244258363</v>
+      </c>
+      <c r="M39" s="191">
+        <f t="shared" si="22"/>
+        <v>0.29937780040334833</v>
+      </c>
+      <c r="N39" s="200">
         <f t="shared" si="10"/>
-        <v>4.8989794855663567</v>
-      </c>
-      <c r="J38" s="239">
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="O39" s="205">
         <f t="shared" si="11"/>
-        <v>13.858499251955749</v>
-      </c>
-      <c r="K38" s="226">
-        <f t="shared" ref="K38:K39" si="26">I38*I38/50</f>
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="L38" s="228">
-        <f t="shared" ref="L38:L39" si="27">K38/I38</f>
-        <v>9.7979589711327128E-2</v>
-      </c>
-      <c r="M38" s="227">
-        <f t="shared" si="15"/>
-        <v>0.27716998503911494</v>
-      </c>
-      <c r="N38" s="243">
-        <f>I38*O$31/(O$31+Q$31)</f>
-        <v>2.4494897427831783</v>
-      </c>
-      <c r="O38" s="248">
-        <f>N38*N38/(O$31*1000)</f>
-        <v>6.000000000000001E-3</v>
-      </c>
-      <c r="P38" s="243">
-        <f>I38*Q$31/(O$31+Q$31)</f>
-        <v>2.4494897427831783</v>
-      </c>
-      <c r="Q38" s="229">
-        <f>P38*P38/(Q$31*1000)</f>
-        <v>6.000000000000001E-3</v>
-      </c>
-      <c r="R38" s="227">
-        <f t="shared" si="14"/>
-        <v>6.9292496259778744</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18" ht="18" thickBot="1">
-      <c r="D39" s="231">
-        <v>350</v>
-      </c>
-      <c r="E39" s="232">
-        <f t="shared" si="24"/>
-        <v>132.28756555322954</v>
-      </c>
-      <c r="F39" s="232">
-        <f>E39/0.707*2</f>
-        <v>374.22225050418541</v>
-      </c>
-      <c r="G39" s="232">
-        <f t="shared" si="25"/>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="H39" s="233">
-        <f t="shared" si="9"/>
-        <v>7.4844450100837072</v>
-      </c>
-      <c r="I39" s="252">
-        <f t="shared" si="10"/>
-        <v>5.2915026221291814</v>
-      </c>
-      <c r="J39" s="245">
-        <f t="shared" si="11"/>
-        <v>14.968890020167416</v>
-      </c>
-      <c r="K39" s="232">
-        <f t="shared" si="26"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L39" s="234">
-        <f t="shared" si="27"/>
-        <v>0.10583005244258363</v>
-      </c>
-      <c r="M39" s="233">
-        <f t="shared" si="15"/>
-        <v>0.29937780040334833</v>
-      </c>
-      <c r="N39" s="244">
-        <f>I39*O$31/(O$31+Q$31)</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="P39" s="200">
+        <f t="shared" si="12"/>
         <v>2.6457513110645907</v>
       </c>
-      <c r="O39" s="249">
-        <f>N39*N39/(O$31*1000)</f>
+      <c r="Q39" s="193">
+        <f t="shared" si="13"/>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="P39" s="244">
-        <f>I39*Q$31/(O$31+Q$31)</f>
-        <v>2.6457513110645907</v>
-      </c>
-      <c r="Q39" s="235">
-        <f>P39*P39/(Q$31*1000)</f>
-        <v>7.000000000000001E-3</v>
-      </c>
-      <c r="R39" s="233">
-        <f t="shared" si="14"/>
+      <c r="R39" s="191">
+        <f t="shared" si="21"/>
         <v>7.4844450100837081</v>
       </c>
     </row>
     <row r="40" spans="4:18">
-      <c r="D40" s="257"/>
-      <c r="E40" s="258"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="258"/>
-      <c r="I40" s="259"/>
-      <c r="J40" s="258"/>
-      <c r="K40" s="258"/>
-      <c r="L40" s="259"/>
-      <c r="M40" s="258"/>
-      <c r="N40" s="259"/>
-      <c r="O40" s="260"/>
-      <c r="P40" s="259"/>
-      <c r="Q40" s="260"/>
-      <c r="R40" s="258"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="215"/>
+      <c r="Q40" s="216"/>
+      <c r="R40" s="214"/>
     </row>
     <row r="41" spans="4:18" ht="18" thickBot="1">
       <c r="D41" t="s">
@@ -4858,534 +6585,534 @@
       </c>
     </row>
     <row r="42" spans="4:18">
-      <c r="D42" s="212" t="s">
+      <c r="D42" s="254" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="217"/>
-      <c r="I42" s="215" t="s">
+      <c r="E42" s="255"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="262" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="196" t="s">
+      <c r="J42" s="255"/>
+      <c r="K42" s="255"/>
+      <c r="L42" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="M42" s="197">
+      <c r="M42" s="166">
         <v>1</v>
       </c>
-      <c r="N42" s="190" t="s">
+      <c r="N42" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="198"/>
-      <c r="P42" s="190" t="s">
+      <c r="O42" s="251"/>
+      <c r="P42" s="250" t="s">
         <v>185</v>
       </c>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="192"/>
+      <c r="Q42" s="252"/>
+      <c r="R42" s="253"/>
     </row>
     <row r="43" spans="4:18">
-      <c r="D43" s="214"/>
-      <c r="E43" s="210"/>
-      <c r="F43" s="210"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="210"/>
-      <c r="K43" s="210"/>
-      <c r="L43" s="211" t="s">
+      <c r="D43" s="257"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="258"/>
+      <c r="H43" s="261"/>
+      <c r="I43" s="263"/>
+      <c r="J43" s="258"/>
+      <c r="K43" s="258"/>
+      <c r="L43" s="176" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="241">
+      <c r="M43" s="197">
         <v>25</v>
       </c>
-      <c r="N43" s="209" t="s">
+      <c r="N43" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="O43" s="246">
+      <c r="O43" s="202">
         <v>1</v>
       </c>
-      <c r="P43" s="209" t="s">
+      <c r="P43" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="Q43" s="240">
+      <c r="Q43" s="196">
         <v>1</v>
       </c>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="4:18" ht="18" thickBot="1">
-      <c r="D44" s="193" t="s">
+      <c r="D44" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="194" t="s">
+      <c r="E44" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="194" t="s">
+      <c r="F44" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="194" t="s">
+      <c r="G44" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="195" t="s">
+      <c r="H44" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="I44" s="250" t="s">
+      <c r="I44" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="J44" s="202" t="s">
+      <c r="J44" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="K44" s="200" t="s">
+      <c r="K44" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="L44" s="201" t="s">
+      <c r="L44" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="M44" s="201" t="s">
+      <c r="M44" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="200" t="s">
+      <c r="N44" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="O44" s="256" t="s">
+      <c r="O44" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="P44" s="200" t="s">
+      <c r="P44" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="Q44" s="201" t="s">
+      <c r="Q44" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="R44" s="202" t="s">
+      <c r="R44" s="170" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="4:18">
-      <c r="D45" s="219">
+      <c r="D45" s="177">
         <v>50</v>
       </c>
-      <c r="E45" s="220">
+      <c r="E45" s="178">
         <f>(D45*50)^0.5</f>
         <v>50</v>
       </c>
-      <c r="F45" s="220">
-        <f>E45/0.707*2</f>
+      <c r="F45" s="178">
+        <f t="shared" ref="F45:F51" si="35">E45/0.707*2</f>
         <v>141.44271570014146</v>
       </c>
-      <c r="G45" s="220">
+      <c r="G45" s="178">
         <f>D45/E45</f>
         <v>1</v>
       </c>
-      <c r="H45" s="253">
+      <c r="H45" s="209">
         <f>G45/0.707*2</f>
         <v>2.8288543140028288</v>
       </c>
-      <c r="I45" s="251">
+      <c r="I45" s="207">
         <f>G45/M$43</f>
         <v>0.04</v>
       </c>
-      <c r="J45" s="220">
+      <c r="J45" s="178">
         <f>I45/0.707*2</f>
         <v>0.11315417256011316</v>
       </c>
-      <c r="K45" s="222">
+      <c r="K45" s="180">
         <f>I45*50</f>
         <v>2</v>
       </c>
-      <c r="L45" s="220">
+      <c r="L45" s="178">
         <f>K45/0.707*2</f>
         <v>5.6577086280056577</v>
       </c>
-      <c r="M45" s="221">
+      <c r="M45" s="179">
         <f>I45*K45</f>
         <v>0.08</v>
       </c>
-      <c r="N45" s="251">
+      <c r="N45" s="207">
         <f>K45*O$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
-      <c r="O45" s="224">
-        <f>N45*N45/(O$31*1000)</f>
+      <c r="O45" s="182">
+        <f t="shared" ref="O45:O51" si="36">N45*N45/(O$31*1000)</f>
         <v>1E-3</v>
       </c>
-      <c r="P45" s="251">
+      <c r="P45" s="207">
         <f>K45*Q$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
-      <c r="Q45" s="223">
-        <f>P45*P45/(Q$31*1000)</f>
+      <c r="Q45" s="181">
+        <f t="shared" ref="Q45:Q51" si="37">P45*P45/(Q$31*1000)</f>
         <v>1E-3</v>
       </c>
-      <c r="R45" s="221">
+      <c r="R45" s="179">
         <f>P45/0.707*2</f>
         <v>2.8288543140028288</v>
       </c>
     </row>
     <row r="46" spans="4:18">
-      <c r="D46" s="225">
+      <c r="D46" s="183">
         <v>100</v>
       </c>
-      <c r="E46" s="226">
-        <f t="shared" ref="E46:E51" si="28">(D46*50)^0.5</f>
+      <c r="E46" s="184">
+        <f t="shared" ref="E46:E51" si="38">(D46*50)^0.5</f>
         <v>70.710678118654755</v>
       </c>
-      <c r="F46" s="226">
-        <f>E46/0.707*2</f>
+      <c r="F46" s="184">
+        <f t="shared" si="35"/>
         <v>200.03020684202195</v>
       </c>
-      <c r="G46" s="226">
-        <f t="shared" ref="G46:G51" si="29">D46/E46</f>
+      <c r="G46" s="184">
+        <f t="shared" ref="G46:G51" si="39">D46/E46</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="H46" s="254">
-        <f t="shared" ref="H46:H51" si="30">G46/0.707*2</f>
+      <c r="H46" s="210">
+        <f t="shared" ref="H46:H51" si="40">G46/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
-      <c r="I46" s="243">
-        <f t="shared" ref="I46:I51" si="31">G46/M$43</f>
+      <c r="I46" s="199">
+        <f t="shared" ref="I46:I51" si="41">G46/M$43</f>
         <v>5.6568542494923796E-2</v>
       </c>
-      <c r="J46" s="226">
-        <f t="shared" ref="J46:J51" si="32">I46/0.707*2</f>
+      <c r="J46" s="184">
+        <f t="shared" ref="J46:J51" si="42">I46/0.707*2</f>
         <v>0.16002416547361753</v>
       </c>
-      <c r="K46" s="228">
-        <f t="shared" ref="K46:K51" si="33">I46*50</f>
+      <c r="K46" s="186">
+        <f t="shared" ref="K46:K51" si="43">I46*50</f>
         <v>2.8284271247461898</v>
       </c>
-      <c r="L46" s="226">
-        <f t="shared" ref="L46:L51" si="34">K46/0.707*2</f>
+      <c r="L46" s="184">
+        <f t="shared" ref="L46:L51" si="44">K46/0.707*2</f>
         <v>8.0012082736808772</v>
       </c>
-      <c r="M46" s="227">
-        <f t="shared" ref="M46:M51" si="35">I46*K46</f>
+      <c r="M46" s="185">
+        <f t="shared" ref="M46:M51" si="45">I46*K46</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="N46" s="243">
-        <f t="shared" ref="N46:N51" si="36">K46*O$31/(O$31+Q$31)</f>
+      <c r="N46" s="199">
+        <f t="shared" ref="N46:N51" si="46">K46*O$31/(O$31+Q$31)</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="O46" s="230">
-        <f>N46*N46/(O$31*1000)</f>
+      <c r="O46" s="188">
+        <f t="shared" si="36"/>
         <v>1.9999999999999996E-3</v>
       </c>
-      <c r="P46" s="243">
-        <f t="shared" ref="P46:P51" si="37">K46*Q$31/(O$31+Q$31)</f>
+      <c r="P46" s="199">
+        <f t="shared" ref="P46:P51" si="47">K46*Q$31/(O$31+Q$31)</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="Q46" s="229">
-        <f>P46*P46/(Q$31*1000)</f>
+      <c r="Q46" s="187">
+        <f t="shared" si="37"/>
         <v>1.9999999999999996E-3</v>
       </c>
-      <c r="R46" s="227">
-        <f t="shared" ref="R46:R51" si="38">P46/0.707*2</f>
+      <c r="R46" s="185">
+        <f t="shared" ref="R46:R51" si="48">P46/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
     </row>
     <row r="47" spans="4:18">
-      <c r="D47" s="225">
+      <c r="D47" s="183">
         <v>150</v>
       </c>
-      <c r="E47" s="226">
-        <f t="shared" si="28"/>
+      <c r="E47" s="184">
+        <f t="shared" si="38"/>
         <v>86.602540378443862</v>
       </c>
-      <c r="F47" s="226">
-        <f>E47/0.707*2</f>
+      <c r="F47" s="184">
+        <f t="shared" si="35"/>
         <v>244.98596995316512</v>
       </c>
-      <c r="G47" s="226">
-        <f t="shared" si="29"/>
+      <c r="G47" s="184">
+        <f t="shared" si="39"/>
         <v>1.7320508075688774</v>
       </c>
-      <c r="H47" s="254">
-        <f t="shared" si="30"/>
+      <c r="H47" s="210">
+        <f t="shared" si="40"/>
         <v>4.8997193990633026</v>
       </c>
-      <c r="I47" s="243">
-        <f t="shared" si="31"/>
+      <c r="I47" s="199">
+        <f t="shared" si="41"/>
         <v>6.9282032302755092E-2</v>
       </c>
-      <c r="J47" s="226">
-        <f t="shared" si="32"/>
+      <c r="J47" s="184">
+        <f t="shared" si="42"/>
         <v>0.19598877596253209</v>
       </c>
-      <c r="K47" s="228">
-        <f t="shared" si="33"/>
+      <c r="K47" s="186">
+        <f t="shared" si="43"/>
         <v>3.4641016151377544</v>
       </c>
-      <c r="L47" s="226">
-        <f t="shared" si="34"/>
+      <c r="L47" s="184">
+        <f t="shared" si="44"/>
         <v>9.7994387981266033</v>
       </c>
-      <c r="M47" s="227">
+      <c r="M47" s="185">
+        <f t="shared" si="45"/>
+        <v>0.24</v>
+      </c>
+      <c r="N47" s="199">
+        <f t="shared" si="46"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O47" s="188">
+        <f t="shared" si="36"/>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="P47" s="199">
+        <f t="shared" si="47"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="Q47" s="187">
+        <f t="shared" si="37"/>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="R47" s="185">
+        <f t="shared" si="48"/>
+        <v>4.8997193990633017</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="D48" s="183">
+        <v>200</v>
+      </c>
+      <c r="E48" s="184">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="F48" s="184">
         <f t="shared" si="35"/>
-        <v>0.24</v>
-      </c>
-      <c r="N47" s="243">
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G48" s="184">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="H48" s="210">
+        <f t="shared" si="40"/>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="I48" s="199">
+        <f t="shared" si="41"/>
+        <v>0.08</v>
+      </c>
+      <c r="J48" s="184">
+        <f t="shared" si="42"/>
+        <v>0.22630834512022632</v>
+      </c>
+      <c r="K48" s="186">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="L48" s="184">
+        <f t="shared" si="44"/>
+        <v>11.315417256011315</v>
+      </c>
+      <c r="M48" s="185">
+        <f t="shared" si="45"/>
+        <v>0.32</v>
+      </c>
+      <c r="N48" s="199">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="O48" s="188">
         <f t="shared" si="36"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="O47" s="230">
-        <f>N47*N47/(O$31*1000)</f>
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="P47" s="243">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P48" s="199">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="Q48" s="187">
         <f t="shared" si="37"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="Q47" s="229">
-        <f>P47*P47/(Q$31*1000)</f>
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="R47" s="227">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R48" s="185">
+        <f t="shared" si="48"/>
+        <v>5.6577086280056577</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18">
+      <c r="D49" s="183">
+        <v>250</v>
+      </c>
+      <c r="E49" s="184">
         <f t="shared" si="38"/>
-        <v>4.8997193990633017</v>
-      </c>
-    </row>
-    <row r="48" spans="4:18">
-      <c r="D48" s="225">
-        <v>200</v>
-      </c>
-      <c r="E48" s="226">
-        <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F48" s="226">
-        <f>E48/0.707*2</f>
-        <v>282.88543140028293</v>
-      </c>
-      <c r="G48" s="226">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="H48" s="254">
-        <f t="shared" si="30"/>
-        <v>5.6577086280056577</v>
-      </c>
-      <c r="I48" s="243">
-        <f t="shared" si="31"/>
-        <v>0.08</v>
-      </c>
-      <c r="J48" s="226">
-        <f t="shared" si="32"/>
-        <v>0.22630834512022632</v>
-      </c>
-      <c r="K48" s="228">
-        <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="L48" s="226">
-        <f t="shared" si="34"/>
-        <v>11.315417256011315</v>
-      </c>
-      <c r="M48" s="227">
+        <v>111.80339887498948</v>
+      </c>
+      <c r="F49" s="184">
         <f t="shared" si="35"/>
-        <v>0.32</v>
-      </c>
-      <c r="N48" s="243">
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G49" s="184">
+        <f t="shared" si="39"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H49" s="210">
+        <f t="shared" si="40"/>
+        <v>6.3255105445538611</v>
+      </c>
+      <c r="I49" s="199">
+        <f t="shared" si="41"/>
+        <v>8.9442719099991588E-2</v>
+      </c>
+      <c r="J49" s="184">
+        <f t="shared" si="42"/>
+        <v>0.25302042178215445</v>
+      </c>
+      <c r="K49" s="186">
+        <f t="shared" si="43"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="L49" s="184">
+        <f t="shared" si="44"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="M49" s="185">
+        <f t="shared" si="45"/>
+        <v>0.4</v>
+      </c>
+      <c r="N49" s="199">
+        <f t="shared" si="46"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O49" s="188">
         <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="O48" s="230">
-        <f>N48*N48/(O$31*1000)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P48" s="243">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P49" s="199">
+        <f t="shared" si="47"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q49" s="187">
         <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="Q48" s="229">
-        <f>P48*P48/(Q$31*1000)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R48" s="227">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R49" s="185">
+        <f t="shared" si="48"/>
+        <v>6.3255105445538611</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18">
+      <c r="D50" s="183">
+        <v>300</v>
+      </c>
+      <c r="E50" s="184">
         <f t="shared" si="38"/>
-        <v>5.6577086280056577</v>
-      </c>
-    </row>
-    <row r="49" spans="4:18">
-      <c r="D49" s="225">
-        <v>250</v>
-      </c>
-      <c r="E49" s="226">
-        <f t="shared" si="28"/>
-        <v>111.80339887498948</v>
-      </c>
-      <c r="F49" s="226">
-        <f>E49/0.707*2</f>
-        <v>316.27552722769303</v>
-      </c>
-      <c r="G49" s="226">
-        <f t="shared" si="29"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="H49" s="254">
-        <f t="shared" si="30"/>
-        <v>6.3255105445538611</v>
-      </c>
-      <c r="I49" s="243">
-        <f t="shared" si="31"/>
-        <v>8.9442719099991588E-2</v>
-      </c>
-      <c r="J49" s="226">
-        <f t="shared" si="32"/>
-        <v>0.25302042178215445</v>
-      </c>
-      <c r="K49" s="228">
-        <f t="shared" si="33"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="L49" s="226">
-        <f t="shared" si="34"/>
-        <v>12.651021089107722</v>
-      </c>
-      <c r="M49" s="227">
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F50" s="184">
         <f t="shared" si="35"/>
-        <v>0.4</v>
-      </c>
-      <c r="N49" s="243">
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G50" s="184">
+        <f t="shared" si="39"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H50" s="210">
+        <f t="shared" si="40"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I50" s="199">
+        <f t="shared" si="41"/>
+        <v>9.7979589711327114E-2</v>
+      </c>
+      <c r="J50" s="184">
+        <f t="shared" si="42"/>
+        <v>0.27716998503911489</v>
+      </c>
+      <c r="K50" s="186">
+        <f t="shared" si="43"/>
+        <v>4.8989794855663558</v>
+      </c>
+      <c r="L50" s="184">
+        <f t="shared" si="44"/>
+        <v>13.858499251955745</v>
+      </c>
+      <c r="M50" s="185">
+        <f t="shared" si="45"/>
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="N50" s="199">
+        <f t="shared" si="46"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="O50" s="188">
         <f t="shared" si="36"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O49" s="230">
-        <f>N49*N49/(O$31*1000)</f>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="P49" s="243">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="P50" s="199">
+        <f t="shared" si="47"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="Q50" s="187">
         <f t="shared" si="37"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Q49" s="229">
-        <f>P49*P49/(Q$31*1000)</f>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="R49" s="227">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="R50" s="185">
+        <f t="shared" si="48"/>
+        <v>6.9292496259778726</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" ht="18" thickBot="1">
+      <c r="D51" s="189">
+        <v>350</v>
+      </c>
+      <c r="E51" s="190">
         <f t="shared" si="38"/>
-        <v>6.3255105445538611</v>
-      </c>
-    </row>
-    <row r="50" spans="4:18">
-      <c r="D50" s="225">
-        <v>300</v>
-      </c>
-      <c r="E50" s="226">
-        <f t="shared" si="28"/>
-        <v>122.47448713915891</v>
-      </c>
-      <c r="F50" s="226">
-        <f>E50/0.707*2</f>
-        <v>346.46248129889369</v>
-      </c>
-      <c r="G50" s="226">
-        <f t="shared" si="29"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H50" s="254">
-        <f t="shared" si="30"/>
-        <v>6.9292496259778726</v>
-      </c>
-      <c r="I50" s="243">
-        <f t="shared" si="31"/>
-        <v>9.7979589711327114E-2</v>
-      </c>
-      <c r="J50" s="226">
-        <f t="shared" si="32"/>
-        <v>0.27716998503911489</v>
-      </c>
-      <c r="K50" s="228">
-        <f t="shared" si="33"/>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="L50" s="226">
-        <f t="shared" si="34"/>
-        <v>13.858499251955745</v>
-      </c>
-      <c r="M50" s="227">
+        <v>132.28756555322954</v>
+      </c>
+      <c r="F51" s="190">
         <f t="shared" si="35"/>
-        <v>0.47999999999999993</v>
-      </c>
-      <c r="N50" s="243">
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G51" s="190">
+        <f t="shared" si="39"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="H51" s="211">
+        <f t="shared" si="40"/>
+        <v>7.4844450100837072</v>
+      </c>
+      <c r="I51" s="200">
+        <f t="shared" si="41"/>
+        <v>0.10583005244258362</v>
+      </c>
+      <c r="J51" s="190">
+        <f t="shared" si="42"/>
+        <v>0.29937780040334827</v>
+      </c>
+      <c r="K51" s="192">
+        <f t="shared" si="43"/>
+        <v>5.2915026221291805</v>
+      </c>
+      <c r="L51" s="190">
+        <f t="shared" si="44"/>
+        <v>14.968890020167414</v>
+      </c>
+      <c r="M51" s="191">
+        <f t="shared" si="45"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="N51" s="200">
+        <f t="shared" si="46"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="O51" s="194">
         <f t="shared" si="36"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="O50" s="230">
-        <f>N50*N50/(O$31*1000)</f>
-        <v>5.9999999999999993E-3</v>
-      </c>
-      <c r="P50" s="243">
+        <v>6.9999999999999984E-3</v>
+      </c>
+      <c r="P51" s="200">
+        <f t="shared" si="47"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="Q51" s="193">
         <f t="shared" si="37"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="Q50" s="229">
-        <f>P50*P50/(Q$31*1000)</f>
-        <v>5.9999999999999993E-3</v>
-      </c>
-      <c r="R50" s="227">
-        <f t="shared" si="38"/>
-        <v>6.9292496259778726</v>
-      </c>
-    </row>
-    <row r="51" spans="4:18" ht="18" thickBot="1">
-      <c r="D51" s="231">
-        <v>350</v>
-      </c>
-      <c r="E51" s="232">
-        <f t="shared" si="28"/>
-        <v>132.28756555322954</v>
-      </c>
-      <c r="F51" s="232">
-        <f>E51/0.707*2</f>
-        <v>374.22225050418541</v>
-      </c>
-      <c r="G51" s="232">
-        <f t="shared" si="29"/>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="H51" s="255">
-        <f t="shared" si="30"/>
-        <v>7.4844450100837072</v>
-      </c>
-      <c r="I51" s="244">
-        <f t="shared" si="31"/>
-        <v>0.10583005244258362</v>
-      </c>
-      <c r="J51" s="232">
-        <f t="shared" si="32"/>
-        <v>0.29937780040334827</v>
-      </c>
-      <c r="K51" s="234">
-        <f t="shared" si="33"/>
-        <v>5.2915026221291805</v>
-      </c>
-      <c r="L51" s="232">
-        <f t="shared" si="34"/>
-        <v>14.968890020167414</v>
-      </c>
-      <c r="M51" s="233">
-        <f t="shared" si="35"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="N51" s="244">
-        <f t="shared" si="36"/>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="O51" s="236">
-        <f>N51*N51/(O$31*1000)</f>
         <v>6.9999999999999984E-3</v>
       </c>
-      <c r="P51" s="244">
-        <f t="shared" si="37"/>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="Q51" s="235">
-        <f>P51*P51/(Q$31*1000)</f>
-        <v>6.9999999999999984E-3</v>
-      </c>
-      <c r="R51" s="233">
-        <f t="shared" si="38"/>
+      <c r="R51" s="191">
+        <f t="shared" si="48"/>
         <v>7.4844450100837072</v>
       </c>
     </row>
@@ -5395,7 +7122,7 @@
       </c>
     </row>
     <row r="54" spans="4:18">
-      <c r="D54" s="265" t="s">
+      <c r="D54" s="221" t="s">
         <v>197</v>
       </c>
       <c r="E54" s="3">
@@ -5407,12 +7134,12 @@
       <c r="G54" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H54" s="262" t="s">
+      <c r="H54" s="218" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="4:18">
-      <c r="D55" s="266" t="s">
+      <c r="D55" s="222" t="s">
         <v>198</v>
       </c>
       <c r="E55" s="4">
@@ -5424,12 +7151,12 @@
       <c r="G55" s="5">
         <v>100</v>
       </c>
-      <c r="H55" s="263" t="s">
+      <c r="H55" s="219" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="4:18">
-      <c r="D56" s="266" t="s">
+      <c r="D56" s="222" t="s">
         <v>200</v>
       </c>
       <c r="E56" s="4">
@@ -5444,12 +7171,12 @@
         <f>(1/(2*3.14*G54*1000*G55*10^(-12)))/1000</f>
         <v>2843.4940855323021</v>
       </c>
-      <c r="H56" s="263" t="s">
+      <c r="H56" s="219" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="57" spans="4:18" ht="18" thickBot="1">
-      <c r="D57" s="267" t="s">
+      <c r="D57" s="223" t="s">
         <v>202</v>
       </c>
       <c r="E57" s="7">
@@ -5464,17 +7191,17 @@
         <f>1/(2*3.14*G56)*1000</f>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="H57" s="264" t="s">
+      <c r="H57" s="220" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="59" spans="4:18" ht="18" thickBot="1">
-      <c r="D59" s="261" t="s">
+      <c r="D59" s="217" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="60" spans="4:18">
-      <c r="D60" s="265" t="s">
+      <c r="D60" s="221" t="s">
         <v>198</v>
       </c>
       <c r="E60" s="3">
@@ -5489,12 +7216,12 @@
       <c r="H60" s="11">
         <v>100000</v>
       </c>
-      <c r="I60" s="262" t="s">
+      <c r="I60" s="218" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="61" spans="4:18">
-      <c r="D61" s="266" t="s">
+      <c r="D61" s="222" t="s">
         <v>200</v>
       </c>
       <c r="E61" s="4">
@@ -5509,12 +7236,12 @@
       <c r="H61" s="5">
         <v>0.8</v>
       </c>
-      <c r="I61" s="263" t="s">
+      <c r="I61" s="219" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="62" spans="4:18" ht="18" thickBot="1">
-      <c r="D62" s="268" t="s">
+      <c r="D62" s="224" t="s">
         <v>205</v>
       </c>
       <c r="E62" s="7">
@@ -5533,12 +7260,24 @@
         <f>(1/(2*3.14*H61*1000*H60*10^(-12)))</f>
         <v>1990.4458598726112</v>
       </c>
-      <c r="I62" s="264" t="s">
+      <c r="I62" s="220" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:R42"/>
     <mergeCell ref="N30:O30"/>
@@ -5547,18 +7286,6 @@
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="D42:H43"/>
     <mergeCell ref="I42:K43"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5757,32 +7484,32 @@
     <row r="3" spans="2:35" ht="18" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="152" t="s">
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="152"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="153"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="231"/>
+      <c r="W3" s="231"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="235"/>
       <c r="Z3" s="76" t="s">
         <v>57</v>
       </c>
@@ -5791,16 +7518,16 @@
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="147"/>
+      <c r="L4" s="229"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
       <c r="O4" s="54"/>
@@ -5810,12 +7537,12 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="150" t="s">
+      <c r="V4" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="151"/>
+      <c r="W4" s="232"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="233"/>
       <c r="Z4" s="72"/>
       <c r="AC4" t="s">
         <v>101</v>
@@ -6492,7 +8219,7 @@
   <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6518,18 +8245,18 @@
         <v>117</v>
       </c>
       <c r="E3" s="114"/>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156" t="s">
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="154" t="s">
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="236" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6567,7 +8294,7 @@
       <c r="L4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="155"/>
+      <c r="M4" s="237"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="115">
@@ -6579,7 +8306,7 @@
       <c r="D5" s="54">
         <v>2.04</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="241">
         <v>3</v>
       </c>
       <c r="F5" s="54">
@@ -6614,7 +8341,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="157"/>
+      <c r="E6" s="239"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -6647,7 +8374,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="157"/>
+      <c r="E7" s="239"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -6680,7 +8407,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="157"/>
+      <c r="E8" s="239"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -6713,7 +8440,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="157">
+      <c r="E9" s="239">
         <v>3.5</v>
       </c>
       <c r="F9" s="104">
@@ -6748,7 +8475,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="157"/>
+      <c r="E10" s="239"/>
       <c r="F10" s="104">
         <v>32</v>
       </c>
@@ -6781,7 +8508,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="157">
+      <c r="E11" s="239">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -6816,7 +8543,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="157"/>
+      <c r="E12" s="239"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -6849,7 +8576,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="158"/>
+      <c r="E13" s="240"/>
       <c r="F13" s="110">
         <v>40</v>
       </c>
@@ -6898,7 +8625,7 @@
   <dimension ref="B3:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6929,49 +8656,49 @@
   <sheetData>
     <row r="3" spans="2:27" ht="18" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156" t="s">
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156" t="s">
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="163" t="s">
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="238"/>
+      <c r="U4" s="245" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="156" t="s">
+      <c r="V4" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156" t="s">
+      <c r="W4" s="238"/>
+      <c r="X4" s="238"/>
+      <c r="Y4" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="160"/>
+      <c r="Z4" s="238"/>
+      <c r="AA4" s="242"/>
     </row>
     <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
-      <c r="B5" s="162"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="24" t="s">
         <v>127</v>
       </c>
@@ -7024,7 +8751,7 @@
       <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="164"/>
+      <c r="U5" s="246"/>
       <c r="V5" s="119" t="s">
         <v>145</v>
       </c>
@@ -7783,8 +9510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8209,23 +9936,23 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="165" t="s">
+      <c r="B19" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="239" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="239" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="157"/>
+      <c r="E19" s="239"/>
       <c r="F19" s="138">
         <v>5</v>
       </c>
       <c r="G19" s="138">
         <v>0.5</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="239">
         <v>1.6</v>
       </c>
       <c r="I19" s="2">
@@ -8237,17 +9964,17 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="165"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="239"/>
       <c r="F20" s="138">
         <v>6</v>
       </c>
       <c r="G20" s="138">
         <v>0.6</v>
       </c>
-      <c r="H20" s="157"/>
+      <c r="H20" s="239"/>
       <c r="I20" s="2">
         <v>13.56</v>
       </c>
@@ -8257,32 +9984,32 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="165"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="239"/>
       <c r="F21" s="138">
         <v>8</v>
       </c>
       <c r="G21" s="138">
         <v>1</v>
       </c>
-      <c r="H21" s="157"/>
+      <c r="H21" s="239"/>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" ht="18" thickBot="1">
-      <c r="B22" s="166"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
       <c r="F22" s="139">
         <v>10</v>
       </c>
       <c r="G22" s="139">
         <v>1.4</v>
       </c>
-      <c r="H22" s="158"/>
+      <c r="H22" s="240"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
@@ -8415,7 +10142,7 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="249" t="s">
         <v>120</v>
       </c>
       <c r="C4">
@@ -8426,7 +10153,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="167"/>
+      <c r="B5" s="249"/>
       <c r="C5">
         <v>48</v>
       </c>
@@ -8435,7 +10162,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="167"/>
+      <c r="B6" s="249"/>
       <c r="C6">
         <f>C4/C5</f>
         <v>12.5</v>
@@ -8463,8 +10190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8494,43 +10221,43 @@
   <sheetData>
     <row r="3" spans="2:26" ht="18" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156" t="s">
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156" t="s">
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="163" t="s">
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="245" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156" t="s">
+      <c r="V4" s="238"/>
+      <c r="W4" s="238"/>
+      <c r="X4" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="160"/>
+      <c r="Y4" s="238"/>
+      <c r="Z4" s="242"/>
     </row>
     <row r="5" spans="2:26" s="15" customFormat="1" ht="18" thickBot="1">
       <c r="B5" s="24" t="s">
@@ -8585,7 +10312,7 @@
       <c r="S5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="164"/>
+      <c r="T5" s="246"/>
       <c r="U5" s="119" t="s">
         <v>97</v>
       </c>
@@ -8613,51 +10340,64 @@
         <v>155</v>
       </c>
       <c r="D6" s="10">
-        <v>4.12</v>
+        <v>2.52</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="50" t="e">
+      <c r="F6" s="10">
+        <f>D6</f>
+        <v>2.52</v>
+      </c>
+      <c r="G6" s="10">
+        <v>680</v>
+      </c>
+      <c r="H6" s="10">
+        <v>100</v>
+      </c>
+      <c r="I6" s="50">
         <f>1+G6/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="50" t="e">
+        <v>7.8</v>
+      </c>
+      <c r="J6" s="50">
         <f>F6*I6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="10"/>
+        <v>19.655999999999999</v>
+      </c>
+      <c r="K6" s="10">
+        <v>21.2</v>
+      </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="10">
+        <v>1.45</v>
+      </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10">
         <v>50</v>
       </c>
       <c r="U6" s="10">
-        <v>91.2</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="V6" s="10">
-        <v>29.8</v>
+        <v>26.8</v>
       </c>
       <c r="W6" s="122">
         <f>V6*V6/T6</f>
-        <v>17.760800000000003</v>
+        <v>14.364800000000001</v>
       </c>
       <c r="X6" s="10">
         <v>24</v>
       </c>
       <c r="Y6" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="123">
         <f>X6*Y6</f>
-        <v>21.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="18" thickBot="1">
@@ -8678,25 +10418,29 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2">
+        <v>1.9</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <v>50</v>
       </c>
       <c r="U7" s="2">
-        <v>91.2</v>
+        <v>76</v>
       </c>
       <c r="V7" s="2">
-        <v>29.7</v>
+        <v>26</v>
       </c>
       <c r="W7" s="36">
         <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
-        <v>17.6418</v>
+        <v>13.52</v>
       </c>
       <c r="X7" s="2">
         <v>24</v>
@@ -8727,35 +10471,43 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="8">
+        <v>18.399999999999999</v>
+      </c>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.5</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8">
         <v>50</v>
       </c>
       <c r="U8" s="8">
-        <v>88</v>
+        <v>63.2</v>
       </c>
       <c r="V8" s="8">
-        <v>29</v>
+        <v>21.4</v>
       </c>
       <c r="W8" s="125">
         <f t="shared" si="2"/>
-        <v>16.82</v>
+        <v>9.1591999999999985</v>
       </c>
       <c r="X8" s="8">
         <v>24</v>
       </c>
       <c r="Y8" s="8">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="126">
         <f t="shared" si="3"/>
-        <v>31.200000000000003</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:26">
@@ -8786,15 +10538,11 @@
       <c r="T9" s="10">
         <v>50</v>
       </c>
-      <c r="U9" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="V9" s="10">
-        <v>30</v>
-      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
       <c r="W9" s="122">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X9" s="10">
         <v>24</v>
@@ -8832,15 +10580,11 @@
       <c r="T10" s="2">
         <v>50</v>
       </c>
-      <c r="U10" s="2">
-        <v>105</v>
-      </c>
-      <c r="V10" s="2">
-        <v>35</v>
-      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="36">
         <f t="shared" si="2"/>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2">
@@ -8876,15 +10620,11 @@
       <c r="T11" s="2">
         <v>50</v>
       </c>
-      <c r="U11" s="2">
-        <v>106</v>
-      </c>
-      <c r="V11" s="2">
-        <v>34.799999999999997</v>
-      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="36">
         <f t="shared" si="2"/>
-        <v>24.220799999999993</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <v>28</v>
@@ -8922,15 +10662,11 @@
       <c r="T12" s="8">
         <v>50</v>
       </c>
-      <c r="U12" s="8">
-        <v>135</v>
-      </c>
-      <c r="V12" s="8">
-        <v>45.8</v>
-      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="125">
         <f t="shared" si="2"/>
-        <v>41.952799999999996</v>
+        <v>0</v>
       </c>
       <c r="X12" s="8">
         <v>40</v>
@@ -8971,15 +10707,11 @@
       <c r="T13" s="54">
         <v>50</v>
       </c>
-      <c r="U13" s="54">
-        <v>136</v>
-      </c>
-      <c r="V13" s="54">
-        <v>45.8</v>
-      </c>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
       <c r="W13" s="128">
         <f t="shared" si="2"/>
-        <v>41.952799999999996</v>
+        <v>0</v>
       </c>
       <c r="X13" s="54">
         <v>40</v>
@@ -9017,15 +10749,11 @@
       <c r="T14" s="2">
         <v>50</v>
       </c>
-      <c r="U14" s="2">
-        <v>144</v>
-      </c>
-      <c r="V14" s="2">
-        <v>46</v>
-      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
       <c r="W14" s="36">
         <f t="shared" si="2"/>
-        <v>42.32</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
         <v>40</v>
@@ -9063,15 +10791,11 @@
       <c r="T15" s="2">
         <v>50</v>
       </c>
-      <c r="U15" s="2">
-        <v>134</v>
-      </c>
-      <c r="V15" s="2">
-        <v>43</v>
-      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="36">
         <f t="shared" si="2"/>
-        <v>36.979999999999997</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
         <v>40</v>
@@ -9109,15 +10833,11 @@
       <c r="T16" s="2">
         <v>50</v>
       </c>
-      <c r="U16" s="2">
-        <v>152</v>
-      </c>
-      <c r="V16" s="2">
-        <v>48.7</v>
-      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
       <c r="W16" s="36">
         <f t="shared" si="2"/>
-        <v>47.433799999999998</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
         <v>48</v>
@@ -9155,15 +10875,11 @@
       <c r="T17" s="2">
         <v>50</v>
       </c>
-      <c r="U17" s="2">
-        <v>134</v>
-      </c>
-      <c r="V17" s="2">
-        <v>43.2</v>
-      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="36">
         <f t="shared" si="2"/>
-        <v>37.324800000000003</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2">
         <v>40</v>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB054629-E970-423D-8B81-CAAD128820DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
     <sheet name="Coupler" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -934,7 +933,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -2149,18 +2148,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,33 +2216,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,7 +2254,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F77A9-FEA9-45DA-87D2-086B17683761}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6F77A9-FEA9-45DA-87D2-086B17683761}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2315,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="SWR 브리지의 회로도">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C3430D-C091-4C50-9B59-A1931072C053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C3430D-C091-4C50-9B59-A1931072C053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2376,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCAF82E-D8D6-45E0-8C46-F0F1020E5DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BCAF82E-D8D6-45E0-8C46-F0F1020E5DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2437,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DCCD1A-57BD-4EFE-8971-DB6743437742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15DCCD1A-57BD-4EFE-8971-DB6743437742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2498,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13674B6-96A0-4841-A4CF-5F1D17BB2FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B13674B6-96A0-4841-A4CF-5F1D17BB2FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2621,26 +2620,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2673,23 +2655,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2865,22 +2830,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="4" width="9.19921875" customWidth="1"/>
+    <col min="1" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="18" thickBot="1">
+    <row r="3" spans="2:24" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2872,7 @@
       <c r="O4" s="225"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="2:24" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="C5" s="45"/>
       <c r="D5" s="24" t="s">
         <v>12</v>
@@ -3449,7 +3414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="18" thickBot="1">
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3470,18 +3435,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1">
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="18" thickBot="1">
+    <row r="21" spans="2:17" ht="17.25" thickBot="1">
       <c r="N21" s="226" t="s">
         <v>34</v>
       </c>
       <c r="O21" s="227"/>
     </row>
-    <row r="22" spans="2:17" s="46" customFormat="1" ht="18" thickBot="1">
+    <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
       <c r="C22" s="47" t="s">
         <v>21</v>
       </c>
@@ -3743,7 +3708,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="18" thickBot="1">
+    <row r="31" spans="2:17" ht="17.25" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3771,39 +3736,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE4969-2496-4FE1-B52C-5A5E2868470A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.8984375" customWidth="1"/>
-    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" ht="18" thickBot="1"/>
+    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
       <c r="B4" s="238" t="s">
         <v>21</v>
@@ -3843,7 +3808,7 @@
       <c r="Y4" s="238"/>
       <c r="Z4" s="242"/>
     </row>
-    <row r="5" spans="2:26" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="174" t="s">
         <v>7</v>
       </c>
@@ -3916,7 +3881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="18" thickBot="1">
+    <row r="6" spans="2:26" ht="17.25" thickBot="1">
       <c r="B6" s="10">
         <v>0.6</v>
       </c>
@@ -3986,7 +3951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="18" thickBot="1">
+    <row r="7" spans="2:26" ht="17.25" thickBot="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4039,7 +4004,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="18" thickBot="1">
+    <row r="8" spans="2:26" ht="17.25" thickBot="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4237,7 +4202,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="18" thickBot="1">
+    <row r="12" spans="2:26" ht="17.25" thickBot="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4384,7 +4349,7 @@
         <v>249.60000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="18" thickBot="1">
+    <row r="15" spans="2:26" ht="17.25" thickBot="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4546,7 +4511,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="18" thickBot="1">
+    <row r="18" spans="2:26" ht="17.25" thickBot="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4592,12 +4557,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X4:Z4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4605,41 +4570,41 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9FA989-CEE6-41FF-8605-D6D59DBD9329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.8984375" customWidth="1"/>
-    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:30" ht="18" thickBot="1"/>
+    <row r="3" spans="2:30" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:30" s="15" customFormat="1">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="250" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="238"/>
@@ -4683,7 +4648,7 @@
       <c r="AC4" s="238"/>
       <c r="AD4" s="242"/>
     </row>
-    <row r="5" spans="2:30" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:30" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="154" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="18" thickBot="1">
+    <row r="18" spans="2:30" ht="17.25" thickBot="1">
       <c r="B18" s="7"/>
       <c r="C18" s="174"/>
       <c r="D18" s="8"/>
@@ -5456,14 +5421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA08EB1-F4D4-4206-AEED-C6C0A953ADF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5471,16 +5436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E61BE2-D52E-4F1A-A460-6E9EC3FBF46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="3.8984375" customWidth="1"/>
+    <col min="1" max="3" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
@@ -5506,7 +5471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1">
+    <row r="5" spans="2:13" ht="17.25" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>156</v>
@@ -5514,14 +5479,14 @@
     </row>
     <row r="6" spans="2:13">
       <c r="C6" s="1"/>
-      <c r="D6" s="250" t="s">
+      <c r="D6" s="251" t="s">
         <v>177</v>
       </c>
       <c r="E6" s="252"/>
       <c r="F6" s="252"/>
       <c r="G6" s="252"/>
       <c r="H6" s="253"/>
-      <c r="I6" s="250" t="s">
+      <c r="I6" s="251" t="s">
         <v>160</v>
       </c>
       <c r="J6" s="252"/>
@@ -5529,7 +5494,7 @@
       <c r="L6" s="252"/>
       <c r="M6" s="253"/>
     </row>
-    <row r="7" spans="2:13" ht="18" thickBot="1">
+    <row r="7" spans="2:13" ht="17.25" thickBot="1">
       <c r="C7" s="1"/>
       <c r="D7" s="162" t="s">
         <v>115</v>
@@ -5730,7 +5695,7 @@
         <v>0.39197755192506412</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="18" thickBot="1">
+    <row r="12" spans="2:13" ht="17.25" thickBot="1">
       <c r="C12" s="1"/>
       <c r="D12" s="7">
         <v>1000</v>
@@ -5772,12 +5737,12 @@
         <v>0.5060408435643089</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18" thickBot="1">
+    <row r="14" spans="2:13" ht="17.25" thickBot="1">
       <c r="D14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18" thickBot="1">
+    <row r="15" spans="2:13" ht="17.25" thickBot="1">
       <c r="D15" s="226" t="s">
         <v>59</v>
       </c>
@@ -5805,10 +5770,10 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="D16" s="271" t="s">
+      <c r="D16" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="272"/>
+      <c r="E16" s="255"/>
       <c r="F16" s="115">
         <v>35.549999999999997</v>
       </c>
@@ -5832,10 +5797,10 @@
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="D17" s="265" t="s">
+      <c r="D17" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="269"/>
+      <c r="E17" s="257"/>
       <c r="F17" s="4">
         <v>885</v>
       </c>
@@ -5857,10 +5822,10 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="D18" s="265" t="s">
+      <c r="D18" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="269"/>
+      <c r="E18" s="257"/>
       <c r="F18" s="152">
         <f t="shared" ref="F18:K18" si="7">F17*25^2/1000</f>
         <v>553.125</v>
@@ -5890,10 +5855,10 @@
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="D19" s="265" t="s">
+      <c r="D19" s="256" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="269"/>
+      <c r="E19" s="257"/>
       <c r="F19" s="4">
         <v>0.3</v>
       </c>
@@ -5917,10 +5882,10 @@
       </c>
     </row>
     <row r="20" spans="3:18">
-      <c r="D20" s="265" t="s">
+      <c r="D20" s="256" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="269"/>
+      <c r="E20" s="257"/>
       <c r="F20" s="152">
         <f t="shared" ref="F20:K20" si="8">2*3.14*F19*F18</f>
         <v>1042.0874999999999</v>
@@ -5949,11 +5914,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="18" thickBot="1">
-      <c r="D21" s="267" t="s">
+    <row r="21" spans="3:18" ht="17.25" thickBot="1">
+      <c r="D21" s="259" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="270"/>
+      <c r="E21" s="261"/>
       <c r="F21" s="149">
         <v>1.226</v>
       </c>
@@ -5976,13 +5941,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="18" thickBot="1">
+    <row r="23" spans="3:18" ht="17.25" thickBot="1">
       <c r="D23" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="D24" s="264" t="s">
+      <c r="D24" s="250" t="s">
         <v>180</v>
       </c>
       <c r="E24" s="238"/>
@@ -5994,10 +5959,10 @@
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="D25" s="265" t="s">
+      <c r="D25" s="256" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="266"/>
+      <c r="E25" s="258"/>
       <c r="F25" s="2">
         <f>300/F24</f>
         <v>10</v>
@@ -6006,11 +5971,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="3:18" ht="18" thickBot="1">
-      <c r="D26" s="267" t="s">
+    <row r="26" spans="3:18" ht="17.25" thickBot="1">
+      <c r="D26" s="259" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="268"/>
+      <c r="E26" s="260"/>
       <c r="F26" s="8">
         <f>F25/10</f>
         <v>1</v>
@@ -6024,50 +5989,50 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="3:18" ht="18" thickBot="1">
+    <row r="29" spans="3:18" ht="17.25" thickBot="1">
       <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="D30" s="254" t="s">
+      <c r="D30" s="263" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="254" t="s">
+      <c r="E30" s="264"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="263" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="255"/>
-      <c r="K30" s="255"/>
+      <c r="J30" s="264"/>
+      <c r="K30" s="264"/>
       <c r="L30" s="165" t="s">
         <v>187</v>
       </c>
       <c r="M30" s="166">
         <v>25</v>
       </c>
-      <c r="N30" s="250" t="s">
+      <c r="N30" s="251" t="s">
         <v>183</v>
       </c>
-      <c r="O30" s="251"/>
-      <c r="P30" s="250" t="s">
+      <c r="O30" s="262"/>
+      <c r="P30" s="251" t="s">
         <v>185</v>
       </c>
       <c r="Q30" s="252"/>
       <c r="R30" s="253"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="D31" s="257"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="259"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="258"/>
-      <c r="K31" s="258"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="268"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="267"/>
+      <c r="K31" s="267"/>
       <c r="L31" s="176" t="s">
         <v>188</v>
       </c>
@@ -6088,7 +6053,7 @@
       </c>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="3:18" ht="18" thickBot="1">
+    <row r="32" spans="3:18" ht="17.25" thickBot="1">
       <c r="D32" s="162" t="s">
         <v>115</v>
       </c>
@@ -6501,7 +6466,7 @@
         <v>6.9292496259778744</v>
       </c>
     </row>
-    <row r="39" spans="4:18" ht="18" thickBot="1">
+    <row r="39" spans="4:18" ht="17.25" thickBot="1">
       <c r="D39" s="189">
         <v>350</v>
       </c>
@@ -6579,49 +6544,49 @@
       <c r="Q40" s="216"/>
       <c r="R40" s="214"/>
     </row>
-    <row r="41" spans="4:18" ht="18" thickBot="1">
+    <row r="41" spans="4:18" ht="17.25" thickBot="1">
       <c r="D41" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="42" spans="4:18">
-      <c r="D42" s="254" t="s">
+      <c r="D42" s="263" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="255"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="255"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="262" t="s">
+      <c r="E42" s="264"/>
+      <c r="F42" s="264"/>
+      <c r="G42" s="264"/>
+      <c r="H42" s="269"/>
+      <c r="I42" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="255"/>
-      <c r="K42" s="255"/>
+      <c r="J42" s="264"/>
+      <c r="K42" s="264"/>
       <c r="L42" s="165" t="s">
         <v>187</v>
       </c>
       <c r="M42" s="166">
         <v>1</v>
       </c>
-      <c r="N42" s="250" t="s">
+      <c r="N42" s="251" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="251"/>
-      <c r="P42" s="250" t="s">
+      <c r="O42" s="262"/>
+      <c r="P42" s="251" t="s">
         <v>185</v>
       </c>
       <c r="Q42" s="252"/>
       <c r="R42" s="253"/>
     </row>
     <row r="43" spans="4:18">
-      <c r="D43" s="257"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
-      <c r="H43" s="261"/>
-      <c r="I43" s="263"/>
-      <c r="J43" s="258"/>
-      <c r="K43" s="258"/>
+      <c r="D43" s="266"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="270"/>
+      <c r="I43" s="272"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
       <c r="L43" s="176" t="s">
         <v>188</v>
       </c>
@@ -6642,7 +6607,7 @@
       </c>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="4:18" ht="18" thickBot="1">
+    <row r="44" spans="4:18" ht="17.25" thickBot="1">
       <c r="D44" s="162" t="s">
         <v>115</v>
       </c>
@@ -7055,7 +7020,7 @@
         <v>6.9292496259778726</v>
       </c>
     </row>
-    <row r="51" spans="4:18" ht="18" thickBot="1">
+    <row r="51" spans="4:18" ht="17.25" thickBot="1">
       <c r="D51" s="189">
         <v>350</v>
       </c>
@@ -7116,7 +7081,7 @@
         <v>7.4844450100837072</v>
       </c>
     </row>
-    <row r="53" spans="4:18" ht="18" thickBot="1">
+    <row r="53" spans="4:18" ht="17.25" thickBot="1">
       <c r="D53" s="1" t="s">
         <v>196</v>
       </c>
@@ -7175,7 +7140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="4:18" ht="18" thickBot="1">
+    <row r="57" spans="4:18" ht="17.25" thickBot="1">
       <c r="D57" s="223" t="s">
         <v>202</v>
       </c>
@@ -7195,7 +7160,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="4:18" ht="18" thickBot="1">
+    <row r="59" spans="4:18" ht="17.25" thickBot="1">
       <c r="D59" s="217" t="s">
         <v>204</v>
       </c>
@@ -7240,7 +7205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="4:18" ht="18" thickBot="1">
+    <row r="62" spans="4:18" ht="17.25" thickBot="1">
       <c r="D62" s="224" t="s">
         <v>205</v>
       </c>
@@ -7266,18 +7231,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:R42"/>
     <mergeCell ref="N30:O30"/>
@@ -7286,6 +7239,18 @@
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="D42:H43"/>
     <mergeCell ref="I42:K43"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7297,17 +7262,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1"/>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="52" t="s">
         <v>84</v>
       </c>
@@ -7418,7 +7383,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="18" thickBot="1">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -7448,40 +7413,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
     <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="18" thickBot="1"/>
-    <row r="3" spans="2:35" ht="18" thickBot="1">
+    <row r="2" spans="2:35" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:35" ht="17.25" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
       <c r="D3" s="226" t="s">
@@ -7551,7 +7516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="18" thickBot="1">
+    <row r="5" spans="2:35" ht="17.25" thickBot="1">
       <c r="B5" s="45"/>
       <c r="C5" s="57" t="s">
         <v>12</v>
@@ -7653,7 +7618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="18" thickBot="1">
+    <row r="6" spans="2:35" ht="17.25" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>80</v>
       </c>
@@ -8142,7 +8107,7 @@
       <c r="AA14" s="90"/>
       <c r="AI14" s="93"/>
     </row>
-    <row r="15" spans="2:35" ht="18" thickBot="1">
+    <row r="15" spans="2:35" ht="17.25" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="60"/>
       <c r="D15" s="7"/>
@@ -8215,21 +8180,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18" thickBot="1">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="C2" t="s">
         <v>119</v>
       </c>
@@ -8260,7 +8225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="B4" s="107" t="s">
         <v>118</v>
       </c>
@@ -8572,7 +8537,7 @@
         <v>23.143750000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18" thickBot="1">
+    <row r="13" spans="2:13" ht="17.25" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -8621,40 +8586,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.8984375" customWidth="1"/>
-    <col min="12" max="13" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="18" thickBot="1"/>
+    <row r="3" spans="2:27" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
       <c r="B4" s="243" t="s">
         <v>126</v>
@@ -8697,7 +8662,7 @@
       <c r="Z4" s="238"/>
       <c r="AA4" s="242"/>
     </row>
-    <row r="5" spans="2:27" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:27" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="244"/>
       <c r="C5" s="24" t="s">
         <v>127</v>
@@ -8771,7 +8736,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="18" thickBot="1">
+    <row r="6" spans="2:27" ht="17.25" thickBot="1">
       <c r="B6" s="3">
         <v>0.8</v>
       </c>
@@ -8844,7 +8809,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="18" thickBot="1">
+    <row r="7" spans="2:27" ht="17.25" thickBot="1">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8900,7 +8865,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18" thickBot="1">
+    <row r="8" spans="2:27" ht="17.25" thickBot="1">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -9132,7 +9097,7 @@
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18" thickBot="1">
+    <row r="12" spans="2:27" ht="17.25" thickBot="1">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -9452,7 +9417,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="18" thickBot="1">
+    <row r="18" spans="2:27" ht="17.25" thickBot="1">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -9507,16 +9472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L8"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -9716,8 +9681,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" thickBot="1"/>
-    <row r="11" spans="2:11" ht="18" thickBot="1">
+    <row r="10" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="11" spans="2:11" ht="17.25" thickBot="1">
       <c r="B11" s="131" t="s">
         <v>55</v>
       </c>
@@ -9998,7 +9963,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="18" thickBot="1">
+    <row r="22" spans="2:10" ht="17.25" thickBot="1">
       <c r="B22" s="248"/>
       <c r="C22" s="240"/>
       <c r="D22" s="240"/>
@@ -10027,18 +9992,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:11">
@@ -10132,14 +10097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="249" t="s">
@@ -10187,39 +10152,39 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.8984375" customWidth="1"/>
-    <col min="11" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="24" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" ht="18" thickBot="1"/>
+    <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
       <c r="B4" s="238" t="s">
         <v>21</v>
@@ -10259,7 +10224,7 @@
       <c r="Y4" s="238"/>
       <c r="Z4" s="242"/>
     </row>
-    <row r="5" spans="2:26" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -10332,7 +10297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="18" thickBot="1">
+    <row r="6" spans="2:26" ht="17.25" thickBot="1">
       <c r="B6" s="10">
         <v>0.6</v>
       </c>
@@ -10400,7 +10365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="18" thickBot="1">
+    <row r="7" spans="2:26" ht="17.25" thickBot="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10453,7 +10418,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="18" thickBot="1">
+    <row r="8" spans="2:26" ht="17.25" thickBot="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -10637,7 +10602,7 @@
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="18" thickBot="1">
+    <row r="12" spans="2:26" ht="17.25" thickBot="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -10892,7 +10857,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="18" thickBot="1">
+    <row r="18" spans="2:26" ht="17.25" thickBot="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Test Date_20200207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -18,23 +18,16 @@
     <sheet name="Test sheet (2)" sheetId="10" r:id="rId9"/>
     <sheet name="0229" sheetId="13" r:id="rId10"/>
     <sheet name="0229 (2)" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
-    <sheet name="Coupler" sheetId="11" r:id="rId13"/>
+    <sheet name="Coupler" sheetId="11" r:id="rId12"/>
+    <sheet name="Pout table" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="225">
   <si>
     <t>CPU AD8051</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +920,83 @@
   </si>
   <si>
     <t>SMPS 48V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R1[k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2[kΩ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout[Vpp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50Ω에 병렬로 저항을 추가하여 전압 분배하여 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_buck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coupler에서 Vfwd=11.6Vpp , Vreflected=11.6Vpp 출력, 반사파가 90도 shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open시킨 경우, 180도 shift됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1697,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2073,6 +2143,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2154,68 +2234,68 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2226,9 +2306,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2254,7 +2331,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6F77A9-FEA9-45DA-87D2-086B17683761}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F77A9-FEA9-45DA-87D2-086B17683761}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2392,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="SWR 브리지의 회로도">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81C3430D-C091-4C50-9B59-A1931072C053}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C3430D-C091-4C50-9B59-A1931072C053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2453,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BCAF82E-D8D6-45E0-8C46-F0F1020E5DFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCAF82E-D8D6-45E0-8C46-F0F1020E5DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2514,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15DCCD1A-57BD-4EFE-8971-DB6743437742}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DCCD1A-57BD-4EFE-8971-DB6743437742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2575,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B13674B6-96A0-4841-A4CF-5F1D17BB2FB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13674B6-96A0-4841-A4CF-5F1D17BB2FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,14 +2939,14 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="225" t="s">
+      <c r="L4" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225" t="s">
+      <c r="M4" s="229"/>
+      <c r="N4" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="225"/>
+      <c r="O4" s="229"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:24" s="15" customFormat="1" ht="17.25" thickBot="1">
@@ -3441,10 +3518,10 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="17.25" thickBot="1">
-      <c r="N21" s="226" t="s">
+      <c r="N21" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="227"/>
+      <c r="O21" s="231"/>
     </row>
     <row r="22" spans="2:17" s="46" customFormat="1" ht="17.25" thickBot="1">
       <c r="C22" s="47" t="s">
@@ -3770,43 +3847,43 @@
   <sheetData>
     <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238" t="s">
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="238"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="245" t="s">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="238" t="s">
+      <c r="U4" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="238"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238" t="s">
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="242"/>
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="246"/>
     </row>
     <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="174" t="s">
@@ -3861,7 +3938,7 @@
       <c r="S5" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="246"/>
+      <c r="T5" s="250"/>
       <c r="U5" s="119" t="s">
         <v>97</v>
       </c>
@@ -3964,7 +4041,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="50" t="e">
-        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <f>F7*I7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2"/>
@@ -3990,7 +4067,7 @@
         <v>26</v>
       </c>
       <c r="W7" s="36">
-        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
+        <f t="shared" ref="W7:W18" si="1">V7*V7/T7</f>
         <v>13.52</v>
       </c>
       <c r="X7" s="2">
@@ -4000,7 +4077,7 @@
         <v>0.9</v>
       </c>
       <c r="Z7" s="124">
-        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
+        <f t="shared" ref="Z7:Z18" si="2">X7*Y7</f>
         <v>21.6</v>
       </c>
     </row>
@@ -4017,7 +4094,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="130" t="e">
-        <f t="shared" si="1"/>
+        <f>F8*I8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="8"/>
@@ -4047,7 +4124,7 @@
         <v>21.4</v>
       </c>
       <c r="W8" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.1591999999999985</v>
       </c>
       <c r="X8" s="8">
@@ -4057,7 +4134,7 @@
         <v>5</v>
       </c>
       <c r="Z8" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
@@ -4074,7 +4151,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J9" s="50" t="e">
-        <f t="shared" si="1"/>
+        <f>F9*I9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="10"/>
@@ -4096,7 +4173,7 @@
         <v>29.8</v>
       </c>
       <c r="W9" s="122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.760800000000003</v>
       </c>
       <c r="X9" s="10">
@@ -4106,7 +4183,7 @@
         <v>5.6</v>
       </c>
       <c r="Z9" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>156.79999999999998</v>
       </c>
     </row>
@@ -4142,7 +4219,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="W10" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20.736800000000002</v>
       </c>
       <c r="X10" s="2">
@@ -4152,7 +4229,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="Z10" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>262.39999999999998</v>
       </c>
     </row>
@@ -4188,7 +4265,7 @@
         <v>34.4</v>
       </c>
       <c r="W11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.667199999999998</v>
       </c>
       <c r="X11" s="2">
@@ -4198,7 +4275,7 @@
         <v>10</v>
       </c>
       <c r="Z11" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
@@ -4238,7 +4315,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="W12" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26.353799999999996</v>
       </c>
       <c r="X12" s="8">
@@ -4248,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="Z12" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
@@ -4265,7 +4342,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="127" t="e">
-        <f t="shared" ref="J13" si="4">F13*I13</f>
+        <f>F13*I13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="54"/>
@@ -4289,7 +4366,7 @@
         <v>43.8</v>
       </c>
       <c r="W13" s="128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38.368799999999993</v>
       </c>
       <c r="X13" s="54">
@@ -4299,7 +4376,7 @@
         <v>4.3</v>
       </c>
       <c r="Z13" s="129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>189.2</v>
       </c>
     </row>
@@ -4335,7 +4412,7 @@
         <v>46.4</v>
       </c>
       <c r="W14" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43.059200000000004</v>
       </c>
       <c r="X14" s="2">
@@ -4345,7 +4422,7 @@
         <v>5.2</v>
       </c>
       <c r="Z14" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>249.60000000000002</v>
       </c>
     </row>
@@ -4381,7 +4458,7 @@
         <v>76</v>
       </c>
       <c r="W15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115.52</v>
       </c>
       <c r="X15" s="2">
@@ -4391,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="Z15" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
     </row>
@@ -4445,7 +4522,7 @@
         <v>57.8</v>
       </c>
       <c r="W16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66.816800000000001</v>
       </c>
       <c r="X16" s="2">
@@ -4455,7 +4532,7 @@
         <v>8.4</v>
       </c>
       <c r="Z16" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>151.20000000000002</v>
       </c>
     </row>
@@ -4497,7 +4574,7 @@
         <v>63.8</v>
       </c>
       <c r="W17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81.408799999999985</v>
       </c>
       <c r="X17" s="2">
@@ -4507,7 +4584,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Z17" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
@@ -4543,7 +4620,7 @@
         <v>70.599999999999994</v>
       </c>
       <c r="W18" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.687199999999976</v>
       </c>
       <c r="X18" s="8">
@@ -4551,7 +4628,7 @@
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,7 +4651,7 @@
   <dimension ref="B3:AD18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4604,49 +4681,49 @@
   <sheetData>
     <row r="3" spans="2:30" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:30" s="15" customFormat="1">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238" t="s">
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="238"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="245" t="s">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="238" t="s">
+      <c r="U4" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="238"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238" t="s">
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="238"/>
-      <c r="AA4" s="238" t="s">
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="242"/>
+      <c r="AA4" s="242" t="s">
         <v>208</v>
       </c>
-      <c r="AB4" s="238"/>
-      <c r="AC4" s="238"/>
-      <c r="AD4" s="242"/>
+      <c r="AB4" s="242"/>
+      <c r="AC4" s="242"/>
+      <c r="AD4" s="246"/>
     </row>
     <row r="5" spans="2:30" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="154" t="s">
@@ -4701,7 +4778,7 @@
       <c r="S5" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="246"/>
+      <c r="T5" s="250"/>
       <c r="U5" s="119" t="s">
         <v>97</v>
       </c>
@@ -4830,7 +4907,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="37" t="e">
-        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <f>F7*I7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2"/>
@@ -4848,23 +4925,23 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="36">
-        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
+        <f t="shared" ref="W7:W18" si="1">V7*V7/T7</f>
         <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="36">
-        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
+        <f t="shared" ref="Z7:Z18" si="2">X7*Y7</f>
         <v>0</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="36">
-        <f t="shared" ref="AB7:AD18" si="4">48*AA7</f>
+        <f t="shared" ref="AB7:AD18" si="3">48*AA7</f>
         <v>0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4881,7 +4958,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f>F8*I8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="2"/>
@@ -4899,23 +4976,23 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5009,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J9" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f>F9*I9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="2"/>
@@ -4950,23 +5027,23 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4998,23 +5075,23 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5046,23 +5123,23 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5094,23 +5171,23 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5127,7 +5204,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="37" t="e">
-        <f t="shared" ref="J13" si="5">F13*I13</f>
+        <f>F13*I13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="2"/>
@@ -5145,23 +5222,23 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5193,23 +5270,23 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5241,23 +5318,23 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5289,23 +5366,23 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5337,23 +5414,23 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5385,23 +5462,23 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="125">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5422,24 +5499,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
@@ -5479,20 +5541,20 @@
     </row>
     <row r="6" spans="2:13">
       <c r="C6" s="1"/>
-      <c r="D6" s="251" t="s">
+      <c r="D6" s="255" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="251" t="s">
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="253"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="258"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1">
       <c r="C7" s="1"/>
@@ -5575,7 +5637,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="103">
-        <f t="shared" ref="E9:E12" si="0">(D9*50)^0.5</f>
+        <f>(D9*50)^0.5</f>
         <v>70.710678118654755</v>
       </c>
       <c r="F9" s="103">
@@ -5583,11 +5645,11 @@
         <v>200.03020684202195</v>
       </c>
       <c r="G9" s="103">
-        <f t="shared" ref="G9:G12" si="1">D9/E9</f>
+        <f>D9/E9</f>
         <v>1.4142135623730949</v>
       </c>
       <c r="H9" s="108">
-        <f t="shared" ref="H9:H12" si="2">G9/0.707*2</f>
+        <f>G9/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
       <c r="I9" s="146">
@@ -5595,15 +5657,15 @@
         <v>2.8284271247461903</v>
       </c>
       <c r="J9" s="103">
-        <f t="shared" ref="J9:J12" si="3">I9/0.707*2</f>
+        <f>I9/0.707*2</f>
         <v>8.0012082736808789</v>
       </c>
       <c r="K9" s="147">
-        <f t="shared" ref="K9:K12" si="4">I9*I9/50</f>
+        <f>I9*I9/50</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="L9" s="147">
-        <f t="shared" ref="L9:L12" si="5">K9/I9</f>
+        <f>K9/I9</f>
         <v>5.656854249492381E-2</v>
       </c>
       <c r="M9" s="108">
@@ -5617,7 +5679,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="0"/>
+        <f>(D10*50)^0.5</f>
         <v>122.47448713915891</v>
       </c>
       <c r="F10" s="21">
@@ -5625,11 +5687,11 @@
         <v>346.46248129889369</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="1"/>
+        <f>D10/E10</f>
         <v>2.4494897427831779</v>
       </c>
       <c r="H10" s="159">
-        <f t="shared" si="2"/>
+        <f>G10/0.707*2</f>
         <v>6.9292496259778726</v>
       </c>
       <c r="I10" s="160">
@@ -5637,19 +5699,19 @@
         <v>4.8989794855663567</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="3"/>
+        <f>I10/0.707*2</f>
         <v>13.858499251955749</v>
       </c>
       <c r="K10" s="161">
-        <f t="shared" si="4"/>
+        <f>I10*I10/50</f>
         <v>0.48000000000000009</v>
       </c>
       <c r="L10" s="161">
-        <f t="shared" si="5"/>
+        <f>K10/I10</f>
         <v>9.7979589711327128E-2</v>
       </c>
       <c r="M10" s="159">
-        <f t="shared" ref="M10:M12" si="6">L10/0.707*2</f>
+        <f>L10/0.707*2</f>
         <v>0.27716998503911494</v>
       </c>
     </row>
@@ -5659,7 +5721,7 @@
         <v>600</v>
       </c>
       <c r="E11" s="103">
-        <f t="shared" si="0"/>
+        <f>(D11*50)^0.5</f>
         <v>173.20508075688772</v>
       </c>
       <c r="F11" s="103">
@@ -5667,11 +5729,11 @@
         <v>489.97193990633025</v>
       </c>
       <c r="G11" s="103">
-        <f t="shared" si="1"/>
+        <f>D11/E11</f>
         <v>3.4641016151377548</v>
       </c>
       <c r="H11" s="108">
-        <f t="shared" si="2"/>
+        <f>G11/0.707*2</f>
         <v>9.7994387981266051</v>
       </c>
       <c r="I11" s="146">
@@ -5679,19 +5741,19 @@
         <v>6.9282032302755088</v>
       </c>
       <c r="J11" s="103">
-        <f t="shared" si="3"/>
+        <f>I11/0.707*2</f>
         <v>19.598877596253207</v>
       </c>
       <c r="K11" s="147">
-        <f t="shared" si="4"/>
+        <f>I11*I11/50</f>
         <v>0.95999999999999985</v>
       </c>
       <c r="L11" s="147">
-        <f t="shared" si="5"/>
+        <f>K11/I11</f>
         <v>0.13856406460551016</v>
       </c>
       <c r="M11" s="108">
-        <f t="shared" si="6"/>
+        <f>L11/0.707*2</f>
         <v>0.39197755192506412</v>
       </c>
     </row>
@@ -5701,7 +5763,7 @@
         <v>1000</v>
       </c>
       <c r="E12" s="148">
-        <f t="shared" si="0"/>
+        <f>(D12*50)^0.5</f>
         <v>223.60679774997897</v>
       </c>
       <c r="F12" s="148">
@@ -5709,11 +5771,11 @@
         <v>632.55105445538607</v>
       </c>
       <c r="G12" s="148">
-        <f t="shared" si="1"/>
+        <f>D12/E12</f>
         <v>4.4721359549995796</v>
       </c>
       <c r="H12" s="158">
-        <f t="shared" si="2"/>
+        <f>G12/0.707*2</f>
         <v>12.651021089107722</v>
       </c>
       <c r="I12" s="149">
@@ -5721,19 +5783,19 @@
         <v>8.9442719099991592</v>
       </c>
       <c r="J12" s="148">
-        <f t="shared" si="3"/>
+        <f>I12/0.707*2</f>
         <v>25.302042178215444</v>
       </c>
       <c r="K12" s="150">
-        <f t="shared" si="4"/>
+        <f>I12*I12/50</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="L12" s="150">
-        <f t="shared" si="5"/>
+        <f>K12/I12</f>
         <v>0.1788854381999832</v>
       </c>
       <c r="M12" s="158">
-        <f t="shared" si="6"/>
+        <f>L12/0.707*2</f>
         <v>0.5060408435643089</v>
       </c>
     </row>
@@ -5743,10 +5805,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1">
-      <c r="D15" s="226" t="s">
+      <c r="D15" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="227"/>
+      <c r="E15" s="231"/>
       <c r="F15" s="140" t="s">
         <v>47</v>
       </c>
@@ -5770,10 +5832,10 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="D16" s="254" t="s">
+      <c r="D16" s="275" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="255"/>
+      <c r="E16" s="276"/>
       <c r="F16" s="115">
         <v>35.549999999999997</v>
       </c>
@@ -5797,10 +5859,10 @@
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="D17" s="256" t="s">
+      <c r="D17" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="257"/>
+      <c r="E17" s="273"/>
       <c r="F17" s="4">
         <v>885</v>
       </c>
@@ -5822,32 +5884,32 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="D18" s="256" t="s">
+      <c r="D18" s="269" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="257"/>
+      <c r="E18" s="273"/>
       <c r="F18" s="152">
-        <f t="shared" ref="F18:K18" si="7">F17*25^2/1000</f>
+        <f t="shared" ref="F18:K18" si="0">F17*25^2/1000</f>
         <v>553.125</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>318.75</v>
       </c>
       <c r="H18" s="103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>293.75</v>
       </c>
       <c r="I18" s="103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>318.75</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>318.75</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -5855,10 +5917,10 @@
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="D19" s="256" t="s">
+      <c r="D19" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="257"/>
+      <c r="E19" s="273"/>
       <c r="F19" s="4">
         <v>0.3</v>
       </c>
@@ -5882,32 +5944,32 @@
       </c>
     </row>
     <row r="20" spans="3:18">
-      <c r="D20" s="256" t="s">
+      <c r="D20" s="269" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="257"/>
+      <c r="E20" s="273"/>
       <c r="F20" s="152">
-        <f t="shared" ref="F20:K20" si="8">2*3.14*F19*F18</f>
+        <f t="shared" ref="F20:K20" si="1">2*3.14*F19*F18</f>
         <v>1042.0874999999999</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>600.52499999999998</v>
       </c>
       <c r="H20" s="103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>553.42499999999995</v>
       </c>
       <c r="I20" s="103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>518.1</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>54287.46</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>27323.887500000004</v>
       </c>
       <c r="L20" s="153" t="s">
@@ -5915,10 +5977,10 @@
       </c>
     </row>
     <row r="21" spans="3:18" ht="17.25" thickBot="1">
-      <c r="D21" s="259" t="s">
+      <c r="D21" s="271" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="261"/>
+      <c r="E21" s="274"/>
       <c r="F21" s="149">
         <v>1.226</v>
       </c>
@@ -5947,10 +6009,10 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="D24" s="250" t="s">
+      <c r="D24" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="238"/>
+      <c r="E24" s="242"/>
       <c r="F24" s="10">
         <v>30</v>
       </c>
@@ -5959,10 +6021,10 @@
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="D25" s="256" t="s">
+      <c r="D25" s="269" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="258"/>
+      <c r="E25" s="270"/>
       <c r="F25" s="2">
         <f>300/F24</f>
         <v>10</v>
@@ -5972,10 +6034,10 @@
       </c>
     </row>
     <row r="26" spans="3:18" ht="17.25" thickBot="1">
-      <c r="D26" s="259" t="s">
+      <c r="D26" s="271" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="260"/>
+      <c r="E26" s="272"/>
       <c r="F26" s="8">
         <f>F25/10</f>
         <v>1</v>
@@ -5996,43 +6058,43 @@
       </c>
     </row>
     <row r="30" spans="3:18">
-      <c r="D30" s="263" t="s">
+      <c r="D30" s="259" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="264"/>
-      <c r="F30" s="264"/>
-      <c r="G30" s="264"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="263" t="s">
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="261"/>
+      <c r="I30" s="259" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="264"/>
-      <c r="K30" s="264"/>
+      <c r="J30" s="260"/>
+      <c r="K30" s="260"/>
       <c r="L30" s="165" t="s">
         <v>187</v>
       </c>
       <c r="M30" s="166">
         <v>25</v>
       </c>
-      <c r="N30" s="251" t="s">
+      <c r="N30" s="255" t="s">
         <v>183</v>
       </c>
-      <c r="O30" s="262"/>
-      <c r="P30" s="251" t="s">
+      <c r="O30" s="256"/>
+      <c r="P30" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="252"/>
-      <c r="R30" s="253"/>
+      <c r="Q30" s="257"/>
+      <c r="R30" s="258"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="268"/>
-      <c r="I31" s="266"/>
-      <c r="J31" s="267"/>
-      <c r="K31" s="267"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="262"/>
+      <c r="J31" s="263"/>
+      <c r="K31" s="263"/>
       <c r="L31" s="176" t="s">
         <v>188</v>
       </c>
@@ -6105,15 +6167,15 @@
         <v>50</v>
       </c>
       <c r="E33" s="178">
-        <f>(D33*50)^0.5</f>
+        <f t="shared" ref="E33:E39" si="2">(D33*50)^0.5</f>
         <v>50</v>
       </c>
       <c r="F33" s="178">
-        <f t="shared" ref="F33:F39" si="9">E33/0.707*2</f>
+        <f t="shared" ref="F33:F39" si="3">E33/0.707*2</f>
         <v>141.44271570014146</v>
       </c>
       <c r="G33" s="178">
-        <f>D33/E33</f>
+        <f t="shared" ref="G33:G39" si="4">D33/E33</f>
         <v>1</v>
       </c>
       <c r="H33" s="179">
@@ -6129,31 +6191,31 @@
         <v>5.6577086280056577</v>
       </c>
       <c r="K33" s="178">
-        <f>I33*I33/50</f>
+        <f t="shared" ref="K33:K39" si="5">I33*I33/50</f>
         <v>0.08</v>
       </c>
       <c r="L33" s="180">
-        <f>K33/I33</f>
+        <f t="shared" ref="L33:L39" si="6">K33/I33</f>
         <v>0.04</v>
       </c>
       <c r="M33" s="179">
-        <f>L33/0.707*2</f>
+        <f t="shared" ref="M33:M39" si="7">L33/0.707*2</f>
         <v>0.11315417256011316</v>
       </c>
       <c r="N33" s="198">
-        <f t="shared" ref="N33:N39" si="10">I33*O$31/(O$31+Q$31)</f>
+        <f t="shared" ref="N33:N39" si="8">I33*O$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
       <c r="O33" s="203">
-        <f t="shared" ref="O33:O39" si="11">N33*N33/(O$31*1000)</f>
+        <f t="shared" ref="O33:O39" si="9">N33*N33/(O$31*1000)</f>
         <v>1E-3</v>
       </c>
       <c r="P33" s="207">
-        <f t="shared" ref="P33:P39" si="12">I33*Q$31/(O$31+Q$31)</f>
+        <f t="shared" ref="P33:P39" si="10">I33*Q$31/(O$31+Q$31)</f>
         <v>1</v>
       </c>
       <c r="Q33" s="181">
-        <f t="shared" ref="Q33:Q39" si="13">P33*P33/(Q$31*1000)</f>
+        <f t="shared" ref="Q33:Q39" si="11">P33*P33/(Q$31*1000)</f>
         <v>1E-3</v>
       </c>
       <c r="R33" s="179">
@@ -6166,59 +6228,59 @@
         <v>100</v>
       </c>
       <c r="E34" s="184">
-        <f t="shared" ref="E34:E35" si="14">(D34*50)^0.5</f>
+        <f t="shared" si="2"/>
         <v>70.710678118654755</v>
       </c>
       <c r="F34" s="184">
+        <f t="shared" si="3"/>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G34" s="184">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="H34" s="185">
+        <f t="shared" ref="H34:H39" si="12">G34/0.707*2</f>
+        <v>4.0006041368404386</v>
+      </c>
+      <c r="I34" s="198">
+        <f t="shared" ref="I34:I39" si="13">E34/M$30</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J34" s="195">
+        <f t="shared" ref="J34:J39" si="14">I34/0.707*2</f>
+        <v>8.0012082736808789</v>
+      </c>
+      <c r="K34" s="184">
+        <f t="shared" si="5"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="L34" s="186">
+        <f t="shared" si="6"/>
+        <v>5.656854249492381E-2</v>
+      </c>
+      <c r="M34" s="185">
+        <f t="shared" si="7"/>
+        <v>0.16002416547361759</v>
+      </c>
+      <c r="N34" s="199">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O34" s="204">
         <f t="shared" si="9"/>
-        <v>200.03020684202195</v>
-      </c>
-      <c r="G34" s="184">
-        <f t="shared" ref="G34:G35" si="15">D34/E34</f>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="H34" s="185">
-        <f t="shared" ref="H34:H39" si="16">G34/0.707*2</f>
-        <v>4.0006041368404386</v>
-      </c>
-      <c r="I34" s="198">
-        <f t="shared" ref="I34:I39" si="17">E34/M$30</f>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="J34" s="195">
-        <f t="shared" ref="J34:J39" si="18">I34/0.707*2</f>
-        <v>8.0012082736808789</v>
-      </c>
-      <c r="K34" s="184">
-        <f t="shared" ref="K34:K35" si="19">I34*I34/50</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="L34" s="186">
-        <f t="shared" ref="L34:L35" si="20">K34/I34</f>
-        <v>5.656854249492381E-2</v>
-      </c>
-      <c r="M34" s="185">
-        <f>L34/0.707*2</f>
-        <v>0.16002416547361759</v>
-      </c>
-      <c r="N34" s="199">
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="P34" s="199">
         <f t="shared" si="10"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="O34" s="204">
+      <c r="Q34" s="187">
         <f t="shared" si="11"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="P34" s="199">
-        <f t="shared" si="12"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q34" s="187">
-        <f t="shared" si="13"/>
-        <v>2.0000000000000005E-3</v>
-      </c>
       <c r="R34" s="185">
-        <f t="shared" ref="R34:R39" si="21">P34/0.707*2</f>
+        <f t="shared" ref="R34:R39" si="15">P34/0.707*2</f>
         <v>4.0006041368404395</v>
       </c>
     </row>
@@ -6227,59 +6289,59 @@
         <v>150</v>
       </c>
       <c r="E35" s="184">
+        <f t="shared" si="2"/>
+        <v>86.602540378443862</v>
+      </c>
+      <c r="F35" s="184">
+        <f t="shared" si="3"/>
+        <v>244.98596995316512</v>
+      </c>
+      <c r="G35" s="184">
+        <f t="shared" si="4"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="H35" s="185">
+        <f t="shared" si="12"/>
+        <v>4.8997193990633026</v>
+      </c>
+      <c r="I35" s="198">
+        <f t="shared" si="13"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="J35" s="195">
         <f t="shared" si="14"/>
-        <v>86.602540378443862</v>
-      </c>
-      <c r="F35" s="184">
+        <v>9.7994387981266033</v>
+      </c>
+      <c r="K35" s="184">
+        <f t="shared" si="5"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="L35" s="186">
+        <f t="shared" si="6"/>
+        <v>6.9282032302755078E-2</v>
+      </c>
+      <c r="M35" s="185">
+        <f t="shared" si="7"/>
+        <v>0.19598877596253206</v>
+      </c>
+      <c r="N35" s="199">
+        <f t="shared" si="8"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O35" s="204">
         <f t="shared" si="9"/>
-        <v>244.98596995316512</v>
-      </c>
-      <c r="G35" s="184">
-        <f t="shared" si="15"/>
-        <v>1.7320508075688774</v>
-      </c>
-      <c r="H35" s="185">
-        <f t="shared" si="16"/>
-        <v>4.8997193990633026</v>
-      </c>
-      <c r="I35" s="198">
-        <f t="shared" si="17"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="J35" s="195">
-        <f t="shared" si="18"/>
-        <v>9.7994387981266033</v>
-      </c>
-      <c r="K35" s="184">
-        <f t="shared" si="19"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="L35" s="186">
-        <f t="shared" si="20"/>
-        <v>6.9282032302755078E-2</v>
-      </c>
-      <c r="M35" s="185">
-        <f t="shared" ref="M35:M39" si="22">L35/0.707*2</f>
-        <v>0.19598877596253206</v>
-      </c>
-      <c r="N35" s="199">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="P35" s="199">
         <f t="shared" si="10"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="O35" s="204">
+      <c r="Q35" s="187">
         <f t="shared" si="11"/>
         <v>2.9999999999999996E-3</v>
       </c>
-      <c r="P35" s="199">
-        <f t="shared" si="12"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="Q35" s="187">
-        <f t="shared" si="13"/>
-        <v>2.9999999999999996E-3</v>
-      </c>
       <c r="R35" s="185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.8997193990633017</v>
       </c>
     </row>
@@ -6288,59 +6350,59 @@
         <v>200</v>
       </c>
       <c r="E36" s="184">
-        <f t="shared" ref="E36" si="23">(D36*50)^0.5</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F36" s="184">
+        <f t="shared" si="3"/>
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G36" s="184">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H36" s="185">
+        <f t="shared" si="12"/>
+        <v>5.6577086280056577</v>
+      </c>
+      <c r="I36" s="198">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="195">
+        <f t="shared" si="14"/>
+        <v>11.315417256011315</v>
+      </c>
+      <c r="K36" s="184">
+        <f t="shared" si="5"/>
+        <v>0.32</v>
+      </c>
+      <c r="L36" s="186">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+      <c r="M36" s="185">
+        <f t="shared" si="7"/>
+        <v>0.22630834512022632</v>
+      </c>
+      <c r="N36" s="199">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O36" s="204">
         <f t="shared" si="9"/>
-        <v>282.88543140028293</v>
-      </c>
-      <c r="G36" s="184">
-        <f t="shared" ref="G36" si="24">D36/E36</f>
-        <v>2</v>
-      </c>
-      <c r="H36" s="185">
-        <f t="shared" si="16"/>
-        <v>5.6577086280056577</v>
-      </c>
-      <c r="I36" s="198">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="J36" s="195">
-        <f t="shared" si="18"/>
-        <v>11.315417256011315</v>
-      </c>
-      <c r="K36" s="184">
-        <f t="shared" ref="K36" si="25">I36*I36/50</f>
-        <v>0.32</v>
-      </c>
-      <c r="L36" s="186">
-        <f t="shared" ref="L36" si="26">K36/I36</f>
-        <v>0.08</v>
-      </c>
-      <c r="M36" s="185">
-        <f t="shared" si="22"/>
-        <v>0.22630834512022632</v>
-      </c>
-      <c r="N36" s="199">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P36" s="199">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O36" s="204">
+      <c r="Q36" s="187">
         <f t="shared" si="11"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P36" s="199">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Q36" s="187">
-        <f t="shared" si="13"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="R36" s="185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.6577086280056577</v>
       </c>
     </row>
@@ -6349,59 +6411,59 @@
         <v>250</v>
       </c>
       <c r="E37" s="184">
-        <f t="shared" ref="E37" si="27">(D37*50)^0.5</f>
+        <f t="shared" si="2"/>
         <v>111.80339887498948</v>
       </c>
       <c r="F37" s="184">
+        <f t="shared" si="3"/>
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G37" s="184">
+        <f t="shared" si="4"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H37" s="185">
+        <f t="shared" si="12"/>
+        <v>6.3255105445538611</v>
+      </c>
+      <c r="I37" s="198">
+        <f t="shared" si="13"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="J37" s="195">
+        <f t="shared" si="14"/>
+        <v>12.651021089107722</v>
+      </c>
+      <c r="K37" s="184">
+        <f t="shared" si="5"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="L37" s="186">
+        <f t="shared" si="6"/>
+        <v>8.9442719099991602E-2</v>
+      </c>
+      <c r="M37" s="185">
+        <f t="shared" si="7"/>
+        <v>0.25302042178215445</v>
+      </c>
+      <c r="N37" s="199">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O37" s="204">
         <f t="shared" si="9"/>
-        <v>316.27552722769303</v>
-      </c>
-      <c r="G37" s="184">
-        <f t="shared" ref="G37" si="28">D37/E37</f>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="H37" s="185">
-        <f t="shared" si="16"/>
-        <v>6.3255105445538611</v>
-      </c>
-      <c r="I37" s="198">
-        <f t="shared" si="17"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="J37" s="195">
-        <f t="shared" si="18"/>
-        <v>12.651021089107722</v>
-      </c>
-      <c r="K37" s="184">
-        <f t="shared" ref="K37" si="29">I37*I37/50</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="L37" s="186">
-        <f t="shared" ref="L37" si="30">K37/I37</f>
-        <v>8.9442719099991602E-2</v>
-      </c>
-      <c r="M37" s="185">
-        <f t="shared" si="22"/>
-        <v>0.25302042178215445</v>
-      </c>
-      <c r="N37" s="199">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P37" s="199">
         <f t="shared" si="10"/>
         <v>2.2360679774997898</v>
       </c>
-      <c r="O37" s="204">
+      <c r="Q37" s="187">
         <f t="shared" si="11"/>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="P37" s="199">
-        <f t="shared" si="12"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Q37" s="187">
-        <f t="shared" si="13"/>
-        <v>5.000000000000001E-3</v>
-      </c>
       <c r="R37" s="185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.3255105445538611</v>
       </c>
     </row>
@@ -6410,59 +6472,59 @@
         <v>300</v>
       </c>
       <c r="E38" s="184">
-        <f t="shared" ref="E38:E39" si="31">(D38*50)^0.5</f>
+        <f t="shared" si="2"/>
         <v>122.47448713915891</v>
       </c>
       <c r="F38" s="184">
+        <f t="shared" si="3"/>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G38" s="184">
+        <f t="shared" si="4"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H38" s="185">
+        <f t="shared" si="12"/>
+        <v>6.9292496259778726</v>
+      </c>
+      <c r="I38" s="198">
+        <f t="shared" si="13"/>
+        <v>4.8989794855663567</v>
+      </c>
+      <c r="J38" s="195">
+        <f t="shared" si="14"/>
+        <v>13.858499251955749</v>
+      </c>
+      <c r="K38" s="184">
+        <f t="shared" si="5"/>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="L38" s="186">
+        <f t="shared" si="6"/>
+        <v>9.7979589711327128E-2</v>
+      </c>
+      <c r="M38" s="185">
+        <f t="shared" si="7"/>
+        <v>0.27716998503911494</v>
+      </c>
+      <c r="N38" s="199">
+        <f t="shared" si="8"/>
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="O38" s="204">
         <f t="shared" si="9"/>
-        <v>346.46248129889369</v>
-      </c>
-      <c r="G38" s="184">
-        <f t="shared" ref="G38:G39" si="32">D38/E38</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H38" s="185">
-        <f t="shared" si="16"/>
-        <v>6.9292496259778726</v>
-      </c>
-      <c r="I38" s="198">
-        <f t="shared" si="17"/>
-        <v>4.8989794855663567</v>
-      </c>
-      <c r="J38" s="195">
-        <f t="shared" si="18"/>
-        <v>13.858499251955749</v>
-      </c>
-      <c r="K38" s="184">
-        <f t="shared" ref="K38:K39" si="33">I38*I38/50</f>
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="L38" s="186">
-        <f t="shared" ref="L38:L39" si="34">K38/I38</f>
-        <v>9.7979589711327128E-2</v>
-      </c>
-      <c r="M38" s="185">
-        <f t="shared" si="22"/>
-        <v>0.27716998503911494</v>
-      </c>
-      <c r="N38" s="199">
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="P38" s="199">
         <f t="shared" si="10"/>
         <v>2.4494897427831783</v>
       </c>
-      <c r="O38" s="204">
+      <c r="Q38" s="187">
         <f t="shared" si="11"/>
         <v>6.000000000000001E-3</v>
       </c>
-      <c r="P38" s="199">
-        <f t="shared" si="12"/>
-        <v>2.4494897427831783</v>
-      </c>
-      <c r="Q38" s="187">
-        <f t="shared" si="13"/>
-        <v>6.000000000000001E-3</v>
-      </c>
       <c r="R38" s="185">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.9292496259778744</v>
       </c>
     </row>
@@ -6471,59 +6533,59 @@
         <v>350</v>
       </c>
       <c r="E39" s="190">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>132.28756555322954</v>
       </c>
       <c r="F39" s="190">
+        <f t="shared" si="3"/>
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G39" s="190">
+        <f t="shared" si="4"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="H39" s="191">
+        <f t="shared" si="12"/>
+        <v>7.4844450100837072</v>
+      </c>
+      <c r="I39" s="208">
+        <f t="shared" si="13"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="J39" s="201">
+        <f t="shared" si="14"/>
+        <v>14.968890020167416</v>
+      </c>
+      <c r="K39" s="190">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L39" s="192">
+        <f t="shared" si="6"/>
+        <v>0.10583005244258363</v>
+      </c>
+      <c r="M39" s="191">
+        <f t="shared" si="7"/>
+        <v>0.29937780040334833</v>
+      </c>
+      <c r="N39" s="200">
+        <f t="shared" si="8"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="O39" s="205">
         <f t="shared" si="9"/>
-        <v>374.22225050418541</v>
-      </c>
-      <c r="G39" s="190">
-        <f t="shared" si="32"/>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="H39" s="191">
-        <f t="shared" si="16"/>
-        <v>7.4844450100837072</v>
-      </c>
-      <c r="I39" s="208">
-        <f t="shared" si="17"/>
-        <v>5.2915026221291814</v>
-      </c>
-      <c r="J39" s="201">
-        <f t="shared" si="18"/>
-        <v>14.968890020167416</v>
-      </c>
-      <c r="K39" s="190">
-        <f t="shared" si="33"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L39" s="192">
-        <f t="shared" si="34"/>
-        <v>0.10583005244258363</v>
-      </c>
-      <c r="M39" s="191">
-        <f t="shared" si="22"/>
-        <v>0.29937780040334833</v>
-      </c>
-      <c r="N39" s="200">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="P39" s="200">
         <f t="shared" si="10"/>
         <v>2.6457513110645907</v>
       </c>
-      <c r="O39" s="205">
+      <c r="Q39" s="193">
         <f t="shared" si="11"/>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="P39" s="200">
-        <f t="shared" si="12"/>
-        <v>2.6457513110645907</v>
-      </c>
-      <c r="Q39" s="193">
-        <f t="shared" si="13"/>
-        <v>7.000000000000001E-3</v>
-      </c>
       <c r="R39" s="191">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.4844450100837081</v>
       </c>
     </row>
@@ -6550,43 +6612,43 @@
       </c>
     </row>
     <row r="42" spans="4:18">
-      <c r="D42" s="263" t="s">
+      <c r="D42" s="259" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="264"/>
-      <c r="F42" s="264"/>
-      <c r="G42" s="264"/>
-      <c r="H42" s="269"/>
-      <c r="I42" s="271" t="s">
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="264"/>
-      <c r="K42" s="264"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
       <c r="L42" s="165" t="s">
         <v>187</v>
       </c>
       <c r="M42" s="166">
         <v>1</v>
       </c>
-      <c r="N42" s="251" t="s">
+      <c r="N42" s="255" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="262"/>
-      <c r="P42" s="251" t="s">
+      <c r="O42" s="256"/>
+      <c r="P42" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="Q42" s="252"/>
-      <c r="R42" s="253"/>
+      <c r="Q42" s="257"/>
+      <c r="R42" s="258"/>
     </row>
     <row r="43" spans="4:18">
-      <c r="D43" s="266"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="267"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="270"/>
-      <c r="I43" s="272"/>
-      <c r="J43" s="267"/>
-      <c r="K43" s="267"/>
+      <c r="D43" s="262"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="263"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="268"/>
+      <c r="J43" s="263"/>
+      <c r="K43" s="263"/>
       <c r="L43" s="176" t="s">
         <v>188</v>
       </c>
@@ -6663,7 +6725,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="178">
-        <f t="shared" ref="F45:F51" si="35">E45/0.707*2</f>
+        <f t="shared" ref="F45:F51" si="16">E45/0.707*2</f>
         <v>141.44271570014146</v>
       </c>
       <c r="G45" s="178">
@@ -6699,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="182">
-        <f t="shared" ref="O45:O51" si="36">N45*N45/(O$31*1000)</f>
+        <f t="shared" ref="O45:O51" si="17">N45*N45/(O$31*1000)</f>
         <v>1E-3</v>
       </c>
       <c r="P45" s="207">
@@ -6707,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="181">
-        <f t="shared" ref="Q45:Q51" si="37">P45*P45/(Q$31*1000)</f>
+        <f t="shared" ref="Q45:Q51" si="18">P45*P45/(Q$31*1000)</f>
         <v>1E-3</v>
       </c>
       <c r="R45" s="179">
@@ -6720,59 +6782,59 @@
         <v>100</v>
       </c>
       <c r="E46" s="184">
-        <f t="shared" ref="E46:E51" si="38">(D46*50)^0.5</f>
+        <f t="shared" ref="E46:E51" si="19">(D46*50)^0.5</f>
         <v>70.710678118654755</v>
       </c>
       <c r="F46" s="184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>200.03020684202195</v>
       </c>
       <c r="G46" s="184">
-        <f t="shared" ref="G46:G51" si="39">D46/E46</f>
+        <f t="shared" ref="G46:G51" si="20">D46/E46</f>
         <v>1.4142135623730949</v>
       </c>
       <c r="H46" s="210">
-        <f t="shared" ref="H46:H51" si="40">G46/0.707*2</f>
+        <f t="shared" ref="H46:H51" si="21">G46/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
       <c r="I46" s="199">
-        <f t="shared" ref="I46:I51" si="41">G46/M$43</f>
+        <f t="shared" ref="I46:I51" si="22">G46/M$43</f>
         <v>5.6568542494923796E-2</v>
       </c>
       <c r="J46" s="184">
-        <f t="shared" ref="J46:J51" si="42">I46/0.707*2</f>
+        <f t="shared" ref="J46:J51" si="23">I46/0.707*2</f>
         <v>0.16002416547361753</v>
       </c>
       <c r="K46" s="186">
-        <f t="shared" ref="K46:K51" si="43">I46*50</f>
+        <f t="shared" ref="K46:K51" si="24">I46*50</f>
         <v>2.8284271247461898</v>
       </c>
       <c r="L46" s="184">
-        <f t="shared" ref="L46:L51" si="44">K46/0.707*2</f>
+        <f t="shared" ref="L46:L51" si="25">K46/0.707*2</f>
         <v>8.0012082736808772</v>
       </c>
       <c r="M46" s="185">
-        <f t="shared" ref="M46:M51" si="45">I46*K46</f>
+        <f t="shared" ref="M46:M51" si="26">I46*K46</f>
         <v>0.15999999999999998</v>
       </c>
       <c r="N46" s="199">
-        <f t="shared" ref="N46:N51" si="46">K46*O$31/(O$31+Q$31)</f>
+        <f t="shared" ref="N46:N51" si="27">K46*O$31/(O$31+Q$31)</f>
         <v>1.4142135623730949</v>
       </c>
       <c r="O46" s="188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999996E-3</v>
       </c>
       <c r="P46" s="199">
-        <f t="shared" ref="P46:P51" si="47">K46*Q$31/(O$31+Q$31)</f>
+        <f t="shared" ref="P46:P51" si="28">K46*Q$31/(O$31+Q$31)</f>
         <v>1.4142135623730949</v>
       </c>
       <c r="Q46" s="187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>1.9999999999999996E-3</v>
       </c>
       <c r="R46" s="185">
-        <f t="shared" ref="R46:R51" si="48">P46/0.707*2</f>
+        <f t="shared" ref="R46:R51" si="29">P46/0.707*2</f>
         <v>4.0006041368404386</v>
       </c>
     </row>
@@ -6781,59 +6843,59 @@
         <v>150</v>
       </c>
       <c r="E47" s="184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>86.602540378443862</v>
       </c>
       <c r="F47" s="184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>244.98596995316512</v>
       </c>
       <c r="G47" s="184">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>1.7320508075688774</v>
       </c>
       <c r="H47" s="210">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>4.8997193990633026</v>
       </c>
       <c r="I47" s="199">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>6.9282032302755092E-2</v>
       </c>
       <c r="J47" s="184">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>0.19598877596253209</v>
       </c>
       <c r="K47" s="186">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>3.4641016151377544</v>
       </c>
       <c r="L47" s="184">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>9.7994387981266033</v>
       </c>
       <c r="M47" s="185">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>0.24</v>
       </c>
       <c r="N47" s="199">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>1.7320508075688772</v>
       </c>
       <c r="O47" s="188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>2.9999999999999996E-3</v>
       </c>
       <c r="P47" s="199">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>1.7320508075688772</v>
       </c>
       <c r="Q47" s="187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999996E-3</v>
       </c>
       <c r="R47" s="185">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>4.8997193990633017</v>
       </c>
     </row>
@@ -6842,59 +6904,59 @@
         <v>200</v>
       </c>
       <c r="E48" s="184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="F48" s="184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>282.88543140028293</v>
       </c>
       <c r="G48" s="184">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="H48" s="210">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>5.6577086280056577</v>
       </c>
       <c r="I48" s="199">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
       <c r="J48" s="184">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>0.22630834512022632</v>
       </c>
       <c r="K48" s="186">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="L48" s="184">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>11.315417256011315</v>
       </c>
       <c r="M48" s="185">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>0.32</v>
       </c>
       <c r="N48" s="199">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="O48" s="188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P48" s="199">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="Q48" s="187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="R48" s="185">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>5.6577086280056577</v>
       </c>
     </row>
@@ -6903,59 +6965,59 @@
         <v>250</v>
       </c>
       <c r="E49" s="184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>111.80339887498948</v>
       </c>
       <c r="F49" s="184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>316.27552722769303</v>
       </c>
       <c r="G49" s="184">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="H49" s="210">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>6.3255105445538611</v>
       </c>
       <c r="I49" s="199">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="J49" s="184">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>0.25302042178215445</v>
       </c>
       <c r="K49" s="186">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="L49" s="184">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>12.651021089107722</v>
       </c>
       <c r="M49" s="185">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="N49" s="199">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="O49" s="188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="P49" s="199">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="Q49" s="187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="R49" s="185">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>6.3255105445538611</v>
       </c>
     </row>
@@ -6964,59 +7026,59 @@
         <v>300</v>
       </c>
       <c r="E50" s="184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>122.47448713915891</v>
       </c>
       <c r="F50" s="184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>346.46248129889369</v>
       </c>
       <c r="G50" s="184">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="H50" s="210">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>6.9292496259778726</v>
       </c>
       <c r="I50" s="199">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>9.7979589711327114E-2</v>
       </c>
       <c r="J50" s="184">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>0.27716998503911489</v>
       </c>
       <c r="K50" s="186">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>4.8989794855663558</v>
       </c>
       <c r="L50" s="184">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>13.858499251955745</v>
       </c>
       <c r="M50" s="185">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>0.47999999999999993</v>
       </c>
       <c r="N50" s="199">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="O50" s="188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>5.9999999999999993E-3</v>
       </c>
       <c r="P50" s="199">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="Q50" s="187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>5.9999999999999993E-3</v>
       </c>
       <c r="R50" s="185">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>6.9292496259778726</v>
       </c>
     </row>
@@ -7025,59 +7087,59 @@
         <v>350</v>
       </c>
       <c r="E51" s="190">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>132.28756555322954</v>
       </c>
       <c r="F51" s="190">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>374.22225050418541</v>
       </c>
       <c r="G51" s="190">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>2.6457513110645903</v>
       </c>
       <c r="H51" s="211">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>7.4844450100837072</v>
       </c>
       <c r="I51" s="200">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>0.10583005244258362</v>
       </c>
       <c r="J51" s="190">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>0.29937780040334827</v>
       </c>
       <c r="K51" s="192">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>5.2915026221291805</v>
       </c>
       <c r="L51" s="190">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>14.968890020167414</v>
       </c>
       <c r="M51" s="191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="N51" s="200">
-        <f t="shared" si="46"/>
+        <f t="shared" si="27"/>
         <v>2.6457513110645903</v>
       </c>
       <c r="O51" s="194">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>6.9999999999999984E-3</v>
       </c>
       <c r="P51" s="200">
-        <f t="shared" si="47"/>
+        <f t="shared" si="28"/>
         <v>2.6457513110645903</v>
       </c>
       <c r="Q51" s="193">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999984E-3</v>
       </c>
       <c r="R51" s="191">
-        <f t="shared" si="48"/>
+        <f t="shared" si="29"/>
         <v>7.4844450100837072</v>
       </c>
     </row>
@@ -7231,6 +7293,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:R42"/>
     <mergeCell ref="N30:O30"/>
@@ -7239,18 +7313,6 @@
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="D42:H43"/>
     <mergeCell ref="I42:K43"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7258,6 +7320,785 @@
     <ignoredError sqref="G8:G12" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B5" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="132" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="144">
+        <f>(B6*C6)^0.5</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="56">
+        <f>B6/D6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="144">
+        <f>D6/0.707*2</f>
+        <v>141.44271570014146</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="J6" s="26">
+        <f t="shared" ref="J6:J15" si="0">F6*I6/(G6*H6+I6)</f>
+        <v>4.1493117634208891</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="28">
+        <v>100</v>
+      </c>
+      <c r="C7" s="19">
+        <v>50</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" ref="D7:D15" si="1">(B7*C7)^0.5</f>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="E7" s="161">
+        <f t="shared" ref="E7:E15" si="2">B7/D7</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="F7" s="103">
+        <f t="shared" ref="F7:F15" si="3">D7/0.707*2</f>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8680129703440436</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4">
+        <v>150</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="103">
+        <f t="shared" si="1"/>
+        <v>86.602540378443862</v>
+      </c>
+      <c r="E8" s="147">
+        <f t="shared" si="2"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="F8" s="103">
+        <f t="shared" si="3"/>
+        <v>244.98596995316512</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.186818790688192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="28">
+        <v>200</v>
+      </c>
+      <c r="C9" s="19">
+        <v>50</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="161">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="103">
+        <f t="shared" si="3"/>
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.2986235268417783</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4">
+        <v>250</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="103">
+        <f t="shared" si="1"/>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="E10" s="147">
+        <f t="shared" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="F10" s="103">
+        <f t="shared" si="3"/>
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2781431628486324</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="28">
+        <v>300</v>
+      </c>
+      <c r="C11" s="19">
+        <v>50</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="1"/>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="E11" s="161">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="F11" s="103">
+        <f t="shared" si="3"/>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>10.163696604109049</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="4">
+        <v>350</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="103">
+        <f t="shared" si="1"/>
+        <v>132.28756555322954</v>
+      </c>
+      <c r="E12" s="147">
+        <f t="shared" si="2"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="F12" s="103">
+        <f t="shared" si="3"/>
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>10.978047038086544</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="4">
+        <v>400</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" s="103">
+        <f t="shared" si="1"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="E13" s="147">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="F13" s="103">
+        <f t="shared" si="3"/>
+        <v>400.06041368404391</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>11.736025940688087</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="4">
+        <v>450</v>
+      </c>
+      <c r="C14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" s="103">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E14" s="147">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="103">
+        <f t="shared" si="3"/>
+        <v>424.32814710042436</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>12.447935290262665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B15" s="7">
+        <v>500</v>
+      </c>
+      <c r="C15" s="8">
+        <v>50</v>
+      </c>
+      <c r="D15" s="148">
+        <f t="shared" si="1"/>
+        <v>158.11388300841898</v>
+      </c>
+      <c r="E15" s="150">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683791</v>
+      </c>
+      <c r="F15" s="148">
+        <f t="shared" si="3"/>
+        <v>447.28114005210466</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="J15" s="228">
+        <f t="shared" si="0"/>
+        <v>13.121275894539741</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="227" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="227" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="227" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="227" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="227" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="227" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="227" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" s="227" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="227" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F21" s="103">
+        <f>B21*(C21*D21+E21)/E21</f>
+        <v>158.16941176470584</v>
+      </c>
+      <c r="G21" s="103">
+        <f>F21/2*0.707</f>
+        <v>55.912887058823515</v>
+      </c>
+      <c r="H21" s="103">
+        <f>J21/G21</f>
+        <v>1.1182577411764703</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
+      </c>
+      <c r="J21" s="103">
+        <f>G21*G21/I21</f>
+        <v>62.525018785055082</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2">
+        <f>48*L21/100</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="2">
+        <v>5.68</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F22" s="103">
+        <f>B22*(C22*D22+E22)/E22</f>
+        <v>193.62117647058821</v>
+      </c>
+      <c r="G22" s="103">
+        <f>F22/2*0.707</f>
+        <v>68.445085882352927</v>
+      </c>
+      <c r="H22" s="103">
+        <f>J22/G22</f>
+        <v>1.3689017176470586</v>
+      </c>
+      <c r="I22" s="2">
+        <v>50</v>
+      </c>
+      <c r="J22" s="103">
+        <f>G22*G22/I22</f>
+        <v>93.694595628853364</v>
+      </c>
+      <c r="K22" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="L22" s="2">
+        <v>70</v>
+      </c>
+      <c r="M22" s="2">
+        <f>48*L22/100</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="17.25" thickBot="1"/>
+    <row r="26" spans="2:13">
+      <c r="B26" s="225" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="226" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="226" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="226" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="226" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="226" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>50</v>
+      </c>
+      <c r="D27" s="103">
+        <f>(B27*C27)^0.5</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="147">
+        <f>B27/D27</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="103">
+        <f>D27/0.707*2</f>
+        <v>141.44271570014146</v>
+      </c>
+      <c r="G27" s="103">
+        <f>F27/25</f>
+        <v>5.6577086280056585</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="19">
+        <v>100</v>
+      </c>
+      <c r="C28" s="19">
+        <v>50</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" ref="D28:D36" si="4">(B28*C28)^0.5</f>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="E28" s="161">
+        <f t="shared" ref="E28:E36" si="5">B28/D28</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="F28" s="103">
+        <f t="shared" ref="F28:F36" si="6">D28/0.707*2</f>
+        <v>200.03020684202195</v>
+      </c>
+      <c r="G28" s="103">
+        <f>F28/25</f>
+        <v>8.0012082736808789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="2">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50</v>
+      </c>
+      <c r="D29" s="103">
+        <f t="shared" si="4"/>
+        <v>86.602540378443862</v>
+      </c>
+      <c r="E29" s="147">
+        <f t="shared" si="5"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="F29" s="103">
+        <f t="shared" si="6"/>
+        <v>244.98596995316512</v>
+      </c>
+      <c r="G29" s="103">
+        <f t="shared" ref="G29:G36" si="7">F29/25</f>
+        <v>9.7994387981266051</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="19">
+        <v>200</v>
+      </c>
+      <c r="C30" s="19">
+        <v>50</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="161">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="103">
+        <f t="shared" si="6"/>
+        <v>282.88543140028293</v>
+      </c>
+      <c r="G30" s="103">
+        <f t="shared" si="7"/>
+        <v>11.315417256011317</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="2">
+        <v>250</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" s="103">
+        <f t="shared" si="4"/>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="E31" s="147">
+        <f t="shared" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="F31" s="103">
+        <f t="shared" si="6"/>
+        <v>316.27552722769303</v>
+      </c>
+      <c r="G31" s="103">
+        <f t="shared" si="7"/>
+        <v>12.651021089107722</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="19">
+        <v>300</v>
+      </c>
+      <c r="C32" s="19">
+        <v>50</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="4"/>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="E32" s="161">
+        <f t="shared" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="F32" s="103">
+        <f t="shared" si="6"/>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="G32" s="103">
+        <f t="shared" si="7"/>
+        <v>13.858499251955747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2">
+        <v>350</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50</v>
+      </c>
+      <c r="D33" s="103">
+        <f t="shared" si="4"/>
+        <v>132.28756555322954</v>
+      </c>
+      <c r="E33" s="147">
+        <f t="shared" si="5"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="F33" s="103">
+        <f t="shared" si="6"/>
+        <v>374.22225050418541</v>
+      </c>
+      <c r="G33" s="103">
+        <f t="shared" si="7"/>
+        <v>14.968890020167416</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2">
+        <v>400</v>
+      </c>
+      <c r="C34" s="2">
+        <v>50</v>
+      </c>
+      <c r="D34" s="103">
+        <f t="shared" si="4"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="E34" s="147">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="F34" s="103">
+        <f t="shared" si="6"/>
+        <v>400.06041368404391</v>
+      </c>
+      <c r="G34" s="103">
+        <f t="shared" si="7"/>
+        <v>16.002416547361758</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2">
+        <v>450</v>
+      </c>
+      <c r="C35" s="2">
+        <v>50</v>
+      </c>
+      <c r="D35" s="103">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="E35" s="147">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="103">
+        <f t="shared" si="6"/>
+        <v>424.32814710042436</v>
+      </c>
+      <c r="G35" s="103">
+        <f t="shared" si="7"/>
+        <v>16.973125884016973</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2">
+        <v>500</v>
+      </c>
+      <c r="C36" s="2">
+        <v>50</v>
+      </c>
+      <c r="D36" s="103">
+        <f t="shared" si="4"/>
+        <v>158.11388300841898</v>
+      </c>
+      <c r="E36" s="147">
+        <f t="shared" si="5"/>
+        <v>3.1622776601683791</v>
+      </c>
+      <c r="F36" s="103">
+        <f t="shared" si="6"/>
+        <v>447.28114005210466</v>
+      </c>
+      <c r="G36" s="103">
+        <f t="shared" si="7"/>
+        <v>17.891245602084187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7449,32 +8290,32 @@
     <row r="3" spans="2:35" ht="17.25" thickBot="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="226" t="s">
+      <c r="D3" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="234" t="s">
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="234"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="231"/>
-      <c r="U3" s="231"/>
-      <c r="V3" s="231"/>
-      <c r="W3" s="231"/>
-      <c r="X3" s="231"/>
-      <c r="Y3" s="235"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="239"/>
       <c r="Z3" s="76" t="s">
         <v>57</v>
       </c>
@@ -7483,16 +8324,16 @@
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="229"/>
+      <c r="L4" s="233"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
       <c r="O4" s="54"/>
@@ -7502,12 +8343,12 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="232" t="s">
+      <c r="V4" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="233"/>
+      <c r="W4" s="236"/>
+      <c r="X4" s="236"/>
+      <c r="Y4" s="237"/>
       <c r="Z4" s="72"/>
       <c r="AC4" t="s">
         <v>101</v>
@@ -7635,7 +8476,7 @@
         <v>47</v>
       </c>
       <c r="G6" s="33">
-        <f t="shared" ref="G6" si="0">1+E6/F6</f>
+        <f>1+E6/F6</f>
         <v>11</v>
       </c>
       <c r="H6" s="55">
@@ -7722,7 +8563,7 @@
         <v>47</v>
       </c>
       <c r="G7" s="33">
-        <f t="shared" ref="G7" si="1">1+E7/F7</f>
+        <f>1+E7/F7</f>
         <v>11</v>
       </c>
       <c r="H7" s="55">
@@ -8210,18 +9051,18 @@
         <v>117</v>
       </c>
       <c r="E3" s="114"/>
-      <c r="F3" s="238" t="s">
+      <c r="F3" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238" t="s">
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="236" t="s">
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="240" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8259,7 +9100,7 @@
       <c r="L4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="237"/>
+      <c r="M4" s="241"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="115">
@@ -8271,7 +9112,7 @@
       <c r="D5" s="54">
         <v>2.04</v>
       </c>
-      <c r="E5" s="241">
+      <c r="E5" s="245">
         <v>3</v>
       </c>
       <c r="F5" s="54">
@@ -8281,7 +9122,7 @@
         <v>1.6</v>
       </c>
       <c r="H5" s="54">
-        <f>F5*G5</f>
+        <f t="shared" ref="H5:H13" si="0">F5*G5</f>
         <v>38.400000000000006</v>
       </c>
       <c r="I5" s="54">
@@ -8294,7 +9135,7 @@
         <v>25.2</v>
       </c>
       <c r="L5" s="106">
-        <f>K5*K5/I5</f>
+        <f t="shared" ref="L5:L13" si="1">K5*K5/I5</f>
         <v>12.700799999999999</v>
       </c>
       <c r="M5" s="116">
@@ -8306,7 +9147,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="239"/>
+      <c r="E6" s="243"/>
       <c r="F6" s="2">
         <v>32</v>
       </c>
@@ -8314,7 +9155,7 @@
         <v>2.9</v>
       </c>
       <c r="H6" s="2">
-        <f>F6*G6</f>
+        <f t="shared" si="0"/>
         <v>92.8</v>
       </c>
       <c r="I6" s="2">
@@ -8327,11 +9168,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="L6" s="103">
-        <f>K6*K6/I6</f>
+        <f t="shared" si="1"/>
         <v>20.865799999999993</v>
       </c>
       <c r="M6" s="108">
-        <f t="shared" ref="M6:M13" si="0">L6/H6*100</f>
+        <f t="shared" ref="M6:M13" si="2">L6/H6*100</f>
         <v>22.484698275862062</v>
       </c>
     </row>
@@ -8339,7 +9180,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="239"/>
+      <c r="E7" s="243"/>
       <c r="F7" s="2">
         <v>40</v>
       </c>
@@ -8347,7 +9188,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="2">
-        <f>F7*G7</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="I7" s="2">
@@ -8360,11 +9201,11 @@
         <v>38.4</v>
       </c>
       <c r="L7" s="103">
-        <f>K7*K7/I7</f>
+        <f t="shared" si="1"/>
         <v>29.491199999999999</v>
       </c>
       <c r="M7" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.431999999999999</v>
       </c>
     </row>
@@ -8372,7 +9213,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="239"/>
+      <c r="E8" s="243"/>
       <c r="F8" s="2">
         <v>48</v>
       </c>
@@ -8380,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2">
-        <f>F8*G8</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I8" s="2">
@@ -8393,11 +9234,11 @@
         <v>43.3</v>
       </c>
       <c r="L8" s="103">
-        <f>K8*K8/I8</f>
+        <f t="shared" si="1"/>
         <v>37.497799999999991</v>
       </c>
       <c r="M8" s="108">
-        <f t="shared" ref="M8" si="1">L8/H8*100</f>
+        <f>L8/H8*100</f>
         <v>15.62408333333333</v>
       </c>
     </row>
@@ -8405,7 +9246,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="239">
+      <c r="E9" s="243">
         <v>3.5</v>
       </c>
       <c r="F9" s="104">
@@ -8415,7 +9256,7 @@
         <v>3.5</v>
       </c>
       <c r="H9" s="104">
-        <f t="shared" ref="H9:H13" si="2">F9*G9</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="I9" s="104">
@@ -8428,11 +9269,11 @@
         <v>23.6</v>
       </c>
       <c r="L9" s="105">
-        <f t="shared" ref="L9:L13" si="3">K9*K9/I9</f>
+        <f t="shared" si="1"/>
         <v>11.139200000000001</v>
       </c>
       <c r="M9" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.260952380952382</v>
       </c>
     </row>
@@ -8440,7 +9281,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="239"/>
+      <c r="E10" s="243"/>
       <c r="F10" s="104">
         <v>32</v>
       </c>
@@ -8448,7 +9289,7 @@
         <v>4.7</v>
       </c>
       <c r="H10" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>150.4</v>
       </c>
       <c r="I10" s="104">
@@ -8461,11 +9302,11 @@
         <v>30.7</v>
       </c>
       <c r="L10" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18.849800000000002</v>
       </c>
       <c r="M10" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.533111702127661</v>
       </c>
     </row>
@@ -8473,7 +9314,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="239">
+      <c r="E11" s="243">
         <v>2.5</v>
       </c>
       <c r="F11" s="2">
@@ -8483,7 +9324,7 @@
         <v>1.6</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38.400000000000006</v>
       </c>
       <c r="I11" s="2">
@@ -8496,11 +9337,11 @@
         <v>25.6</v>
       </c>
       <c r="L11" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.107200000000002</v>
       </c>
       <c r="M11" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34.133333333333333</v>
       </c>
     </row>
@@ -8508,7 +9349,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="239"/>
+      <c r="E12" s="243"/>
       <c r="F12" s="2">
         <v>32</v>
       </c>
@@ -8516,7 +9357,7 @@
         <v>2.8</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>89.6</v>
       </c>
       <c r="I12" s="2">
@@ -8529,11 +9370,11 @@
         <v>32.200000000000003</v>
       </c>
       <c r="L12" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20.736800000000002</v>
       </c>
       <c r="M12" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.143750000000004</v>
       </c>
     </row>
@@ -8541,7 +9382,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="240"/>
+      <c r="E13" s="244"/>
       <c r="F13" s="110">
         <v>40</v>
       </c>
@@ -8549,7 +9390,7 @@
         <v>2.9</v>
       </c>
       <c r="H13" s="110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="I13" s="110">
@@ -8562,11 +9403,11 @@
         <v>29.9</v>
       </c>
       <c r="L13" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.880199999999999</v>
       </c>
       <c r="M13" s="112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.41396551724138</v>
       </c>
     </row>
@@ -8621,49 +9462,49 @@
   <sheetData>
     <row r="3" spans="2:27" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:27" s="15" customFormat="1">
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238" t="s">
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="238" t="s">
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="238"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="238"/>
-      <c r="U4" s="245" t="s">
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="238" t="s">
+      <c r="V4" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238"/>
-      <c r="Y4" s="238" t="s">
+      <c r="W4" s="242"/>
+      <c r="X4" s="242"/>
+      <c r="Y4" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="238"/>
-      <c r="AA4" s="242"/>
+      <c r="Z4" s="242"/>
+      <c r="AA4" s="246"/>
     </row>
     <row r="5" spans="2:27" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B5" s="244"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="24" t="s">
         <v>127</v>
       </c>
@@ -8716,7 +9557,7 @@
       <c r="T5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U5" s="246"/>
+      <c r="U5" s="250"/>
       <c r="V5" s="119" t="s">
         <v>145</v>
       </c>
@@ -8827,7 +9668,7 @@
         <v>2.8888888888888888</v>
       </c>
       <c r="K7" s="50">
-        <f t="shared" ref="K7:K9" si="1">G7*J7</f>
+        <f>G7*J7</f>
         <v>0</v>
       </c>
       <c r="L7" s="2"/>
@@ -8851,7 +9692,7 @@
         <v>29.7</v>
       </c>
       <c r="X7" s="36">
-        <f t="shared" ref="X7:X18" si="2">W7*W7/U7</f>
+        <f t="shared" ref="X7:X18" si="1">W7*W7/U7</f>
         <v>17.6418</v>
       </c>
       <c r="Y7" s="2">
@@ -8861,7 +9702,7 @@
         <v>0.9</v>
       </c>
       <c r="AA7" s="124">
-        <f t="shared" ref="AA7:AA18" si="3">Y7*Z7</f>
+        <f t="shared" ref="AA7:AA18" si="2">Y7*Z7</f>
         <v>21.6</v>
       </c>
     </row>
@@ -8883,7 +9724,7 @@
         <v>2.8888888888888888</v>
       </c>
       <c r="K8" s="130">
-        <f t="shared" si="1"/>
+        <f>G8*J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="8"/>
@@ -8907,7 +9748,7 @@
         <v>29</v>
       </c>
       <c r="X8" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.82</v>
       </c>
       <c r="Y8" s="8">
@@ -8917,7 +9758,7 @@
         <v>1.3</v>
       </c>
       <c r="AA8" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31.200000000000003</v>
       </c>
     </row>
@@ -8943,7 +9784,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K9" s="50">
-        <f t="shared" si="1"/>
+        <f>G9*J9</f>
         <v>11.968000000000002</v>
       </c>
       <c r="L9" s="10">
@@ -8973,7 +9814,7 @@
         <v>30</v>
       </c>
       <c r="X9" s="122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Y9" s="10">
@@ -8983,7 +9824,7 @@
         <v>0.9</v>
       </c>
       <c r="AA9" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
     </row>
@@ -9032,7 +9873,7 @@
         <v>35</v>
       </c>
       <c r="X10" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
       <c r="Y10" s="2"/>
@@ -9040,7 +9881,7 @@
         <v>1.6</v>
       </c>
       <c r="AA10" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9083,7 +9924,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="X11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.220799999999993</v>
       </c>
       <c r="Y11" s="2">
@@ -9093,7 +9934,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AA11" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64.399999999999991</v>
       </c>
     </row>
@@ -9136,7 +9977,7 @@
         <v>45.8</v>
       </c>
       <c r="X12" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41.952799999999996</v>
       </c>
       <c r="Y12" s="8">
@@ -9146,7 +9987,7 @@
         <v>4</v>
       </c>
       <c r="AA12" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -9173,7 +10014,7 @@
         <v>7.8</v>
       </c>
       <c r="K13" s="127">
-        <f t="shared" ref="K13" si="4">G13*J13</f>
+        <f>G13*J13</f>
         <v>21.84</v>
       </c>
       <c r="L13" s="54"/>
@@ -9201,7 +10042,7 @@
         <v>45.8</v>
       </c>
       <c r="X13" s="128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41.952799999999996</v>
       </c>
       <c r="Y13" s="54">
@@ -9211,7 +10052,7 @@
         <v>4</v>
       </c>
       <c r="AA13" s="129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -9254,7 +10095,7 @@
         <v>46</v>
       </c>
       <c r="X14" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.32</v>
       </c>
       <c r="Y14" s="2">
@@ -9264,7 +10105,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AA14" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
@@ -9303,7 +10144,7 @@
         <v>43</v>
       </c>
       <c r="X15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36.979999999999997</v>
       </c>
       <c r="Y15" s="2">
@@ -9313,7 +10154,7 @@
         <v>3.7</v>
       </c>
       <c r="AA15" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
@@ -9352,7 +10193,7 @@
         <v>48.7</v>
       </c>
       <c r="X16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47.433799999999998</v>
       </c>
       <c r="Y16" s="2">
@@ -9362,7 +10203,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AA16" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220.79999999999998</v>
       </c>
     </row>
@@ -9403,7 +10244,7 @@
         <v>43.2</v>
       </c>
       <c r="X17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37.324800000000003</v>
       </c>
       <c r="Y17" s="2">
@@ -9413,7 +10254,7 @@
         <v>3.7</v>
       </c>
       <c r="AA17" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
@@ -9446,13 +10287,13 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9475,8 +10316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9901,23 +10742,23 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="247" t="s">
+      <c r="B19" s="251" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="239" t="s">
+      <c r="D19" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="239"/>
+      <c r="E19" s="243"/>
       <c r="F19" s="138">
         <v>5</v>
       </c>
       <c r="G19" s="138">
         <v>0.5</v>
       </c>
-      <c r="H19" s="239">
+      <c r="H19" s="243">
         <v>1.6</v>
       </c>
       <c r="I19" s="2">
@@ -9929,17 +10770,17 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="247"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="243"/>
       <c r="F20" s="138">
         <v>6</v>
       </c>
       <c r="G20" s="138">
         <v>0.6</v>
       </c>
-      <c r="H20" s="239"/>
+      <c r="H20" s="243"/>
       <c r="I20" s="2">
         <v>13.56</v>
       </c>
@@ -9949,32 +10790,32 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="247"/>
-      <c r="C21" s="239"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="239"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
       <c r="F21" s="138">
         <v>8</v>
       </c>
       <c r="G21" s="138">
         <v>1</v>
       </c>
-      <c r="H21" s="239"/>
+      <c r="H21" s="243"/>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B22" s="248"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
+      <c r="B22" s="252"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="244"/>
       <c r="F22" s="139">
         <v>10</v>
       </c>
       <c r="G22" s="139">
         <v>1.4</v>
       </c>
-      <c r="H22" s="240"/>
+      <c r="H22" s="244"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
@@ -10107,7 +10948,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="253" t="s">
         <v>120</v>
       </c>
       <c r="C4">
@@ -10118,7 +10959,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="249"/>
+      <c r="B5" s="253"/>
       <c r="C5">
         <v>48</v>
       </c>
@@ -10127,7 +10968,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="249"/>
+      <c r="B6" s="253"/>
       <c r="C6">
         <f>C4/C5</f>
         <v>12.5</v>
@@ -10186,43 +11027,43 @@
   <sheetData>
     <row r="3" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:26" s="15" customFormat="1">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238" t="s">
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="238"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="245" t="s">
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="238" t="s">
+      <c r="U4" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="238"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238" t="s">
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="242"/>
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="246"/>
     </row>
     <row r="5" spans="2:26" s="15" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="24" t="s">
@@ -10277,7 +11118,7 @@
       <c r="S5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="246"/>
+      <c r="T5" s="250"/>
       <c r="U5" s="119" t="s">
         <v>97</v>
       </c>
@@ -10378,7 +11219,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="50" t="e">
-        <f t="shared" ref="J7:J9" si="1">F7*I7</f>
+        <f>F7*I7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2"/>
@@ -10404,7 +11245,7 @@
         <v>26</v>
       </c>
       <c r="W7" s="36">
-        <f t="shared" ref="W7:W18" si="2">V7*V7/T7</f>
+        <f t="shared" ref="W7:W18" si="1">V7*V7/T7</f>
         <v>13.52</v>
       </c>
       <c r="X7" s="2">
@@ -10414,7 +11255,7 @@
         <v>0.9</v>
       </c>
       <c r="Z7" s="124">
-        <f t="shared" ref="Z7:Z18" si="3">X7*Y7</f>
+        <f t="shared" ref="Z7:Z18" si="2">X7*Y7</f>
         <v>21.6</v>
       </c>
     </row>
@@ -10431,7 +11272,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="130" t="e">
-        <f t="shared" si="1"/>
+        <f>F8*I8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="8"/>
@@ -10461,7 +11302,7 @@
         <v>21.4</v>
       </c>
       <c r="W8" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.1591999999999985</v>
       </c>
       <c r="X8" s="8">
@@ -10471,7 +11312,7 @@
         <v>5</v>
       </c>
       <c r="Z8" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
@@ -10488,7 +11329,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J9" s="50" t="e">
-        <f t="shared" si="1"/>
+        <f>F9*I9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="10"/>
@@ -10506,7 +11347,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X9" s="10">
@@ -10516,7 +11357,7 @@
         <v>0.9</v>
       </c>
       <c r="Z9" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
     </row>
@@ -10548,7 +11389,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10" s="2"/>
@@ -10556,7 +11397,7 @@
         <v>1.6</v>
       </c>
       <c r="Z10" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10588,7 +11429,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11" s="2">
@@ -10598,7 +11439,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Z11" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64.399999999999991</v>
       </c>
     </row>
@@ -10630,7 +11471,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12" s="8">
@@ -10640,7 +11481,7 @@
         <v>4</v>
       </c>
       <c r="Z12" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -10657,7 +11498,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="127" t="e">
-        <f t="shared" ref="J13" si="4">F13*I13</f>
+        <f>F13*I13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="54"/>
@@ -10675,7 +11516,7 @@
       <c r="U13" s="54"/>
       <c r="V13" s="54"/>
       <c r="W13" s="128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13" s="54">
@@ -10685,7 +11526,7 @@
         <v>4</v>
       </c>
       <c r="Z13" s="129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -10717,7 +11558,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14" s="2">
@@ -10727,7 +11568,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z14" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
@@ -10759,7 +11600,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="2">
@@ -10769,7 +11610,7 @@
         <v>3.7</v>
       </c>
       <c r="Z15" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
@@ -10801,7 +11642,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16" s="2">
@@ -10811,7 +11652,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Z16" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220.79999999999998</v>
       </c>
     </row>
@@ -10843,7 +11684,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X17" s="2">
@@ -10853,7 +11694,7 @@
         <v>3.7</v>
       </c>
       <c r="Z17" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
@@ -10885,13 +11726,13 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
